--- a/dashboard/reference.xlsx
+++ b/dashboard/reference.xlsx
@@ -491,7 +491,7 @@
         <v>Identifier</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>COVAX_AGG_DASHBOARD_V1.0_DHIS2.30_2021-02-04T14:00</v>
+        <v>COVAX_AGG_DASHBOARD_V1.0_DHIS2.30_2021-03-02T11:09</v>
       </c>
     </row>
   </sheetData>
@@ -500,14 +500,14 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="85.7109375" customWidth="1"/>
+    <col min="3" max="3" width="83.7109375" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" customWidth="1"/>
@@ -535,19 +535,19 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>T60YVx3ISwD</v>
+        <v>mJ7Zkgb6exz</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>Chart</v>
+        <v>Pivot table</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>COVAX - Dropout rates by priority groups, this and last 6 months</v>
+        <v>COVAC - Doses per vial</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>nqfpCrIpuhK</v>
+        <v>a18Xk13o2zR</v>
       </c>
       <c r="E2" s="4" t="str">
-        <v>2021-01-22</v>
+        <v>2021-02-23</v>
       </c>
       <c r="F2" s="4" t="str">
         <v>fya0FUpbxX9</v>
@@ -555,19 +555,19 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v/>
+        <v>yDlkIXZZpib</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>TEXT</v>
+        <v>Pivot table</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v/>
+        <v>COVAC - Vaccination cards stock overview</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>BnR8fMS7Pwd</v>
+        <v>QRNRqtz7zHP</v>
       </c>
       <c r="E3" s="5" t="str">
-        <v>2021-01-22</v>
+        <v>2021-02-23</v>
       </c>
       <c r="F3" s="5" t="str">
         <v>fya0FUpbxX9</v>
@@ -575,19 +575,19 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v/>
+        <v>adnV6bpKCh9</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>TEXT</v>
+        <v>Pivot table</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v/>
+        <v>COVAC - Safety box stock overview</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>NeWmvKGFpBe</v>
+        <v>Kxm3stHdcIM</v>
       </c>
       <c r="E4" s="4" t="str">
-        <v>2021-01-22</v>
+        <v>2021-02-23</v>
       </c>
       <c r="F4" s="4" t="str">
         <v>fya0FUpbxX9</v>
@@ -595,19 +595,19 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>L2geQCvt3m9</v>
+        <v>Wec4Dwwr1lt</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>Chart</v>
+        <v>Pivot table</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>COVAX - Vaccine stock reporting rates  - today and last 7 days</v>
+        <v>COVAC - Syringes stock overview</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>UBrW2xTHb6X</v>
+        <v>ISyRDpRmaSs</v>
       </c>
       <c r="E5" s="5" t="str">
-        <v>2021-01-22</v>
+        <v>2021-02-23</v>
       </c>
       <c r="F5" s="5" t="str">
         <v>fya0FUpbxX9</v>
@@ -615,19 +615,19 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>Sg5FrsMduxN</v>
+        <v>x7Vt3Xmo1kq</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>Map</v>
+        <v>Pivot table</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>COVAX - % of targeted people given 1st dose given by sub national level - this year</v>
+        <v>COVAC - Cold boxes stock overview</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>MpsVgklhque</v>
+        <v>EYUcCFqLpu6</v>
       </c>
       <c r="E6" s="4" t="str">
-        <v>2021-01-22</v>
+        <v>2021-02-23</v>
       </c>
       <c r="F6" s="4" t="str">
         <v>fya0FUpbxX9</v>
@@ -635,19 +635,19 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>IAmP71D6zQV</v>
+        <v>MD61sUlFB2b</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>Map</v>
+        <v>Chart</v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>COVAX - Dropout  rate at sub national level - this year</v>
+        <v>COVAC - Stock at hand of all items</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>UeONCNrMi6S</v>
+        <v>Xxta3hdZKUB</v>
       </c>
       <c r="E7" s="5" t="str">
-        <v>2021-01-22</v>
+        <v>2021-02-23</v>
       </c>
       <c r="F7" s="5" t="str">
         <v>fya0FUpbxX9</v>
@@ -655,19 +655,19 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>MeqsIPI7jsf</v>
+        <v>ri7d3UrtHDO</v>
       </c>
       <c r="B8" s="4" t="str">
         <v>Chart</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>COVAX - Vaccination reporting rates  - today and last 7 days</v>
+        <v>COVAC - Number of people receiving last dose - cumulative</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>QR67Y5lhCi5</v>
+        <v>GfnLPzjjWkk</v>
       </c>
       <c r="E8" s="4" t="str">
-        <v>2021-01-22</v>
+        <v>2021-02-23</v>
       </c>
       <c r="F8" s="4" t="str">
         <v>fya0FUpbxX9</v>
@@ -675,19 +675,19 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>iBwXpDzZJ4M</v>
+        <v>oLuNlwZC7fq</v>
       </c>
       <c r="B9" s="5" t="str">
         <v>Chart</v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>COVAX - Staff available - today and last 7 days</v>
+        <v>COVAC - Number of people given 1st dose by sex - this year</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>bAneSZhNJ2T</v>
+        <v>eciGLyUWuif</v>
       </c>
       <c r="E9" s="5" t="str">
-        <v>2021-01-22</v>
+        <v>2021-02-23</v>
       </c>
       <c r="F9" s="5" t="str">
         <v>fya0FUpbxX9</v>
@@ -695,19 +695,19 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>IC3e1YTilA3</v>
+        <v>Ci8llLIB9W3</v>
       </c>
       <c r="B10" s="4" t="str">
         <v>Chart</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>COVAX - AEFIs by vaccine and severity - this month</v>
+        <v>COVAC - Priority target groups having received last dose</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>vRdhMliOg1A</v>
+        <v>hUNOot4EkW6</v>
       </c>
       <c r="E10" s="4" t="str">
-        <v>2021-01-22</v>
+        <v>2021-02-23</v>
       </c>
       <c r="F10" s="4" t="str">
         <v>fya0FUpbxX9</v>
@@ -715,19 +715,19 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>UEnas3PpETN</v>
+        <v>JxKIz5qRtO5</v>
       </c>
       <c r="B11" s="5" t="str">
         <v>Chart</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>COVAX - Uptake (%) by vaccine given -  this year</v>
+        <v>COVAC - Priority target groups having received at least the 1st dose - cumulative</v>
       </c>
       <c r="D11" s="5" t="str">
-        <v>BIPbWkEv9bX</v>
+        <v>W2xK33tdCDt</v>
       </c>
       <c r="E11" s="5" t="str">
-        <v>2021-01-22</v>
+        <v>2021-02-23</v>
       </c>
       <c r="F11" s="5" t="str">
         <v>fya0FUpbxX9</v>
@@ -735,19 +735,19 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>q24wzRQtygl</v>
+        <v>b2p5J4aSlwX</v>
       </c>
       <c r="B12" s="4" t="str">
         <v>Pivot table</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v>COVAX - Vials received, administered, redistributed and discarded - this year</v>
+        <v>COVAC - Priority target groups</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v>guv8YUGtNHZ</v>
+        <v>QskadxgOx3K</v>
       </c>
       <c r="E12" s="4" t="str">
-        <v>2021-01-22</v>
+        <v>2021-02-23</v>
       </c>
       <c r="F12" s="4" t="str">
         <v>fya0FUpbxX9</v>
@@ -755,19 +755,19 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>UAxSsG1vtda</v>
+        <v>FU1vzJKkUwE</v>
       </c>
       <c r="B13" s="5" t="str">
         <v>Pivot table</v>
       </c>
       <c r="C13" s="5" t="str">
-        <v>COVAX - Items required/available - today and last 3 days</v>
+        <v>COVAC - Target general population</v>
       </c>
       <c r="D13" s="5" t="str">
-        <v>myxdX6NYgnL</v>
+        <v>yU9JhMbNKNC</v>
       </c>
       <c r="E13" s="5" t="str">
-        <v>2021-01-22</v>
+        <v>2021-02-23</v>
       </c>
       <c r="F13" s="5" t="str">
         <v>fya0FUpbxX9</v>
@@ -775,19 +775,19 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>vKavKhPWSRc</v>
+        <v>T60YVx3ISwD</v>
       </c>
       <c r="B14" s="4" t="str">
         <v>Chart</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v>COVAX - Wastage by reasons and condition of the vials - this month</v>
+        <v>COVAC - Dropout rates by priority groups, this and last 6 months</v>
       </c>
       <c r="D14" s="4" t="str">
-        <v>HXWEPi6u4f0</v>
+        <v>nqfpCrIpuhK</v>
       </c>
       <c r="E14" s="4" t="str">
-        <v>2021-01-22</v>
+        <v>2021-02-23</v>
       </c>
       <c r="F14" s="4" t="str">
         <v>fya0FUpbxX9</v>
@@ -795,19 +795,19 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>laDW4fMp78v</v>
+        <v/>
       </c>
       <c r="B15" s="5" t="str">
-        <v>Chart</v>
+        <v>TEXT</v>
       </c>
       <c r="C15" s="5" t="str">
-        <v>COVAX - Vaccine wastage and discrepancy rates - today and last 7 days</v>
+        <v/>
       </c>
       <c r="D15" s="5" t="str">
-        <v>nEHXv4H289u</v>
+        <v>BnR8fMS7Pwd</v>
       </c>
       <c r="E15" s="5" t="str">
-        <v>2021-01-22</v>
+        <v>2021-02-23</v>
       </c>
       <c r="F15" s="5" t="str">
         <v>fya0FUpbxX9</v>
@@ -815,19 +815,19 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>sGJvgqCpGHn</v>
+        <v>L2geQCvt3m9</v>
       </c>
       <c r="B16" s="4" t="str">
         <v>Chart</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v>COVAX - Stock at hand - vials by vaccine - today and last 7 days</v>
+        <v>COVAC - Vaccine stock reporting rates  - today and last 7 days</v>
       </c>
       <c r="D16" s="4" t="str">
-        <v>UurU6yrcbP0</v>
+        <v>UBrW2xTHb6X</v>
       </c>
       <c r="E16" s="4" t="str">
-        <v>2021-01-22</v>
+        <v>2021-02-23</v>
       </c>
       <c r="F16" s="4" t="str">
         <v>fya0FUpbxX9</v>
@@ -835,19 +835,19 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v>CwgW21jWHz1</v>
+        <v>Sg5FrsMduxN</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>Chart</v>
+        <v>Map</v>
       </c>
       <c r="C17" s="5" t="str">
-        <v>COVAX - Number of people given 1st dose by age - this year</v>
+        <v>COVAC - % of targeted people given 1st dose given by sub national level - this year</v>
       </c>
       <c r="D17" s="5" t="str">
-        <v>URQnBENIj7M</v>
+        <v>MpsVgklhque</v>
       </c>
       <c r="E17" s="5" t="str">
-        <v>2021-01-22</v>
+        <v>2021-02-23</v>
       </c>
       <c r="F17" s="5" t="str">
         <v>fya0FUpbxX9</v>
@@ -855,19 +855,19 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>NBIo8UnkJsU</v>
+        <v>IAmP71D6zQV</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>Chart</v>
+        <v>Map</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>COVAX - Number of people given 1st - this and last 6 months</v>
+        <v>COVAC - Dropout  rate at sub national level - this year</v>
       </c>
       <c r="D18" s="4" t="str">
-        <v>eLK1hVjcRMJ</v>
+        <v>UeONCNrMi6S</v>
       </c>
       <c r="E18" s="4" t="str">
-        <v>2021-01-22</v>
+        <v>2021-02-23</v>
       </c>
       <c r="F18" s="4" t="str">
         <v>fya0FUpbxX9</v>
@@ -875,21 +875,181 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v>oP1h3CJEzP2</v>
+        <v>MeqsIPI7jsf</v>
       </c>
       <c r="B19" s="5" t="str">
         <v>Chart</v>
       </c>
       <c r="C19" s="5" t="str">
-        <v>COVAX - People given 1st dose by vaccine - this  and last month</v>
+        <v>COVAC - Vaccination reporting rates  - today and last 7 days</v>
       </c>
       <c r="D19" s="5" t="str">
+        <v>QR67Y5lhCi5</v>
+      </c>
+      <c r="E19" s="5" t="str">
+        <v>2021-02-23</v>
+      </c>
+      <c r="F19" s="5" t="str">
+        <v>fya0FUpbxX9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="str">
+        <v>iBwXpDzZJ4M</v>
+      </c>
+      <c r="B20" s="4" t="str">
+        <v>Chart</v>
+      </c>
+      <c r="C20" s="4" t="str">
+        <v>COVAC - Staff available - today and last 7 days</v>
+      </c>
+      <c r="D20" s="4" t="str">
+        <v>bAneSZhNJ2T</v>
+      </c>
+      <c r="E20" s="4" t="str">
+        <v>2021-02-23</v>
+      </c>
+      <c r="F20" s="4" t="str">
+        <v>fya0FUpbxX9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="str">
+        <v>IC3e1YTilA3</v>
+      </c>
+      <c r="B21" s="5" t="str">
+        <v>Chart</v>
+      </c>
+      <c r="C21" s="5" t="str">
+        <v>COVAC - AEFIs by vaccine and severity - this month</v>
+      </c>
+      <c r="D21" s="5" t="str">
+        <v>vRdhMliOg1A</v>
+      </c>
+      <c r="E21" s="5" t="str">
+        <v>2021-02-23</v>
+      </c>
+      <c r="F21" s="5" t="str">
+        <v>fya0FUpbxX9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="str">
+        <v>q24wzRQtygl</v>
+      </c>
+      <c r="B22" s="4" t="str">
+        <v>Pivot table</v>
+      </c>
+      <c r="C22" s="4" t="str">
+        <v>COVAC - Vials received, administered, redistributed and discarded - this year</v>
+      </c>
+      <c r="D22" s="4" t="str">
+        <v>guv8YUGtNHZ</v>
+      </c>
+      <c r="E22" s="4" t="str">
+        <v>2021-02-23</v>
+      </c>
+      <c r="F22" s="4" t="str">
+        <v>fya0FUpbxX9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="str">
+        <v>vKavKhPWSRc</v>
+      </c>
+      <c r="B23" s="5" t="str">
+        <v>Chart</v>
+      </c>
+      <c r="C23" s="5" t="str">
+        <v>COVAC - Wastage by reasons and condition of the vials - this month</v>
+      </c>
+      <c r="D23" s="5" t="str">
+        <v>HXWEPi6u4f0</v>
+      </c>
+      <c r="E23" s="5" t="str">
+        <v>2021-02-23</v>
+      </c>
+      <c r="F23" s="5" t="str">
+        <v>fya0FUpbxX9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="str">
+        <v>laDW4fMp78v</v>
+      </c>
+      <c r="B24" s="4" t="str">
+        <v>Chart</v>
+      </c>
+      <c r="C24" s="4" t="str">
+        <v>COVAC - Vaccine wastage and discrepancy rates - today and last 7 days</v>
+      </c>
+      <c r="D24" s="4" t="str">
+        <v>nEHXv4H289u</v>
+      </c>
+      <c r="E24" s="4" t="str">
+        <v>2021-02-23</v>
+      </c>
+      <c r="F24" s="4" t="str">
+        <v>fya0FUpbxX9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="str">
+        <v>CwgW21jWHz1</v>
+      </c>
+      <c r="B25" s="5" t="str">
+        <v>Chart</v>
+      </c>
+      <c r="C25" s="5" t="str">
+        <v>COVAC - Number of people given 1st dose by age - this year</v>
+      </c>
+      <c r="D25" s="5" t="str">
+        <v>URQnBENIj7M</v>
+      </c>
+      <c r="E25" s="5" t="str">
+        <v>2021-02-23</v>
+      </c>
+      <c r="F25" s="5" t="str">
+        <v>fya0FUpbxX9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="str">
+        <v>NBIo8UnkJsU</v>
+      </c>
+      <c r="B26" s="4" t="str">
+        <v>Chart</v>
+      </c>
+      <c r="C26" s="4" t="str">
+        <v>COVAC - Number of people given 1st dose - cumulative</v>
+      </c>
+      <c r="D26" s="4" t="str">
+        <v>eLK1hVjcRMJ</v>
+      </c>
+      <c r="E26" s="4" t="str">
+        <v>2021-02-23</v>
+      </c>
+      <c r="F26" s="4" t="str">
+        <v>fya0FUpbxX9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="str">
+        <v>oP1h3CJEzP2</v>
+      </c>
+      <c r="B27" s="5" t="str">
+        <v>Chart</v>
+      </c>
+      <c r="C27" s="5" t="str">
+        <v xml:space="preserve">COVAC - People given 1st dose by vaccine </v>
+      </c>
+      <c r="D27" s="5" t="str">
         <v>q56CP222ae8</v>
       </c>
-      <c r="E19" s="5" t="str">
-        <v>2021-01-22</v>
-      </c>
-      <c r="F19" s="5" t="str">
+      <c r="E27" s="5" t="str">
+        <v>2021-02-23</v>
+      </c>
+      <c r="F27" s="5" t="str">
         <v>fya0FUpbxX9</v>
       </c>
     </row>
@@ -899,12 +1059,12 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="71.7109375" customWidth="1"/>
+    <col min="1" max="1" width="83.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
@@ -926,169 +1086,211 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVAX - Number of people given 1st dose by age - this year</v>
+        <v>COVAC - Priority target groups having received last dose</v>
       </c>
       <c r="B2" s="4" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>CwgW21jWHz1</v>
+        <v>Ci8llLIB9W3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>COVAX - Staff available - today and last 7 days</v>
+        <v>COVAC - Number of people given 1st dose by age - this year</v>
       </c>
       <c r="B3" s="5" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>iBwXpDzZJ4M</v>
+        <v>CwgW21jWHz1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>COVAX - AEFIs by vaccine and severity - this month</v>
+        <v>COVAC - Staff available - today and last 7 days</v>
       </c>
       <c r="B4" s="4" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>IC3e1YTilA3</v>
+        <v>iBwXpDzZJ4M</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>COVAX - Vaccine stock reporting rates  - today and last 7 days</v>
+        <v>COVAC - AEFIs by vaccine and severity - this month</v>
       </c>
       <c r="B5" s="5" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>L2geQCvt3m9</v>
+        <v>IC3e1YTilA3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>COVAX - Vaccine wastage and discrepancy rates - today and last 7 days</v>
+        <v>COVAC - Priority target groups having received at least the 1st dose - cumulative</v>
       </c>
       <c r="B6" s="4" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>laDW4fMp78v</v>
+        <v>JxKIz5qRtO5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>COVAX - Vaccination reporting rates  - today and last 7 days</v>
+        <v>COVAC - Vaccine stock reporting rates  - today and last 7 days</v>
       </c>
       <c r="B7" s="5" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>MeqsIPI7jsf</v>
+        <v>L2geQCvt3m9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>COVAX - Number of people given 1st - this and last 6 months</v>
+        <v>COVAC - Vaccine wastage and discrepancy rates - today and last 7 days</v>
       </c>
       <c r="B8" s="4" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>2021-02-02</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>NBIo8UnkJsU</v>
+        <v>laDW4fMp78v</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>COVAX - People given 1st dose by vaccine - this  and last month</v>
+        <v>COVAC - Stock at hand of all items</v>
       </c>
       <c r="B9" s="5" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-23</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>oP1h3CJEzP2</v>
+        <v>MD61sUlFB2b</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>COVAX - Stock at hand - vials by vaccine - today and last 7 days</v>
+        <v>COVAC - Vaccination reporting rates  - today and last 7 days</v>
       </c>
       <c r="B10" s="4" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>sGJvgqCpGHn</v>
+        <v>MeqsIPI7jsf</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>COVAX - Dropout rates by priority groups, this and last 6 months</v>
+        <v>COVAC - Number of people given 1st dose - cumulative</v>
       </c>
       <c r="B11" s="5" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D11" s="5" t="str">
-        <v>T60YVx3ISwD</v>
+        <v>NBIo8UnkJsU</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>COVAX - Uptake (%) by vaccine given -  this year</v>
+        <v>COVAC - Number of people given 1st dose by sex - this year</v>
       </c>
       <c r="B12" s="4" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C12" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-23</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v>UEnas3PpETN</v>
+        <v>oLuNlwZC7fq</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>COVAX - Wastage by reasons and condition of the vials - this month</v>
+        <v xml:space="preserve">COVAC - People given 1st dose by vaccine </v>
       </c>
       <c r="B13" s="5" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C13" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D13" s="5" t="str">
+        <v>oP1h3CJEzP2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="str">
+        <v>COVAC - Number of people receiving last dose - cumulative</v>
+      </c>
+      <c r="B14" s="4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C14" s="4" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="D14" s="4" t="str">
+        <v>ri7d3UrtHDO</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="str">
+        <v>COVAC - Dropout rates by priority groups, this and last 6 months</v>
+      </c>
+      <c r="B15" s="5" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C15" s="5" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="D15" s="5" t="str">
+        <v>T60YVx3ISwD</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="str">
+        <v>COVAC - Wastage by reasons and condition of the vials - this month</v>
+      </c>
+      <c r="B16" s="4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C16" s="4" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="D16" s="4" t="str">
         <v>vKavKhPWSRc</v>
       </c>
     </row>
@@ -1098,7 +1300,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -1125,30 +1327,114 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVAX - Vials received, administered, redistributed and discarded - this year</v>
+        <v>COVAC - Safety box stock overview</v>
       </c>
       <c r="B2" s="4" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-23</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>q24wzRQtygl</v>
+        <v>adnV6bpKCh9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>COVAX - Items required/available - today and last 3 days</v>
+        <v>COVAC - Priority target groups</v>
       </c>
       <c r="B3" s="5" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>UAxSsG1vtda</v>
+        <v>b2p5J4aSlwX</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="str">
+        <v>COVAC - Target general population</v>
+      </c>
+      <c r="B4" s="4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C4" s="4" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="D4" s="4" t="str">
+        <v>FU1vzJKkUwE</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="str">
+        <v>COVAC - Doses per vial</v>
+      </c>
+      <c r="B5" s="5" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C5" s="5" t="str">
+        <v>2021-02-23</v>
+      </c>
+      <c r="D5" s="5" t="str">
+        <v>mJ7Zkgb6exz</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="str">
+        <v>COVAC - Vials received, administered, redistributed and discarded - this year</v>
+      </c>
+      <c r="B6" s="4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C6" s="4" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="D6" s="4" t="str">
+        <v>q24wzRQtygl</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="str">
+        <v>COVAC - Syringes stock overview</v>
+      </c>
+      <c r="B7" s="5" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C7" s="5" t="str">
+        <v>2021-02-23</v>
+      </c>
+      <c r="D7" s="5" t="str">
+        <v>Wec4Dwwr1lt</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="str">
+        <v>COVAC - Cold boxes stock overview</v>
+      </c>
+      <c r="B8" s="4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C8" s="4" t="str">
+        <v>2021-02-23</v>
+      </c>
+      <c r="D8" s="4" t="str">
+        <v>x7Vt3Xmo1kq</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="str">
+        <v>COVAC - Vaccination cards stock overview</v>
+      </c>
+      <c r="B9" s="5" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C9" s="5" t="str">
+        <v>2021-02-23</v>
+      </c>
+      <c r="D9" s="5" t="str">
+        <v>yDlkIXZZpib</v>
       </c>
     </row>
   </sheetData>
@@ -1184,13 +1470,13 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVAX - Dropout  rate at sub national level - this year</v>
+        <v>COVAC - Dropout  rate at sub national level - this year</v>
       </c>
       <c r="B2" s="4" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>IAmP71D6zQV</v>
@@ -1198,13 +1484,13 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>COVAX - % of targeted people given 1st dose given by sub national level - this year</v>
+        <v>COVAC - % of targeted people given 1st dose given by sub national level - this year</v>
       </c>
       <c r="B3" s="5" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D3" s="5" t="str">
         <v>Sg5FrsMduxN</v>
@@ -1243,27 +1529,27 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVAX - Dropout  rate at sub national level - this year</v>
+        <v>COVAC - % of targeted people given 1st dose given by sub national level - this year</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>IAmP71D6zQV</v>
+        <v>Sg5FrsMduxN</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-02-23</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>Hmk1t2v2R13</v>
+        <v>osvZUo6lvUW</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>COVAX - Dropout  rate at sub national level - this year</v>
+        <v>COVAC - Dropout  rate at sub national level - this year</v>
       </c>
       <c r="B3" s="5" t="str">
         <v>IAmP71D6zQV</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2021-01-21</v>
+        <v>2021-02-23</v>
       </c>
       <c r="D3" s="5" t="str">
         <v>JGfnwD477bq</v>
@@ -1271,30 +1557,30 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>COVAX - % of targeted people given 1st dose given by sub national level - this year</v>
+        <v>COVAC - Dropout  rate at sub national level - this year</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>Sg5FrsMduxN</v>
+        <v>IAmP71D6zQV</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>2021-01-21</v>
+        <v>2021-02-23</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>UMDNhfpXqmC</v>
+        <v>Hmk1t2v2R13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>COVAX - % of targeted people given 1st dose given by sub national level - this year</v>
+        <v>COVAC - % of targeted people given 1st dose given by sub national level - this year</v>
       </c>
       <c r="B5" s="5" t="str">
         <v>Sg5FrsMduxN</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>2021-01-21</v>
+        <v>2021-02-23</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>qniJvnI5EXg</v>
+        <v>nbgeKbBl5e4</v>
       </c>
     </row>
   </sheetData>
@@ -1342,7 +1628,7 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVAX coverage</v>
+        <v>COVAC coverage</v>
       </c>
       <c r="B2" s="4" t="str">
         <v>E23Wd32t961</v>
@@ -1357,7 +1643,7 @@
         <v>1000</v>
       </c>
       <c r="F2" s="4" t="str">
-        <v>2021-01-21T06:52:23.721</v>
+        <v>2021-02-23T16:30:28.108</v>
       </c>
       <c r="G2" s="4" t="str">
         <v>gM8T6aRQWBC</v>
@@ -1365,7 +1651,7 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>COVAX coverage</v>
+        <v>COVAC coverage</v>
       </c>
       <c r="B3" s="5" t="str">
         <v>E23Wd32t961</v>
@@ -1380,7 +1666,7 @@
         <v>100</v>
       </c>
       <c r="F3" s="5" t="str">
-        <v>2021-01-21T06:52:23.722</v>
+        <v>2021-02-23T16:30:28.109</v>
       </c>
       <c r="G3" s="5" t="str">
         <v>HVggqjJNI5N</v>
@@ -1388,7 +1674,7 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>COVAX coverage</v>
+        <v>COVAC coverage</v>
       </c>
       <c r="B4" s="4" t="str">
         <v>E23Wd32t961</v>
@@ -1403,7 +1689,7 @@
         <v>80</v>
       </c>
       <c r="F4" s="4" t="str">
-        <v>2021-01-21T06:52:23.721</v>
+        <v>2021-02-23T16:30:28.109</v>
       </c>
       <c r="G4" s="4" t="str">
         <v>VSd3FlTAHqH</v>
@@ -1411,7 +1697,7 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>COVAX coverage</v>
+        <v>COVAC coverage</v>
       </c>
       <c r="B5" s="5" t="str">
         <v>E23Wd32t961</v>
@@ -1426,7 +1712,7 @@
         <v>60</v>
       </c>
       <c r="F5" s="5" t="str">
-        <v>2021-01-21T06:52:23.722</v>
+        <v>2021-02-23T16:30:28.109</v>
       </c>
       <c r="G5" s="5" t="str">
         <v>qHoMkruC0sY</v>
@@ -1434,7 +1720,7 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>COVAX dropout rates</v>
+        <v>COVAC dropout rates</v>
       </c>
       <c r="B6" s="4" t="str">
         <v>sgVvVgTmcaF</v>
@@ -1449,7 +1735,7 @@
         <v>100</v>
       </c>
       <c r="F6" s="4" t="str">
-        <v>2021-01-21T06:37:19.543</v>
+        <v>2021-02-23T16:30:28.109</v>
       </c>
       <c r="G6" s="4" t="str">
         <v>us4m7jpnrJB</v>
@@ -1457,7 +1743,7 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>COVAX dropout rates</v>
+        <v>COVAC dropout rates</v>
       </c>
       <c r="B7" s="5" t="str">
         <v>sgVvVgTmcaF</v>
@@ -1472,7 +1758,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="5" t="str">
-        <v>2021-01-21T06:37:19.542</v>
+        <v>2021-02-23T16:30:28.109</v>
       </c>
       <c r="G7" s="5" t="str">
         <v>Q6zORok9vCe</v>
@@ -1480,7 +1766,7 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>COVAX dropout rates</v>
+        <v>COVAC dropout rates</v>
       </c>
       <c r="B8" s="4" t="str">
         <v>sgVvVgTmcaF</v>
@@ -1495,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="4" t="str">
-        <v>2021-01-21T06:37:19.543</v>
+        <v>2021-02-23T16:30:28.110</v>
       </c>
       <c r="G8" s="4" t="str">
         <v>oVUf6M8uezI</v>
@@ -1530,10 +1816,10 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVAX admin</v>
+        <v>COVAC admin</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-24</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>e2QMDWpq88P</v>
@@ -1544,7 +1830,7 @@
         <v>COVAX capture</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-26</v>
       </c>
       <c r="C3" s="5" t="str">
         <v>I9x6Bd4MwXc</v>
@@ -1552,10 +1838,10 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>COVAX access</v>
+        <v>COVAC access</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-26</v>
       </c>
       <c r="C4" s="4" t="str">
         <v>OeiDCnG3Pv2</v>
@@ -1593,7 +1879,7 @@
         <v>covax</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-23</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>KB1ivLZXMv8</v>
@@ -1632,13 +1918,13 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVAX - Doses in a vial - Vaccine1</v>
+        <v>COVAC - Doses in a vial - Vaccine1</v>
       </c>
       <c r="B2" s="4" t="str">
         <v>Doses in a vial - Vaccine1</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>fyC1NhjpBH5</v>
@@ -1646,13 +1932,13 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>COVAX - Doses in a vial - Vaccine2</v>
+        <v>COVAC - Doses in a vial - Vaccine2</v>
       </c>
       <c r="B3" s="5" t="str">
         <v>Doses in a vial - Vaccine2</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D3" s="5" t="str">
         <v>GhXdnHkmph9</v>
@@ -1660,13 +1946,13 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>COVAX - Doses in a vial - Vaccine3</v>
+        <v>COVAC - Doses in a vial - Vaccine3</v>
       </c>
       <c r="B4" s="4" t="str">
         <v>Doses in a vial - Vaccine3</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D4" s="4" t="str">
         <v>zp3l4iQWPLh</v>
@@ -1678,12 +1964,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
   </cols>
@@ -1701,56 +1987,67 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVID19 Vaccines</v>
+        <v>Sex (Male/Female)</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>dX05HKf9jgk</v>
+        <v>CMrvZp5rmoC</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>Vial condition</v>
+        <v>COVID19 Vaccines</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>flirf9mAeha</v>
+        <v>dX05HKf9jgk</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>Age(&lt;60-60+years)</v>
+        <v>Vial condition</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>hEcLht1oMFl</v>
+        <v>flirf9mAeha</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>AEFI Severity</v>
+        <v>Age(&lt;60-60+years)</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>lKWQD9CDlOA</v>
+        <v>hEcLht1oMFl</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
+        <v>AEFI Severity</v>
+      </c>
+      <c r="B6" s="4" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="C6" s="4" t="str">
+        <v>lKWQD9CDlOA</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="str">
         <v>Wastage reasons</v>
       </c>
-      <c r="B6" s="4" t="str">
-        <v>2021-01-29</v>
-      </c>
-      <c r="C6" s="4" t="str">
+      <c r="B7" s="5" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="C7" s="5" t="str">
         <v>mytJKrvlNuF</v>
       </c>
     </row>
@@ -1760,7 +2057,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -1793,7 +2090,7 @@
         <v>Partial use</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>A3jbi9q2pvX</v>
@@ -1807,7 +2104,7 @@
         <v>Serious AEFI</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D3" s="5" t="str">
         <v>aHtHUdheUX7</v>
@@ -1821,7 +2118,7 @@
         <v>Open vial</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D4" s="4" t="str">
         <v>B1GRrudW4kx</v>
@@ -1829,155 +2126,183 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>[CONFIG] Other reason</v>
+        <v>[CONFIG] Female</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>Other reason</v>
+        <v>Female</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>CcM1wEkrHwA</v>
+        <v>bqoVhX2RfG4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>[CONFIG] Color change (VVM)</v>
+        <v>[CONFIG] Other reason</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>Color change (VVM)</v>
+        <v>Other reason</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>diTeRoy0yzo</v>
+        <v>CcM1wEkrHwA</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>[CONFIG] Vaccine2</v>
+        <v>[CONFIG] Color change (VVM)</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>Vaccine2</v>
+        <v>Color change (VVM)</v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>FNFBfAafW1b</v>
+        <v>diTeRoy0yzo</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>[CONFIG] 0-59 years</v>
+        <v>[CONFIG] Male</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>0-59 y</v>
+        <v>Male</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>fqborXHhXZG</v>
+        <v>EVYKU2fIc6G</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>[CONFIG] 60+ years</v>
+        <v>[CONFIG] Vaccine2</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>60+ y</v>
+        <v>Vaccine2</v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>hEct0AAbPAw</v>
+        <v>FNFBfAafW1b</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>[CONFIG] Vaccine3</v>
+        <v>[CONFIG] 0-59 years</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>Vaccine3</v>
+        <v>0-59 y</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>IIUfyc2Pe6x</v>
+        <v>fqborXHhXZG</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>[CONFIG] Contamination</v>
+        <v>[CONFIG] 60+ years</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>Contamination</v>
+        <v>60+ y</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D11" s="5" t="str">
-        <v>KS058ZLL570</v>
+        <v>hEct0AAbPAw</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>[CONFIG] Vaccine1</v>
+        <v>[CONFIG] Vaccine3</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>Vaccine1</v>
+        <v>Vaccine3</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v>TJHsOAXOi3f</v>
+        <v>IIUfyc2Pe6x</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>[CONFIG] Non-Serious AEFI</v>
+        <v>[CONFIG] Contamination</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>Non-Serious AEFI</v>
+        <v>Contamination</v>
       </c>
       <c r="C13" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D13" s="5" t="str">
-        <v>uOiOUtqUZdY</v>
+        <v>KS058ZLL570</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>[CONFIG] Closed vial</v>
+        <v>[CONFIG] Vaccine1</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>Closed vial</v>
+        <v>Vaccine1</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D14" s="4" t="str">
-        <v>uWJm7E7Jtgk</v>
+        <v>TJHsOAXOi3f</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
+        <v>[CONFIG] Non-Serious AEFI</v>
+      </c>
+      <c r="B15" s="5" t="str">
+        <v>Non-Serious AEFI</v>
+      </c>
+      <c r="C15" s="5" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="D15" s="5" t="str">
+        <v>uOiOUtqUZdY</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="str">
+        <v>[CONFIG] Closed vial</v>
+      </c>
+      <c r="B16" s="4" t="str">
+        <v>Closed vial</v>
+      </c>
+      <c r="C16" s="4" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="D16" s="4" t="str">
+        <v>uWJm7E7Jtgk</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="str">
         <v>[CONFIG] Expiry</v>
       </c>
-      <c r="B15" s="5" t="str">
+      <c r="B17" s="5" t="str">
         <v>Expiry</v>
       </c>
-      <c r="C15" s="5" t="str">
-        <v>2021-01-29</v>
-      </c>
-      <c r="D15" s="5" t="str">
+      <c r="C17" s="5" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="D17" s="5" t="str">
         <v>ZyZJL43yTIM</v>
       </c>
     </row>
@@ -1987,7 +2312,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -2006,18 +2331,18 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVID19 Vaccines</v>
+        <v>Sex (Male/Female)</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>[CONFIG] Vaccine1</v>
+        <v>[CONFIG] Female</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>COVID19 Vaccines</v>
+        <v>Sex (Male/Female)</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>[CONFIG] Vaccine2</v>
+        <v>[CONFIG] Male</v>
       </c>
     </row>
     <row r="4">
@@ -2025,71 +2350,71 @@
         <v>COVID19 Vaccines</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>[CONFIG] Vaccine3</v>
+        <v>[CONFIG] Vaccine1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>Vial condition</v>
+        <v>COVID19 Vaccines</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>[CONFIG] Closed vial</v>
+        <v>[CONFIG] Vaccine2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>Vial condition</v>
+        <v>COVID19 Vaccines</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>[CONFIG] Open vial</v>
+        <v>[CONFIG] Vaccine3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>Age(&lt;60-60+years)</v>
+        <v>Vial condition</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>[CONFIG] 0-59 years</v>
+        <v>[CONFIG] Closed vial</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>Age(&lt;60-60+years)</v>
+        <v>Vial condition</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>[CONFIG] 60+ years</v>
+        <v>[CONFIG] Open vial</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>AEFI Severity</v>
+        <v>Age(&lt;60-60+years)</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>[CONFIG] Non-Serious AEFI</v>
+        <v>[CONFIG] 0-59 years</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>AEFI Severity</v>
+        <v>Age(&lt;60-60+years)</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>[CONFIG] Serious AEFI</v>
+        <v>[CONFIG] 60+ years</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>Wastage reasons</v>
+        <v>AEFI Severity</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>[CONFIG] Contamination</v>
+        <v>[CONFIG] Non-Serious AEFI</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>Wastage reasons</v>
+        <v>AEFI Severity</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>[CONFIG] Expiry</v>
+        <v>[CONFIG] Serious AEFI</v>
       </c>
     </row>
     <row r="13">
@@ -2097,7 +2422,7 @@
         <v>Wastage reasons</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>[CONFIG] Color change (VVM)</v>
+        <v>[CONFIG] Contamination</v>
       </c>
     </row>
     <row r="14">
@@ -2105,7 +2430,7 @@
         <v>Wastage reasons</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>[CONFIG] Partial use</v>
+        <v>[CONFIG] Expiry</v>
       </c>
     </row>
     <row r="15">
@@ -2113,6 +2438,22 @@
         <v>Wastage reasons</v>
       </c>
       <c r="B15" s="5" t="str">
+        <v>[CONFIG] Color change (VVM)</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="str">
+        <v>Wastage reasons</v>
+      </c>
+      <c r="B16" s="4" t="str">
+        <v>[CONFIG] Partial use</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="str">
+        <v>Wastage reasons</v>
+      </c>
+      <c r="B17" s="5" t="str">
         <v>[CONFIG] Other reason</v>
       </c>
     </row>
@@ -2149,13 +2490,13 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVAX - Vaccination</v>
+        <v>COVAC - Vaccination</v>
       </c>
       <c r="B2" s="4" t="str">
         <v/>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2167,7 +2508,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J108"/>
+  <dimension ref="A1:J129"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -2218,22 +2559,22 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>A8UE5oyhOMl</v>
+        <v>a8exJvs1DYc</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>[CONFIG] COVAX - Opening balance syringes with needle 1ml</v>
+        <v>[CONFIG] COVAC - Received dilution syringes</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>Opening balance syringes with needle 1ml</v>
+        <v>Received dilution syringes</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>CVX_OPENING_BALANCE_SYRINGES_WITH_ NEEDLE_1ML</v>
+        <v>CVC_RECEIVED_DILUTION_SYRINGES</v>
       </c>
       <c r="E2" s="4" t="str">
-        <v>Opening balance equals the physical 'stock at hand count' of the previous period</v>
+        <v>Received at the centre</v>
       </c>
       <c r="F2" s="4" t="str">
-        <v>Opening balance syringes with needle 1ml</v>
+        <v>Received dilution syringes</v>
       </c>
       <c r="G2" s="4" t="str">
         <v>1</v>
@@ -2242,7 +2583,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I2" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J2" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2250,22 +2591,22 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>AfDDi4x9jOt</v>
+        <v>A8UE5oyhOMl</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>[CONFIG] COVAX - Opening balance cold box</v>
+        <v>[CONFIG] COVAC - Opening balance syringes with needle 1ml</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>Opening balance cold box</v>
+        <v>Opening balance syringes with needle 1ml</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>CVX_OPENING_BALANCE_COLD_BOXES</v>
+        <v>CVC_OPENING_BALANCE_SYRINGES_WITH_ NEEDLE_1ML</v>
       </c>
       <c r="E3" s="5" t="str">
         <v>Opening balance equals the physical 'stock at hand count' of the previous period</v>
       </c>
       <c r="F3" s="5" t="str">
-        <v>Opening balance cold box</v>
+        <v>Opening balance syringes with needle 1ml</v>
       </c>
       <c r="G3" s="5" t="str">
         <v>1</v>
@@ -2274,7 +2615,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I3" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J3" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2282,22 +2623,22 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>ANmlPnVtTTa</v>
+        <v>AfDDi4x9jOt</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>[CONFIG] COVAX - Stockout days - Vaccine 3 (vials)</v>
+        <v>[CONFIG] COVAC - Opening balance cold box</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>Stockout days - Vaccine 3 (vials)</v>
+        <v>Opening balance cold box</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>CVX_STOCKOUT_DAYS_VACCINE3_VIALS</v>
+        <v>CVC_OPENING_BALANCE_COLD_BOXES</v>
       </c>
       <c r="E4" s="4" t="str">
-        <v>Days the centre was stocked out of the item</v>
+        <v>Opening balance equals the physical 'stock at hand count' of the previous period</v>
       </c>
       <c r="F4" s="4" t="str">
-        <v>Stockout days - Vaccine3</v>
+        <v>Opening balance cold box</v>
       </c>
       <c r="G4" s="4" t="str">
         <v>1</v>
@@ -2306,7 +2647,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I4" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J4" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2314,31 +2655,31 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>AvwcVy7Yfv4</v>
+        <v>ANmlPnVtTTa</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>[CONFIG] COVAX - Proportion of target frontline healthcare workers given 1st dose</v>
+        <v>[CONFIG] COVAC - Stockout days - Vaccine 3 (vials)</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>Frontline healthcare workers given 1st dose (%)</v>
+        <v>Stockout days - Vaccine 3 (vials)</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>CVX_FRONTLINE_HCW_GIVEN_1ST_DOSE_%</v>
+        <v>CVC_STOCKOUT_DAYS_VACCINE3_VIALS</v>
       </c>
       <c r="E5" s="5" t="str">
-        <v>Proportion of frontline healthcare workers given 1st dose</v>
+        <v>Days the centre was stocked out of the item</v>
       </c>
       <c r="F5" s="5" t="str">
-        <v>Target frontline healthcare workers given 1st dose</v>
+        <v>Stockout days - Vaccine3</v>
       </c>
       <c r="G5" s="5" t="str">
-        <v>Target frontline healthcare workers</v>
+        <v>1</v>
       </c>
       <c r="H5" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I5" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J5" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2346,31 +2687,31 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>b3znXSaQjkD</v>
+        <v>AvwcVy7Yfv4</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>[CONFIG] COVAX - Proportion of staff available</v>
+        <v>[CONFIG] COVAC - Proportion of target frontline healthcare workers given 1st dose</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>Staff available (%)</v>
+        <v>Frontline healthcare workers given 1st dose (%)</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>CVX_STAFF_AVAILABLE_%</v>
+        <v>CVC_FRONTLINE_HCW_GIVEN_1ST_DOSE_%</v>
       </c>
       <c r="E6" s="4" t="str">
-        <v>Proportion of staff available</v>
+        <v>Proportion of frontline healthcare workers given 1st dose</v>
       </c>
       <c r="F6" s="4" t="str">
-        <v>Staff available</v>
+        <v>Target frontline healthcare workers given 1st dose</v>
       </c>
       <c r="G6" s="4" t="str">
-        <v>Expected staff</v>
+        <v>Target frontline healthcare workers</v>
       </c>
       <c r="H6" s="4" t="str">
         <v>Percentage</v>
       </c>
       <c r="I6" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J6" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2378,22 +2719,22 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>B7vM2EWHmrP</v>
+        <v>b3XVGcLxLd4</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>[CONFIG] COVAX - Stock at hand safety box</v>
+        <v>[CONFIG] COVAC - People with existing medical conditions given 2nd dose</v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>Stock at hand safety box</v>
+        <v>People with existing conditions given 2nd dose</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>CVX_STOCK_AT_HAND_SAFETY_BOX</v>
+        <v>CVC_PEOPLE_WITH_EXISTING_CONDITIONS_2ND_DOSE</v>
       </c>
       <c r="E7" s="5" t="str">
-        <v>Stock at hand at the center after a physical stock count</v>
+        <v>People with existing medical conditions given 2nd dose</v>
       </c>
       <c r="F7" s="5" t="str">
-        <v>Stock at hand safety boxes</v>
+        <v>People with existing medical conditions given 2nd dose</v>
       </c>
       <c r="G7" s="5" t="str">
         <v>1</v>
@@ -2402,7 +2743,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I7" s="5" t="str">
-        <v>2021-02-02</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J7" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2410,31 +2751,31 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>BbcV04tNF2n</v>
+        <v>b3znXSaQjkD</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>[CONFIG] COVAX - Opening balance - Vaccine 2 (doses)</v>
+        <v>[CONFIG] COVAC - Proportion of staff available</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>Opening balance - Vaccine 2 (doses)</v>
+        <v>Staff available (%)</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>CVX_OPENING_BALANCE_VACCINE2_DOSES</v>
+        <v>CVC_STAFF_AVAILABLE_%</v>
       </c>
       <c r="E8" s="4" t="str">
-        <v>Opening balance equals the physical 'stock at hand count' of the previous period</v>
+        <v>Proportion of staff available</v>
       </c>
       <c r="F8" s="4" t="str">
-        <v>Opening balance - Vaccine2 doses</v>
+        <v>Staff available</v>
       </c>
       <c r="G8" s="4" t="str">
-        <v>1</v>
+        <v>Expected staff</v>
       </c>
       <c r="H8" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I8" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J8" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2442,22 +2783,22 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>BgtZgNWFVfb</v>
+        <v>B7vM2EWHmrP</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>[CONFIG] COVAX - Frontline healthcare workers given 2nd dose</v>
+        <v>[CONFIG] COVAC - Stock at hand safety box</v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>Frontline healthcare workers given 2nd dose</v>
+        <v>Stock at hand safety box</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>CVX_FRONTLINE_HCW_2ND_DOSE</v>
+        <v>CVC_STOCK_AT_HAND_SAFETY_BOX</v>
       </c>
       <c r="E9" s="5" t="str">
-        <v>Frontline healthcare workers given 2nd dose</v>
+        <v>Stock at hand at the center after a physical stock count</v>
       </c>
       <c r="F9" s="5" t="str">
-        <v>Frontline healthcare workers given 2+ dose</v>
+        <v>Stock at hand safety boxes</v>
       </c>
       <c r="G9" s="5" t="str">
         <v>1</v>
@@ -2466,7 +2807,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I9" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J9" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2474,22 +2815,22 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>bmUnh1j8eUE</v>
+        <v>BbcV04tNF2n</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>[CONFIG] COVAX - Distributed syringes with needle 1ml</v>
+        <v>[CONFIG] COVAC - Opening balance - Vaccine 2 (doses)</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>Distributed syringes with needle 1ml</v>
+        <v>Opening balance - Vaccine 2 (doses)</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>CVX_DISTRIBUTED_SYRINGES_WITH_ NEEDLE_1ML</v>
+        <v>CVC_OPENING_BALANCE_VACCINE2_DOSES</v>
       </c>
       <c r="E10" s="4" t="str">
-        <v>Distributed to people receiving the items</v>
+        <v>Opening balance equals the physical 'stock at hand count' of the previous period</v>
       </c>
       <c r="F10" s="4" t="str">
-        <v>Distributed syringes with needle 1ml</v>
+        <v>Opening balance - Vaccine2 doses</v>
       </c>
       <c r="G10" s="4" t="str">
         <v>1</v>
@@ -2498,7 +2839,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I10" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J10" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2506,31 +2847,31 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>btAPoZyKLSW</v>
+        <v>BgtZgNWFVfb</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>[CONFIG] COVAX - Drop out rates among frontline healthcare workers(%)</v>
+        <v>[CONFIG] COVAC - Frontline healthcare workers given 2nd dose</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>Drop out rates among frontline HCW (%)</v>
+        <v>Frontline healthcare workers given 2nd dose</v>
       </c>
       <c r="D11" s="5" t="str">
-        <v>CVX_DROPOUT_RATES_AMONG_FRONTLINE_HCW_%</v>
+        <v>CVC_FRONTLINE_HCW_2ND_DOSE</v>
       </c>
       <c r="E11" s="5" t="str">
-        <v>(1st dose - 2nd dose)/1st dose</v>
+        <v>Frontline healthcare workers given 2nd dose</v>
       </c>
       <c r="F11" s="5" t="str">
-        <v>Given 1st dose - Given second dose</v>
+        <v>Frontline healthcare workers given 2+ dose</v>
       </c>
       <c r="G11" s="5" t="str">
-        <v>Given 1st dose</v>
+        <v>1</v>
       </c>
       <c r="H11" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I11" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J11" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2538,22 +2879,22 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>ByzkeCHudEH</v>
+        <v>bmUnh1j8eUE</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>[CONFIG] COVAX - Staff expected at PoC</v>
+        <v>[CONFIG] COVAC - Distributed syringes with needle 1ml</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v>Staff expected at PoC</v>
+        <v>Distributed syringes with needle 1ml</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v>CVX_STAFF_EXPECTED_AT_POC</v>
+        <v>CVC_DISTRIBUTED_SYRINGES_WITH_ NEEDLE_1ML</v>
       </c>
       <c r="E12" s="4" t="str">
-        <v>Staff expected at PoC during the reporting period</v>
+        <v>Distributed to people receiving the items</v>
       </c>
       <c r="F12" s="4" t="str">
-        <v>Staff expected at PoC</v>
+        <v>Distributed syringes with needle 1ml</v>
       </c>
       <c r="G12" s="4" t="str">
         <v>1</v>
@@ -2562,7 +2903,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I12" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J12" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2570,16 +2911,16 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>c4p6bfoOh0B</v>
+        <v>btAPoZyKLSW</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>[CONFIG] COVAX - Drop out rates among essential workers(%)</v>
+        <v>[CONFIG] COVAC - Drop out rates among frontline healthcare workers(%)</v>
       </c>
       <c r="C13" s="5" t="str">
-        <v>Drop out rates among essential workers (%)</v>
+        <v>Drop out rates among frontline HCW (%)</v>
       </c>
       <c r="D13" s="5" t="str">
-        <v>CVX_DROPOUT_RATES_AMONG_ESS_WORKERS_%</v>
+        <v>CVC_DROPOUT_RATES_AMONG_FRONTLINE_HCW_%</v>
       </c>
       <c r="E13" s="5" t="str">
         <v>(1st dose - 2nd dose)/1st dose</v>
@@ -2594,7 +2935,7 @@
         <v>Percentage</v>
       </c>
       <c r="I13" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J13" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2602,31 +2943,31 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>cdLF5DVO45T</v>
+        <v>ByzkeCHudEH</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>[CONFIG] COVAX - Closed vials wastage (%)</v>
+        <v>[CONFIG] COVAC - Staff expected at PoC</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v>Closed vials wastage (%)</v>
+        <v>Staff expected at PoC</v>
       </c>
       <c r="D14" s="4" t="str">
-        <v>CVX_ CLOSED_VIALS_WASTAGE_%</v>
+        <v>CVC_STAFF_EXPECTED_AT_POC</v>
       </c>
       <c r="E14" s="4" t="str">
-        <v>(Discarded closed vial doses/Doses discarded)*100</v>
+        <v>Staff expected at PoC during the reporting period</v>
       </c>
       <c r="F14" s="4" t="str">
-        <v>Closed vial doses discarded</v>
+        <v>Staff expected at PoC</v>
       </c>
       <c r="G14" s="4" t="str">
-        <v>Discarded doses</v>
+        <v>1</v>
       </c>
       <c r="H14" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I14" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J14" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2634,31 +2975,31 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>cEUzKKCa7fv</v>
+        <v>c4p6bfoOh0B</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>[CONFIG] COVAX - Vaccine stock reporting rates</v>
+        <v>[CONFIG] COVAC - Drop out rates among essential workers(%)</v>
       </c>
       <c r="C15" s="5" t="str">
-        <v>Vaccine stock reporting rates (%)</v>
+        <v>Drop out rates among essential workers (%)</v>
       </c>
       <c r="D15" s="5" t="str">
-        <v>CVX_VAC_STOCK_REPORTING_RATE_%</v>
+        <v>CVC_DROPOUT_RATES_AMONG_ESS_WORKERS_%</v>
       </c>
       <c r="E15" s="5" t="str">
-        <v>Proportion of all vaccination centres that submitted their report</v>
+        <v>(1st dose - 2nd dose)/1st dose</v>
       </c>
       <c r="F15" s="5" t="str">
-        <v>Actual reports received</v>
+        <v>Given 1st dose - Given second dose</v>
       </c>
       <c r="G15" s="5" t="str">
-        <v>Expected reports</v>
+        <v>Given 1st dose</v>
       </c>
       <c r="H15" s="5" t="str">
         <v>Percentage</v>
       </c>
       <c r="I15" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J15" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2666,22 +3007,22 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>cSnIflt4J3h</v>
+        <v>cd7NXT5z1pV</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>[CONFIG] COVAX - Redistributed - Vaccine1 doses</v>
+        <v>[CONFIG] COVAC - Received diluent</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v>Redistributed - Vaccine1 doses</v>
+        <v>Received diluent</v>
       </c>
       <c r="D16" s="4" t="str">
-        <v>CVX_REDISTRIBUTED_VACCINE1_DOSES</v>
+        <v>CVC_RECEIVED_DILUENT</v>
       </c>
       <c r="E16" s="4" t="str">
-        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
+        <v>Received at the centre</v>
       </c>
       <c r="F16" s="4" t="str">
-        <v>Redistributed - Vaccine1 doses</v>
+        <v>Received diluent</v>
       </c>
       <c r="G16" s="4" t="str">
         <v>1</v>
@@ -2690,7 +3031,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I16" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J16" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2698,31 +3039,31 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v>CydbboFk0yH</v>
+        <v>cdLF5DVO45T</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>[CONFIG] COVAX - Stock at hand - Vaccine 3 (doses)</v>
+        <v>[CONFIG] COVAC - Closed vials wastage (%)</v>
       </c>
       <c r="C17" s="5" t="str">
-        <v>Stock at hand - Vaccine 3 (doses)</v>
+        <v>Closed vials wastage (%)</v>
       </c>
       <c r="D17" s="5" t="str">
-        <v>CVX_STOCK_AT_HAND_VACCINE3_DOSES</v>
+        <v>CVC_ CLOSED_VIALS_WASTAGE_%</v>
       </c>
       <c r="E17" s="5" t="str">
-        <v>Stock at hand at the center after a physical stock count</v>
+        <v>(Discarded closed vial doses/Doses discarded)*100</v>
       </c>
       <c r="F17" s="5" t="str">
-        <v>Stock at hand - Vaccine 3 doses</v>
+        <v>Closed vial doses discarded</v>
       </c>
       <c r="G17" s="5" t="str">
-        <v>1</v>
+        <v>Discarded doses</v>
       </c>
       <c r="H17" s="5" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I17" s="5" t="str">
-        <v>2021-02-02</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J17" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2730,31 +3071,31 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>eA3THL80DDH</v>
+        <v>cEUzKKCa7fv</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>[CONFIG] COVAX - Stockout days - Vaccine 1 (vials)</v>
+        <v>[CONFIG] COVAC - Vaccine stock reporting rates</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>Stockout days - Vaccine 1 (vials)</v>
+        <v>Vaccine stock reporting rates (%)</v>
       </c>
       <c r="D18" s="4" t="str">
-        <v>CVX_STOCKOUT_DAYS_VACCINE1_VIALS</v>
+        <v>CVC_VAC_STOCK_REPORTING_RATE_%</v>
       </c>
       <c r="E18" s="4" t="str">
-        <v>Days the centre was stocked out of the item</v>
+        <v>Proportion of all vaccination centres that submitted their report</v>
       </c>
       <c r="F18" s="4" t="str">
-        <v>Stockout days - Vaccine1</v>
+        <v>Actual reports received</v>
       </c>
       <c r="G18" s="4" t="str">
-        <v>1</v>
+        <v>Expected reports</v>
       </c>
       <c r="H18" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I18" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J18" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2762,22 +3103,22 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v>EMDTyzi8eMD</v>
+        <v>cSnIflt4J3h</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>[CONFIG] COVAX - Stockout days syringes with needle 1ml</v>
+        <v>[CONFIG] COVAC - Redistributed - Vaccine1 doses</v>
       </c>
       <c r="C19" s="5" t="str">
-        <v>Stockout days syringes with needle 1ml</v>
+        <v>Redistributed - Vaccine1 doses</v>
       </c>
       <c r="D19" s="5" t="str">
-        <v>CVX_STOCKOUT_DAYS_SYRINGES_WITH_ NEEDLE_1ML</v>
+        <v>CVC_REDISTRIBUTED_VACCINE1_DOSES</v>
       </c>
       <c r="E19" s="5" t="str">
-        <v>Days the facility was stocked out of the item</v>
+        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
       </c>
       <c r="F19" s="5" t="str">
-        <v>Stockout days syringes with needle 1ml</v>
+        <v>Redistributed - Vaccine1 doses</v>
       </c>
       <c r="G19" s="5" t="str">
         <v>1</v>
@@ -2786,7 +3127,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I19" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J19" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2794,22 +3135,22 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v>f1W0R9vbMEn</v>
+        <v>cVo16hm11Kj</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>[CONFIG] COVAX - Stockout days vaccination cards</v>
+        <v>[CONFIG] COVAC - Redistributed dilution syringes</v>
       </c>
       <c r="C20" s="4" t="str">
-        <v>Stockout days vaccination cards</v>
+        <v>Redistributed dilution syringes</v>
       </c>
       <c r="D20" s="4" t="str">
-        <v>CVX_STOCKOUT_DAYS_CARDS</v>
+        <v>CVC_REDISTRIBUTED_DILUTION_SYRINGES</v>
       </c>
       <c r="E20" s="4" t="str">
-        <v>Days the facility was stocked out of the item</v>
+        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
       </c>
       <c r="F20" s="4" t="str">
-        <v>Stockout days vaccination cards</v>
+        <v>Redistributed dilution syringes</v>
       </c>
       <c r="G20" s="4" t="str">
         <v>1</v>
@@ -2818,7 +3159,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I20" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J20" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2826,22 +3167,22 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>FE4mbnWq0rv</v>
+        <v>CydbboFk0yH</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>[CONFIG] COVAX - Discarded closed vials - Vaccine 2 (doses)</v>
+        <v>[CONFIG] COVAC - Stock at hand - Vaccine 3 (doses)</v>
       </c>
       <c r="C21" s="5" t="str">
-        <v>Discarded closed vials - Vaccine 2 (doses)</v>
+        <v>Stock at hand - Vaccine 3 (doses)</v>
       </c>
       <c r="D21" s="5" t="str">
-        <v>CVX_DISCARDED_VACCINE2_DOSES</v>
+        <v>CVC_STOCK_AT_HAND_VACCINE3_DOSES</v>
       </c>
       <c r="E21" s="5" t="str">
-        <v>Discarded due to expiry, damage, contamination and etc</v>
+        <v>Stock at hand at the center after a physical stock count</v>
       </c>
       <c r="F21" s="5" t="str">
-        <v>Discarded - Vaccine2 doses</v>
+        <v>Stock at hand - Vaccine 3 doses</v>
       </c>
       <c r="G21" s="5" t="str">
         <v>1</v>
@@ -2850,7 +3191,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I21" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J21" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2858,31 +3199,31 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
-        <v>ffjCEkN7xC2</v>
+        <v>djMXxir9aEw</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>[CONFIG] COVAX - Stock discrepancy rate (%)</v>
+        <v>[CONFIG] COVAC - Stock at hand dilution syringes</v>
       </c>
       <c r="C22" s="4" t="str">
-        <v>Stock discrepancy rate (%)</v>
+        <v>Stock at hand dilution syringes</v>
       </c>
       <c r="D22" s="4" t="str">
-        <v>CVX_STOCK_DISCREPANCY_VIALS</v>
+        <v>CVC_STOCK_AT_HAND_DILUTION_SYRINGES</v>
       </c>
       <c r="E22" s="4" t="str">
-        <v>(Closing balance-Stock on hand)/Stock at hand</v>
+        <v>Stock at hand at the center after a physical stock count</v>
       </c>
       <c r="F22" s="4" t="str">
-        <v>Closing balance-Stock at hand</v>
+        <v>Stock at hand dilution syringes</v>
       </c>
       <c r="G22" s="4" t="str">
-        <v>Stock at hand</v>
+        <v>1</v>
       </c>
       <c r="H22" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I22" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J22" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2890,22 +3231,22 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="str">
-        <v>fQAVcB4dAQp</v>
+        <v>eA3THL80DDH</v>
       </c>
       <c r="B23" s="5" t="str">
-        <v>[CONFIG] COVAX - Redistributed vials</v>
+        <v>[CONFIG] COVAC - Stockout days - Vaccine 1 (vials)</v>
       </c>
       <c r="C23" s="5" t="str">
-        <v>Redistributed vials</v>
+        <v>Stockout days - Vaccine 1 (vials)</v>
       </c>
       <c r="D23" s="5" t="str">
-        <v>CVX_REDISTRIBUTED_VIALS</v>
+        <v>CVC_STOCKOUT_DAYS_VACCINE1_VIALS</v>
       </c>
       <c r="E23" s="5" t="str">
-        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
+        <v>Days the centre was stocked out of the item</v>
       </c>
       <c r="F23" s="5" t="str">
-        <v>Redistributed vials</v>
+        <v>Stockout days - Vaccine1</v>
       </c>
       <c r="G23" s="5" t="str">
         <v>1</v>
@@ -2914,7 +3255,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I23" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J23" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2922,22 +3263,22 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="str">
-        <v>fySBzigjUbH</v>
+        <v>EMDTyzi8eMD</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v>[CONFIG] COVAX - Closing balance vaccination cards</v>
+        <v>[CONFIG] COVAC - Stockout days syringes with needle 1ml</v>
       </c>
       <c r="C24" s="4" t="str">
-        <v>Closing balance vaccination cards</v>
+        <v>Stockout days syringes with needle 1ml</v>
       </c>
       <c r="D24" s="4" t="str">
-        <v>CVX_CLOSING_BALANCE_CARDS</v>
+        <v>CVC_STOCKOUT_DAYS_SYRINGES_WITH_ NEEDLE_1ML</v>
       </c>
       <c r="E24" s="4" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Days the facility was stocked out of the item</v>
       </c>
       <c r="F24" s="4" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Stockout days syringes with needle 1ml</v>
       </c>
       <c r="G24" s="4" t="str">
         <v>1</v>
@@ -2946,7 +3287,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I24" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J24" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2954,22 +3295,22 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="str">
-        <v>g2voTi7ZCxe</v>
+        <v>EPpNtahWX9y</v>
       </c>
       <c r="B25" s="5" t="str">
-        <v>[CONFIG] COVAX - Opening balance - Vaccine 1 (doses)</v>
+        <v>[CONFIG] COVAC - Discarded open vials - Vaccine 3</v>
       </c>
       <c r="C25" s="5" t="str">
-        <v>Opening balance - Vaccine 1 (doses)</v>
+        <v>Discarded open vials - Vaccine 3</v>
       </c>
       <c r="D25" s="5" t="str">
-        <v>CVX_OPENING_BALANCE_VACCINE1_DOSES</v>
+        <v>CVC_DISCARDED__CLOSED_VIALS_VACCINE3</v>
       </c>
       <c r="E25" s="5" t="str">
-        <v>Opening balance equals the physical 'stock at hand count' of the previous period</v>
+        <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F25" s="5" t="str">
-        <v>Opening balance - Vaccine1 doses</v>
+        <v>Discarded open vials - Vaccine 3</v>
       </c>
       <c r="G25" s="5" t="str">
         <v>1</v>
@@ -2978,7 +3319,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I25" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J25" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2986,22 +3327,22 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="str">
-        <v>G9jRzY6zmJg</v>
+        <v>f1W0R9vbMEn</v>
       </c>
       <c r="B26" s="4" t="str">
-        <v>[CONFIG] COVAX - Stock at hand vaccination cards</v>
+        <v>[CONFIG] COVAC - Stockout days vaccination cards</v>
       </c>
       <c r="C26" s="4" t="str">
-        <v>Stock at hand vaccination cards</v>
+        <v>Stockout days vaccination cards</v>
       </c>
       <c r="D26" s="4" t="str">
-        <v>CVX_STOCK_AT_HAND_CARDS</v>
+        <v>CVC_STOCKOUT_DAYS_CARDS</v>
       </c>
       <c r="E26" s="4" t="str">
-        <v>Stock at hand at the center after a physical stock count</v>
+        <v>Days the facility was stocked out of the item</v>
       </c>
       <c r="F26" s="4" t="str">
-        <v>Stock at hand vaccination cards</v>
+        <v>Stockout days vaccination cards</v>
       </c>
       <c r="G26" s="4" t="str">
         <v>1</v>
@@ -3010,7 +3351,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I26" s="4" t="str">
-        <v>2021-02-02</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J26" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3018,22 +3359,22 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="str">
-        <v>gZEoyKpx4hE</v>
+        <v>FE4mbnWq0rv</v>
       </c>
       <c r="B27" s="5" t="str">
-        <v>[CONFIG] COVAX - Essential workers given 2nd dose</v>
+        <v>[CONFIG] COVAC - Discarded closed vials - Vaccine 2 (doses)</v>
       </c>
       <c r="C27" s="5" t="str">
-        <v>Essential workers given 2nd dose</v>
+        <v>Discarded closed vials - Vaccine 2 (doses)</v>
       </c>
       <c r="D27" s="5" t="str">
-        <v>CVX_ESSENTIAL_WORKERS_2ND_DOSE</v>
+        <v>CVC_DISCARDED_VACCINE2_DOSES</v>
       </c>
       <c r="E27" s="5" t="str">
-        <v>Essential workers given 2nd dose</v>
+        <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F27" s="5" t="str">
-        <v>Essential workers given 2+ dose</v>
+        <v>Discarded - Vaccine2 doses</v>
       </c>
       <c r="G27" s="5" t="str">
         <v>1</v>
@@ -3042,7 +3383,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I27" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J27" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3050,31 +3391,31 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="str">
-        <v>h3NchPC73cV</v>
+        <v>ffjCEkN7xC2</v>
       </c>
       <c r="B28" s="4" t="str">
-        <v>[CONFIG] COVAX - Vaccination reporting rates</v>
+        <v>[CONFIG] COVAC - Stock discrepancy rate (%)</v>
       </c>
       <c r="C28" s="4" t="str">
-        <v>Vaccination reporting rates (%)</v>
+        <v>Stock discrepancy rate (%)</v>
       </c>
       <c r="D28" s="4" t="str">
-        <v>CVX_VAC_REPORTING_RATE_%</v>
+        <v>CVC_STOCK_DISCREPANCY_VIALS</v>
       </c>
       <c r="E28" s="4" t="str">
-        <v>Proportion of all vaccination centres that submitted their report</v>
+        <v>(Closing balance-Stock on hand)/Stock at hand</v>
       </c>
       <c r="F28" s="4" t="str">
-        <v>Actual reports received</v>
+        <v>Closing balance-Stock at hand</v>
       </c>
       <c r="G28" s="4" t="str">
-        <v>Expected reports</v>
+        <v>Stock at hand</v>
       </c>
       <c r="H28" s="4" t="str">
         <v>Percentage</v>
       </c>
       <c r="I28" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J28" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3082,22 +3423,22 @@
     </row>
     <row r="29">
       <c r="A29" s="5" t="str">
-        <v>H6nsnH2w9A9</v>
+        <v>FMLTWPO5qFU</v>
       </c>
       <c r="B29" s="5" t="str">
-        <v>[CONFIG] COVAX - Opening balance - Vaccine 3 (doses)</v>
+        <v>[CONFIG] COVAC - Distributed diluent</v>
       </c>
       <c r="C29" s="5" t="str">
-        <v>Opening balance - Vaccine 3 (doses)</v>
+        <v>Distriuted diluent</v>
       </c>
       <c r="D29" s="5" t="str">
-        <v>CVX_OPENING_BALANCE_VACCINE3_DOSES</v>
+        <v>CVC_DISTRIBUTED_DILUENT</v>
       </c>
       <c r="E29" s="5" t="str">
-        <v>Opening balance equals the physical 'stock at hand count' of the previous period</v>
+        <v>Distributed to people receiving the items</v>
       </c>
       <c r="F29" s="5" t="str">
-        <v>Opening balance - Vaccine3 doses</v>
+        <v>Distributed diluent</v>
       </c>
       <c r="G29" s="5" t="str">
         <v>1</v>
@@ -3106,7 +3447,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I29" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J29" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3114,22 +3455,22 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="str">
-        <v>hJKdezT5GcK</v>
+        <v>fQAVcB4dAQp</v>
       </c>
       <c r="B30" s="4" t="str">
-        <v>[CONFIG] COVAX - Closing balance - Vaccine 1 (doses)</v>
+        <v>[CONFIG] COVAC - Redistributed vials</v>
       </c>
       <c r="C30" s="4" t="str">
-        <v>Closing balance - Vaccine 1 (doses)</v>
+        <v>Redistributed vials</v>
       </c>
       <c r="D30" s="4" t="str">
-        <v>CVX_CLOSING_BALANCE_VACCINE1_DOSES</v>
+        <v>CVC_REDISTRIBUTED_VIALS</v>
       </c>
       <c r="E30" s="4" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
       </c>
       <c r="F30" s="4" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Redistributed vials</v>
       </c>
       <c r="G30" s="4" t="str">
         <v>1</v>
@@ -3138,7 +3479,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I30" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J30" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3146,22 +3487,22 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="str">
-        <v>i0dG1vChnP6</v>
+        <v>fSchc931av0</v>
       </c>
       <c r="B31" s="5" t="str">
-        <v>[CONFIG] COVAX - Discarded closed vials - Vaccine 1 (doses)</v>
+        <v>[CONFIG] COVAC - Discarded open vials - Vaccine 1</v>
       </c>
       <c r="C31" s="5" t="str">
-        <v>Discarded closed vials - Vaccine 1 (doses)</v>
+        <v>Discarded open vials - Vaccine 1</v>
       </c>
       <c r="D31" s="5" t="str">
-        <v>CVX_DISCARDED_VACCINE1_DOSES</v>
+        <v>CVC_DISCARDED__CLOSED_VIALS_VACCINE1</v>
       </c>
       <c r="E31" s="5" t="str">
         <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F31" s="5" t="str">
-        <v>Discarded - Vaccine1 doses</v>
+        <v>Discarded open vials - Vaccine 1</v>
       </c>
       <c r="G31" s="5" t="str">
         <v>1</v>
@@ -3170,7 +3511,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I31" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J31" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3178,22 +3519,22 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="str">
-        <v>iC5xj6Dqa0P</v>
+        <v>FyC7Cf74Cao</v>
       </c>
       <c r="B32" s="4" t="str">
-        <v>[CONFIG] COVAX - Target frontline healthcare workers</v>
+        <v>[CONFIG] COVAC - Discarded closed vials - Vaccine 2</v>
       </c>
       <c r="C32" s="4" t="str">
-        <v>Target frontline healthcare workers</v>
+        <v>Discarded closed vials - Vaccine 2</v>
       </c>
       <c r="D32" s="4" t="str">
-        <v>CVX_TARGET_FRONTLINE_HCW</v>
+        <v>CVC_DISCARDED__OPEN_VIALS_VACCINE2</v>
       </c>
       <c r="E32" s="4" t="str">
-        <v>Target frontline healthcare workers</v>
+        <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F32" s="4" t="str">
-        <v>Target frontline healthcare workers</v>
+        <v>Discarded closed vials - Vaccine 2</v>
       </c>
       <c r="G32" s="4" t="str">
         <v>1</v>
@@ -3202,7 +3543,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I32" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J32" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3210,22 +3551,22 @@
     </row>
     <row r="33">
       <c r="A33" s="5" t="str">
-        <v>ILLy5jdUwwE</v>
+        <v>fySBzigjUbH</v>
       </c>
       <c r="B33" s="5" t="str">
-        <v>[CONFIG] COVAX - Stockout days safety box</v>
+        <v>[CONFIG] COVAC - Closing balance vaccination cards</v>
       </c>
       <c r="C33" s="5" t="str">
-        <v>Stockout days safety box</v>
+        <v>Closing balance vaccination cards</v>
       </c>
       <c r="D33" s="5" t="str">
-        <v>CVX_STOCKOUT_DAYS_SAFETY_BOX</v>
+        <v>CVC_CLOSING_BALANCE_CARDS</v>
       </c>
       <c r="E33" s="5" t="str">
-        <v>Days the facility was stocked out of the item</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="F33" s="5" t="str">
-        <v>Stockout days safety boxes</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="G33" s="5" t="str">
         <v>1</v>
@@ -3234,7 +3575,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I33" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J33" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3242,31 +3583,31 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="str">
-        <v>Iv3tfc8gso7</v>
+        <v>g2voTi7ZCxe</v>
       </c>
       <c r="B34" s="4" t="str">
-        <v>[CONFIG] COVAX - Vaccination reporting rates on time</v>
+        <v>[CONFIG] COVAC - Opening balance - Vaccine 1 (doses)</v>
       </c>
       <c r="C34" s="4" t="str">
-        <v>Vaccination reporting rates on time (%)</v>
+        <v>Opening balance - Vaccine 1 (doses)</v>
       </c>
       <c r="D34" s="4" t="str">
-        <v>CVX_VAC_REPORTING_RATE_ONTIME_%</v>
+        <v>CVC_OPENING_BALANCE_VACCINE1_DOSES</v>
       </c>
       <c r="E34" s="4" t="str">
-        <v>Proportion of all vaccination centres that submitted their report on time</v>
+        <v>Opening balance equals the physical 'stock at hand count' of the previous period</v>
       </c>
       <c r="F34" s="4" t="str">
-        <v>Actual reports received on time</v>
+        <v>Opening balance - Vaccine1 doses</v>
       </c>
       <c r="G34" s="4" t="str">
-        <v>Actual reports received</v>
+        <v>1</v>
       </c>
       <c r="H34" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I34" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J34" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3274,22 +3615,22 @@
     </row>
     <row r="35">
       <c r="A35" s="5" t="str">
-        <v>J4UW8FgK4vq</v>
+        <v>G9jRzY6zmJg</v>
       </c>
       <c r="B35" s="5" t="str">
-        <v>[CONFIG] COVAX - Received vaccination cards</v>
+        <v>[CONFIG] COVAC - Stock at hand vaccination cards</v>
       </c>
       <c r="C35" s="5" t="str">
-        <v>Received vaccination cards</v>
+        <v>Stock at hand vaccination cards</v>
       </c>
       <c r="D35" s="5" t="str">
-        <v>CVX_RECEIVED_CARD</v>
+        <v>CVC_STOCK_AT_HAND_CARDS</v>
       </c>
       <c r="E35" s="5" t="str">
-        <v>Received at the centre</v>
+        <v>Stock at hand at the center after a physical stock count</v>
       </c>
       <c r="F35" s="5" t="str">
-        <v>Received vaccination cards</v>
+        <v>Stock at hand vaccination cards</v>
       </c>
       <c r="G35" s="5" t="str">
         <v>1</v>
@@ -3298,7 +3639,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I35" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J35" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3306,31 +3647,31 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="str">
-        <v>j550fnnj9QU</v>
+        <v>gZEoyKpx4hE</v>
       </c>
       <c r="B36" s="4" t="str">
-        <v>[CONFIG] COVAX - Vaccine 2 uptake (%)</v>
+        <v>[CONFIG] COVAC - Essential workers given 2nd dose</v>
       </c>
       <c r="C36" s="4" t="str">
-        <v>Vaccine 2 uptake (%)</v>
+        <v>Essential workers given 2nd dose</v>
       </c>
       <c r="D36" s="4" t="str">
-        <v>CVX_VACCINE2_UPTAKE_%</v>
+        <v>CVC_ESSENTIAL_WORKERS_2ND_DOSE</v>
       </c>
       <c r="E36" s="4" t="str">
-        <v>Proportion of people given doses of vaccine2</v>
+        <v>Essential workers given 2nd dose</v>
       </c>
       <c r="F36" s="4" t="str">
-        <v>Vaccine2 doses given</v>
+        <v>Essential workers given 2+ dose</v>
       </c>
       <c r="G36" s="4" t="str">
-        <v>Total doses of all vaccines given</v>
+        <v>1</v>
       </c>
       <c r="H36" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I36" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J36" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3338,31 +3679,31 @@
     </row>
     <row r="37">
       <c r="A37" s="5" t="str">
-        <v>jayuvPfIQBz</v>
+        <v>h3NchPC73cV</v>
       </c>
       <c r="B37" s="5" t="str">
-        <v>[CONFIG] COVAX - Received cold box</v>
+        <v>[CONFIG] COVAC - Vaccination reporting rates</v>
       </c>
       <c r="C37" s="5" t="str">
-        <v>Received cold box</v>
+        <v>Vaccination reporting rates (%)</v>
       </c>
       <c r="D37" s="5" t="str">
-        <v>CVX_RECEIVED_COLD_BOX</v>
+        <v>CVC_VAC_REPORTING_RATE_%</v>
       </c>
       <c r="E37" s="5" t="str">
-        <v>Received at the centre</v>
+        <v>Proportion of all vaccination centres that submitted their report</v>
       </c>
       <c r="F37" s="5" t="str">
-        <v>Received cold boxes</v>
+        <v>Actual reports received</v>
       </c>
       <c r="G37" s="5" t="str">
-        <v>1</v>
+        <v>Expected reports</v>
       </c>
       <c r="H37" s="5" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I37" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J37" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3370,22 +3711,22 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="str">
-        <v>jFlfqS1M9Hj</v>
+        <v>H6nsnH2w9A9</v>
       </c>
       <c r="B38" s="4" t="str">
-        <v>[CONFIG] COVAX - Staff available at PoC</v>
+        <v>[CONFIG] COVAC - Opening balance - Vaccine 3 (doses)</v>
       </c>
       <c r="C38" s="4" t="str">
-        <v>Staff available at PoC</v>
+        <v>Opening balance - Vaccine 3 (doses)</v>
       </c>
       <c r="D38" s="4" t="str">
-        <v>CVX_STAFF_AVAILABLE_AT_POC</v>
+        <v>CVC_OPENING_BALANCE_VACCINE3_DOSES</v>
       </c>
       <c r="E38" s="4" t="str">
-        <v>Staff available at PoC during the reporting period</v>
+        <v>Opening balance equals the physical 'stock at hand count' of the previous period</v>
       </c>
       <c r="F38" s="4" t="str">
-        <v>Staff available at PoC</v>
+        <v>Opening balance - Vaccine3 doses</v>
       </c>
       <c r="G38" s="4" t="str">
         <v>1</v>
@@ -3394,7 +3735,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I38" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J38" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3402,31 +3743,31 @@
     </row>
     <row r="39">
       <c r="A39" s="5" t="str">
-        <v>k9kIyVQEc0o</v>
+        <v>hJKdezT5GcK</v>
       </c>
       <c r="B39" s="5" t="str">
-        <v>[CONFIG] COVAX - Wastage rate (%)</v>
+        <v>[CONFIG] COVAC - Closing balance - Vaccine 1 (doses)</v>
       </c>
       <c r="C39" s="5" t="str">
-        <v>Wastage rate (%)</v>
+        <v>Closing balance - Vaccine 1 (doses)</v>
       </c>
       <c r="D39" s="5" t="str">
-        <v>CVX_ WASTAGE_RATE_%</v>
+        <v>CVC_CLOSING_BALANCE_VACCINE1_DOSES</v>
       </c>
       <c r="E39" s="5" t="str">
-        <v>(Discarded/Used)*100</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="F39" s="5" t="str">
-        <v>Discarded doses</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="G39" s="5" t="str">
-        <v>Used doses=(Opening balance+Received)-(Redistributed+Stock on hand)</v>
+        <v>1</v>
       </c>
       <c r="H39" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I39" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J39" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3434,22 +3775,22 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="str">
-        <v>Kkbt3LgbCbD</v>
+        <v>hlmH910DBPC</v>
       </c>
       <c r="B40" s="4" t="str">
-        <v>[CONFIG] COVAX - Doses per vial - Vaccine 3</v>
+        <v>[CONFIG] COVAC - Discarded vaccination dilution syringes</v>
       </c>
       <c r="C40" s="4" t="str">
-        <v>Doses per vial - Vaccine 3</v>
+        <v>Discarded dilution syringes</v>
       </c>
       <c r="D40" s="4" t="str">
-        <v>CVX_DOSES_IN_A_VIAL_VACCINE3</v>
+        <v>CVC_DISCARDED_DILUTION_SYRINGES</v>
       </c>
       <c r="E40" s="4" t="str">
-        <v>Number of doses in a vial - Vaccine3</v>
+        <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F40" s="4" t="str">
-        <v>Doses in a vial - Vaccine3</v>
+        <v>Discarded dilution syringes</v>
       </c>
       <c r="G40" s="4" t="str">
         <v>1</v>
@@ -3458,7 +3799,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I40" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J40" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3466,22 +3807,22 @@
     </row>
     <row r="41">
       <c r="A41" s="5" t="str">
-        <v>KLFHy7LdaEp</v>
+        <v>i0dG1vChnP6</v>
       </c>
       <c r="B41" s="5" t="str">
-        <v>[CONFIG] COVAX - Received - Vaccine 2 (doses)</v>
+        <v>[CONFIG] COVAC - Discarded closed vials - Vaccine 1 (doses)</v>
       </c>
       <c r="C41" s="5" t="str">
-        <v>Received - Vaccine 2 (doses)</v>
+        <v>Discarded closed vials - Vaccine 1 (doses)</v>
       </c>
       <c r="D41" s="5" t="str">
-        <v>CVX_RECEIVED_VACCINE2_DOSES</v>
+        <v>CVC_DISCARDED_VACCINE1_DOSES</v>
       </c>
       <c r="E41" s="5" t="str">
-        <v>Received at the centre</v>
+        <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F41" s="5" t="str">
-        <v>Received - Vaccine2 doses</v>
+        <v>Discarded - Vaccine1 doses</v>
       </c>
       <c r="G41" s="5" t="str">
         <v>1</v>
@@ -3490,7 +3831,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I41" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J41" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3498,22 +3839,22 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="str">
-        <v>kx79vq5XdQd</v>
+        <v>iC5xj6Dqa0P</v>
       </c>
       <c r="B42" s="4" t="str">
-        <v>[CONFIG] COVAX - Closing balance syringes with needle 1ml</v>
+        <v>[CONFIG] COVAC - Target frontline healthcare workers</v>
       </c>
       <c r="C42" s="4" t="str">
-        <v>Closing balance syringes with needle 1ml</v>
+        <v>Target frontline healthcare workers</v>
       </c>
       <c r="D42" s="4" t="str">
-        <v>CVX_CLOSING_BALANCE_SYRINGES_WITH_ NEEDLE_1ML</v>
+        <v>CVC_TARGET_FRONTLINE_HCW</v>
       </c>
       <c r="E42" s="4" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Target frontline healthcare workers</v>
       </c>
       <c r="F42" s="4" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Target frontline healthcare workers</v>
       </c>
       <c r="G42" s="4" t="str">
         <v>1</v>
@@ -3522,7 +3863,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I42" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J42" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3530,22 +3871,22 @@
     </row>
     <row r="43">
       <c r="A43" s="5" t="str">
-        <v>lGv5kC9pLPI</v>
+        <v>ILLy5jdUwwE</v>
       </c>
       <c r="B43" s="5" t="str">
-        <v>[CONFIG] COVAX - Discarded closed vials - Vaccine 1</v>
+        <v>[CONFIG] COVAC - Stockout days safety box</v>
       </c>
       <c r="C43" s="5" t="str">
-        <v>Discarded closed vials - Vaccine 1</v>
+        <v>Stockout days safety box</v>
       </c>
       <c r="D43" s="5" t="str">
-        <v>CVX_DISCARDED__OPEN_VIALS_VACCINE1</v>
+        <v>CVC_STOCKOUT_DAYS_SAFETY_BOX</v>
       </c>
       <c r="E43" s="5" t="str">
-        <v>Discarded due to expiry, damage, contamination and etc</v>
+        <v>Days the facility was stocked out of the item</v>
       </c>
       <c r="F43" s="5" t="str">
-        <v>Discarded closed vials - Vaccine 1</v>
+        <v>Stockout days safety boxes</v>
       </c>
       <c r="G43" s="5" t="str">
         <v>1</v>
@@ -3554,7 +3895,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I43" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J43" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3562,31 +3903,31 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="str">
-        <v>LgvcCkQIQ44</v>
+        <v>inS5ZAeuMN5</v>
       </c>
       <c r="B44" s="4" t="str">
-        <v>[CONFIG] COVAX - Opened vials wastage (%)</v>
+        <v>[CONFIG] COVAC - People given 2nd dose</v>
       </c>
       <c r="C44" s="4" t="str">
-        <v>Opened vials wastage (%)</v>
+        <v>People given 2nd dose</v>
       </c>
       <c r="D44" s="4" t="str">
-        <v>CVX_ OPENED_VIALS_WASTAGE_%</v>
+        <v>CVC_PEOPLE_2ND_DOSE</v>
       </c>
       <c r="E44" s="4" t="str">
-        <v>(Discarded open vial doses/Doses discarded)*100</v>
+        <v>People given 1st dose</v>
       </c>
       <c r="F44" s="4" t="str">
-        <v>Opened vial doses discarded</v>
+        <v>People given 2nd dose</v>
       </c>
       <c r="G44" s="4" t="str">
-        <v>Discarded doses</v>
+        <v>1</v>
       </c>
       <c r="H44" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I44" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J44" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3594,22 +3935,22 @@
     </row>
     <row r="45">
       <c r="A45" s="5" t="str">
-        <v>lXV4Lk0aah6</v>
+        <v>iPolbKiHAaq</v>
       </c>
       <c r="B45" s="5" t="str">
-        <v>[CONFIG] COVAX - Distributed vials</v>
+        <v>[CONFIG] COVAC - Discarded open vials - Vaccine 2</v>
       </c>
       <c r="C45" s="5" t="str">
-        <v>Distributed vials</v>
+        <v>Discarded open vials - Vaccine 2</v>
       </c>
       <c r="D45" s="5" t="str">
-        <v>CVX_DISTRIBUTED_VIALS</v>
+        <v>CVC_DISCARDED__CLOSED_VIALS_VACCINE2</v>
       </c>
       <c r="E45" s="5" t="str">
-        <v>Distributed to people receiving the items</v>
+        <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F45" s="5" t="str">
-        <v>Distributed vials</v>
+        <v>Discarded open vials - Vaccine 2</v>
       </c>
       <c r="G45" s="5" t="str">
         <v>1</v>
@@ -3618,7 +3959,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I45" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J45" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3626,31 +3967,31 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="str">
-        <v>mQYStz4mXT5</v>
+        <v>Iv3tfc8gso7</v>
       </c>
       <c r="B46" s="4" t="str">
-        <v>[CONFIG] COVAX - Target people with existing medical conditions</v>
+        <v>[CONFIG] COVAC - Vaccination reporting rates on time</v>
       </c>
       <c r="C46" s="4" t="str">
-        <v>Target people with existing medical conditions</v>
+        <v>Vaccination reporting rates on time (%)</v>
       </c>
       <c r="D46" s="4" t="str">
-        <v>CVX_TARGET_PEOPLE_WITH_EXISTING_CONDITIONS</v>
+        <v>CVC_VAC_REPORTING_RATE_ONTIME_%</v>
       </c>
       <c r="E46" s="4" t="str">
-        <v>Target people with existing medical conditions</v>
+        <v>Proportion of all vaccination centres that submitted their report on time</v>
       </c>
       <c r="F46" s="4" t="str">
-        <v>Target people with existing medical conditions</v>
+        <v>Actual reports received on time</v>
       </c>
       <c r="G46" s="4" t="str">
-        <v>1</v>
+        <v>Actual reports received</v>
       </c>
       <c r="H46" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I46" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J46" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3658,22 +3999,22 @@
     </row>
     <row r="47">
       <c r="A47" s="5" t="str">
-        <v>MRUsCIsRdps</v>
+        <v>J4UW8FgK4vq</v>
       </c>
       <c r="B47" s="5" t="str">
-        <v>[CONFIG] COVAX - Distributed - Vaccine 2 (doses)</v>
+        <v>[CONFIG] COVAC - Received vaccination cards</v>
       </c>
       <c r="C47" s="5" t="str">
-        <v>Distributed - Vaccine 2 (doses)</v>
+        <v>Received vaccination cards</v>
       </c>
       <c r="D47" s="5" t="str">
-        <v>CVX_DISTRIBUTED_VACCINE2_DOSES</v>
+        <v>CVC_RECEIVED_CARD</v>
       </c>
       <c r="E47" s="5" t="str">
-        <v>Distributed to people receiving the vaccines</v>
+        <v>Received at the centre</v>
       </c>
       <c r="F47" s="5" t="str">
-        <v>Distributed - Vaccine2 doses</v>
+        <v>Received vaccination cards</v>
       </c>
       <c r="G47" s="5" t="str">
         <v>1</v>
@@ -3682,7 +4023,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I47" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J47" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3690,31 +4031,31 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="str">
-        <v>N4iXbeP3T5O</v>
+        <v>j550fnnj9QU</v>
       </c>
       <c r="B48" s="4" t="str">
-        <v>[CONFIG] COVAX - Closing balance - Vaccine 2 (vials)</v>
+        <v>[CONFIG] COVAC - Vaccine 2 uptake (%)</v>
       </c>
       <c r="C48" s="4" t="str">
-        <v>Closing balance - Vaccine 2 (vials)</v>
+        <v>Vaccine 2 uptake (%)</v>
       </c>
       <c r="D48" s="4" t="str">
-        <v>CVX_CLOSING_BALANCE_VACCINE2_VIALS</v>
+        <v>CVC_VACCINE2_UPTAKE_%</v>
       </c>
       <c r="E48" s="4" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Proportion of people given doses of vaccine2</v>
       </c>
       <c r="F48" s="4" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Vaccine2 doses given</v>
       </c>
       <c r="G48" s="4" t="str">
-        <v>1</v>
+        <v>Total doses of all vaccines given</v>
       </c>
       <c r="H48" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I48" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J48" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3722,22 +4063,22 @@
     </row>
     <row r="49">
       <c r="A49" s="5" t="str">
-        <v>N4O2KBFP7Ze</v>
+        <v>jayuvPfIQBz</v>
       </c>
       <c r="B49" s="5" t="str">
-        <v>[CONFIG] COVAX - Received syringes with needle 1ml</v>
+        <v>[CONFIG] COVAC - Received cold box</v>
       </c>
       <c r="C49" s="5" t="str">
-        <v>Received syringes with needle 1ml</v>
+        <v>Received cold box</v>
       </c>
       <c r="D49" s="5" t="str">
-        <v>CVX_RECEIVED_SYRINGES_WITH_ NEEDLE_1ML</v>
+        <v>CVC_RECEIVED_COLD_BOX</v>
       </c>
       <c r="E49" s="5" t="str">
         <v>Received at the centre</v>
       </c>
       <c r="F49" s="5" t="str">
-        <v>Received syringes with needle 1ml</v>
+        <v>Received cold boxes</v>
       </c>
       <c r="G49" s="5" t="str">
         <v>1</v>
@@ -3746,7 +4087,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I49" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J49" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3754,22 +4095,22 @@
     </row>
     <row r="50">
       <c r="A50" s="4" t="str">
-        <v>n5u7G8DQYNJ</v>
+        <v>jFlfqS1M9Hj</v>
       </c>
       <c r="B50" s="4" t="str">
-        <v>[CONFIG] COVAX - AEFIs by vaccine and severity</v>
+        <v>[CONFIG] COVAC - Staff available at PoC</v>
       </c>
       <c r="C50" s="4" t="str">
-        <v>AEFIs by vaccine and severity</v>
+        <v>Staff available at PoC</v>
       </c>
       <c r="D50" s="4" t="str">
-        <v>CVX_AEFIS_BY_VACCINE_AND_SEVERITY</v>
+        <v>CVC_STAFF_AVAILABLE_AT_POC</v>
       </c>
       <c r="E50" s="4" t="str">
-        <v>AEFIs by vaccine and severity</v>
+        <v>Staff available at PoC during the reporting period</v>
       </c>
       <c r="F50" s="4" t="str">
-        <v>AEFIs by vaccine and severity</v>
+        <v>Staff available at PoC</v>
       </c>
       <c r="G50" s="4" t="str">
         <v>1</v>
@@ -3778,7 +4119,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I50" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J50" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3786,31 +4127,31 @@
     </row>
     <row r="51">
       <c r="A51" s="5" t="str">
-        <v>nO5aJYGv9qb</v>
+        <v>k9kIyVQEc0o</v>
       </c>
       <c r="B51" s="5" t="str">
-        <v>[CONFIG] COVAX - Received - Vaccine 3 (doses)</v>
+        <v>[CONFIG] COVAC - Wastage rate (%)</v>
       </c>
       <c r="C51" s="5" t="str">
-        <v>Received - Vaccine 3 (doses)</v>
+        <v>Wastage rate (%)</v>
       </c>
       <c r="D51" s="5" t="str">
-        <v>CVX_RECEIVED_VACCINE3_DOSES</v>
+        <v>CVC_ WASTAGE_RATE_%</v>
       </c>
       <c r="E51" s="5" t="str">
-        <v>Received at the centre</v>
+        <v>(Discarded/Used)*100</v>
       </c>
       <c r="F51" s="5" t="str">
-        <v>Received - Vaccine3 doses</v>
+        <v>Discarded doses</v>
       </c>
       <c r="G51" s="5" t="str">
-        <v>1</v>
+        <v>Used doses=(Opening balance+Received)-(Redistributed+Stock on hand)</v>
       </c>
       <c r="H51" s="5" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I51" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J51" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3818,22 +4159,22 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="str">
-        <v>NtkYtrGGzGV</v>
+        <v>Kkbt3LgbCbD</v>
       </c>
       <c r="B52" s="4" t="str">
-        <v>[CONFIG] COVAX - Essential workers given 1st dose</v>
+        <v>[CONFIG] COVAC - Doses per vial - Vaccine 3</v>
       </c>
       <c r="C52" s="4" t="str">
-        <v>Essential workers given 1st dose</v>
+        <v>Doses per vial - Vaccine 3</v>
       </c>
       <c r="D52" s="4" t="str">
-        <v>CVX_ESSENTIAL_WORKERS_1ST_DOSE</v>
+        <v>CVC_DOSES_IN_A_VIAL_VACCINE3</v>
       </c>
       <c r="E52" s="4" t="str">
-        <v>Essential workers given 1st dose</v>
+        <v>Number of doses in a vial - Vaccine3</v>
       </c>
       <c r="F52" s="4" t="str">
-        <v>Essential workers given 1st dose</v>
+        <v>Doses in a vial - Vaccine3</v>
       </c>
       <c r="G52" s="4" t="str">
         <v>1</v>
@@ -3842,7 +4183,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I52" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J52" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3850,22 +4191,22 @@
     </row>
     <row r="53">
       <c r="A53" s="5" t="str">
-        <v>o2sAk0ai7X9</v>
+        <v>KLFHy7LdaEp</v>
       </c>
       <c r="B53" s="5" t="str">
-        <v>[CONFIG] COVAX - Stock at hand - Vaccine 1 (doses)</v>
+        <v>[CONFIG] COVAC - Received - Vaccine 2 (doses)</v>
       </c>
       <c r="C53" s="5" t="str">
-        <v>Stock at hand - Vaccine 1 (doses)</v>
+        <v>Received - Vaccine 2 (doses)</v>
       </c>
       <c r="D53" s="5" t="str">
-        <v>CVX_STOCK_AT_HAND_VACCINE1_DOSES</v>
+        <v>CVC_RECEIVED_VACCINE2_DOSES</v>
       </c>
       <c r="E53" s="5" t="str">
-        <v>Stock at hand at the center after a physical stock count</v>
+        <v>Received at the centre</v>
       </c>
       <c r="F53" s="5" t="str">
-        <v>Stock at hand - Vaccine 1 doses</v>
+        <v>Received - Vaccine2 doses</v>
       </c>
       <c r="G53" s="5" t="str">
         <v>1</v>
@@ -3874,7 +4215,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I53" s="5" t="str">
-        <v>2021-02-02</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J53" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3882,22 +4223,22 @@
     </row>
     <row r="54">
       <c r="A54" s="4" t="str">
-        <v>O9HPe4hooiB</v>
+        <v>kx79vq5XdQd</v>
       </c>
       <c r="B54" s="4" t="str">
-        <v>[CONFIG] COVAX - Doses discarded by reasons</v>
+        <v>[CONFIG] COVAC - Closing balance syringes with needle 1ml</v>
       </c>
       <c r="C54" s="4" t="str">
-        <v>Doses discarded by reasons</v>
+        <v>Closing balance syringes with needle 1ml</v>
       </c>
       <c r="D54" s="4" t="str">
-        <v>CVX_DOSES_DISCARDED_BY_REASONS</v>
+        <v>CVC_CLOSING_BALANCE_SYRINGES_WITH_ NEEDLE_1ML</v>
       </c>
       <c r="E54" s="4" t="str">
-        <v>Discarded due to expiry, damage, contamination and etc</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="F54" s="4" t="str">
-        <v>Vials discarded by reasons</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="G54" s="4" t="str">
         <v>1</v>
@@ -3906,7 +4247,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I54" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J54" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3914,22 +4255,22 @@
     </row>
     <row r="55">
       <c r="A55" s="5" t="str">
-        <v>oB4qA3ZKs89</v>
+        <v>lGv5kC9pLPI</v>
       </c>
       <c r="B55" s="5" t="str">
-        <v>[CONFIG] COVAX - Target people given 1st dose</v>
+        <v>[CONFIG] COVAC - Discarded closed vials - Vaccine 1</v>
       </c>
       <c r="C55" s="5" t="str">
-        <v>Target people given 1st dose</v>
+        <v>Discarded closed vials - Vaccine 1</v>
       </c>
       <c r="D55" s="5" t="str">
-        <v>CVX_PEOPLE_1ST_DOSE</v>
+        <v>CVC_DISCARDED__OPEN_VIALS_VACCINE1</v>
       </c>
       <c r="E55" s="5" t="str">
-        <v>Target people given 1st dose</v>
+        <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F55" s="5" t="str">
-        <v>Target people given 1st dose</v>
+        <v>Discarded closed vials - Vaccine 1</v>
       </c>
       <c r="G55" s="5" t="str">
         <v>1</v>
@@ -3938,7 +4279,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I55" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J55" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3946,31 +4287,31 @@
     </row>
     <row r="56">
       <c r="A56" s="4" t="str">
-        <v>OkkYt2JpIZ8</v>
+        <v>LgvcCkQIQ44</v>
       </c>
       <c r="B56" s="4" t="str">
-        <v>[CONFIG] COVAX - Vaccine 3 uptake (%)</v>
+        <v>[CONFIG] COVAC - Opened vials wastage (%)</v>
       </c>
       <c r="C56" s="4" t="str">
-        <v>Vaccine 3 uptake (%)</v>
+        <v>Opened vials wastage (%)</v>
       </c>
       <c r="D56" s="4" t="str">
-        <v>CVX_VACCINE3_UPTAKE_%</v>
+        <v>CVC_ OPENED_VIALS_WASTAGE_%</v>
       </c>
       <c r="E56" s="4" t="str">
-        <v>Proportion of people given doses of vaccine3</v>
+        <v>(Discarded open vial doses/Doses discarded)*100</v>
       </c>
       <c r="F56" s="4" t="str">
-        <v>Vaccine3 doses given</v>
+        <v>Opened vial doses discarded</v>
       </c>
       <c r="G56" s="4" t="str">
-        <v>Total doses of all vaccines given</v>
+        <v>Discarded doses</v>
       </c>
       <c r="H56" s="4" t="str">
         <v>Percentage</v>
       </c>
       <c r="I56" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J56" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3978,16 +4319,16 @@
     </row>
     <row r="57">
       <c r="A57" s="5" t="str">
-        <v>orUc26gd0BF</v>
+        <v>LlSh5OozlKX</v>
       </c>
       <c r="B57" s="5" t="str">
-        <v>[CONFIG] COVAX - Closing balance - Vaccine 1 (vials)</v>
+        <v>[CONFIG] COVAC - Closing balance diluent</v>
       </c>
       <c r="C57" s="5" t="str">
-        <v>Closing balance - Vaccine 1 (vials)</v>
+        <v>Closing balance diluent</v>
       </c>
       <c r="D57" s="5" t="str">
-        <v>CVX_CLOSING_BALANCE_VACCINE1_VIALS</v>
+        <v>CVC_CLOSING_BALANCE_DILUENT</v>
       </c>
       <c r="E57" s="5" t="str">
         <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
@@ -4002,7 +4343,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I57" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J57" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4010,22 +4351,22 @@
     </row>
     <row r="58">
       <c r="A58" s="4" t="str">
-        <v>OxPqWqw6hL6</v>
+        <v>lXV4Lk0aah6</v>
       </c>
       <c r="B58" s="4" t="str">
-        <v>[CONFIG] COVAX - Frontline healthcare workers given 1st dose</v>
+        <v>[CONFIG] COVAC - Distributed vials</v>
       </c>
       <c r="C58" s="4" t="str">
-        <v>Frontline healthcare workers given 1st dose</v>
+        <v>Distributed vials</v>
       </c>
       <c r="D58" s="4" t="str">
-        <v>CVX_FRONTLINE_HCW_1ST_DOSE</v>
+        <v>CVC_DISTRIBUTED_VIALS</v>
       </c>
       <c r="E58" s="4" t="str">
-        <v>Frontline healthcare workers given 1st dose</v>
+        <v>Distributed to people receiving the items</v>
       </c>
       <c r="F58" s="4" t="str">
-        <v>Frontline healthcare workers given 1st dose</v>
+        <v>Distributed vials</v>
       </c>
       <c r="G58" s="4" t="str">
         <v>1</v>
@@ -4034,7 +4375,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I58" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J58" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4042,22 +4383,22 @@
     </row>
     <row r="59">
       <c r="A59" s="5" t="str">
-        <v>pqED8vVfjlf</v>
+        <v>M5EPDK0aiWj</v>
       </c>
       <c r="B59" s="5" t="str">
-        <v>[CONFIG] COVAX - Essential workers given booster dose</v>
+        <v>[CONFIG] COVAC - Discarded vaccination diluent</v>
       </c>
       <c r="C59" s="5" t="str">
-        <v>Essential workers given booster dose</v>
+        <v>Discarded diluent</v>
       </c>
       <c r="D59" s="5" t="str">
-        <v>CVX_ESSENTIAL_WORKERS_BOOSTER_DOSE</v>
+        <v>CVC_DISCARDED_DILUENT</v>
       </c>
       <c r="E59" s="5" t="str">
-        <v>Essential workers given booster dose</v>
+        <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F59" s="5" t="str">
-        <v>Essential workers given booster dose</v>
+        <v>Discarded diluent</v>
       </c>
       <c r="G59" s="5" t="str">
         <v>1</v>
@@ -4066,7 +4407,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I59" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J59" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4074,22 +4415,22 @@
     </row>
     <row r="60">
       <c r="A60" s="4" t="str">
-        <v>q2NHWRFKJIJ</v>
+        <v>mQYStz4mXT5</v>
       </c>
       <c r="B60" s="4" t="str">
-        <v>[CONFIG] COVAX - Redistributed syringes with needle 1ml</v>
+        <v>[CONFIG] COVAC - Target people with existing medical conditions</v>
       </c>
       <c r="C60" s="4" t="str">
-        <v>Redistributed syringes with needle 1ml</v>
+        <v>Target people with existing medical conditions</v>
       </c>
       <c r="D60" s="4" t="str">
-        <v>CVX_REDISTRIBUTED_SYRINGES_WITH_ NEEDLE_1ML</v>
+        <v>CVC_TARGET_PEOPLE_WITH_EXISTING_CONDITIONS</v>
       </c>
       <c r="E60" s="4" t="str">
-        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
+        <v>Target people with existing medical conditions</v>
       </c>
       <c r="F60" s="4" t="str">
-        <v>Redistributed syringes with needle 1ml</v>
+        <v>Target people with existing medical conditions</v>
       </c>
       <c r="G60" s="4" t="str">
         <v>1</v>
@@ -4098,7 +4439,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I60" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J60" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4106,22 +4447,22 @@
     </row>
     <row r="61">
       <c r="A61" s="5" t="str">
-        <v>Q5CvJIeZAeh</v>
+        <v>MRUsCIsRdps</v>
       </c>
       <c r="B61" s="5" t="str">
-        <v>[CONFIG] COVAX - Redistributed cold box</v>
+        <v>[CONFIG] COVAC - Distributed - Vaccine 2 (doses)</v>
       </c>
       <c r="C61" s="5" t="str">
-        <v>Redistributed cold box</v>
+        <v>Distributed - Vaccine 2 (doses)</v>
       </c>
       <c r="D61" s="5" t="str">
-        <v>CVX_REDISTRIBUTED_COLD_BOXES</v>
+        <v>CVC_DISTRIBUTED_VACCINE2_DOSES</v>
       </c>
       <c r="E61" s="5" t="str">
-        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
+        <v>Distributed to people receiving the vaccines</v>
       </c>
       <c r="F61" s="5" t="str">
-        <v>Redistributed cold boxes</v>
+        <v>Distributed - Vaccine2 doses</v>
       </c>
       <c r="G61" s="5" t="str">
         <v>1</v>
@@ -4130,7 +4471,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I61" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J61" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4138,22 +4479,22 @@
     </row>
     <row r="62">
       <c r="A62" s="4" t="str">
-        <v>q7a0Mh2fRC1</v>
+        <v>N4iXbeP3T5O</v>
       </c>
       <c r="B62" s="4" t="str">
-        <v>[CONFIG] COVAX - Target people with existing medical conditions given 1st dose</v>
+        <v>[CONFIG] COVAC - Closing balance - Vaccine 2 (vials)</v>
       </c>
       <c r="C62" s="4" t="str">
-        <v>People with existing conditions given 1st dose</v>
+        <v>Closing balance - Vaccine 2 (vials)</v>
       </c>
       <c r="D62" s="4" t="str">
-        <v>CVX_PEOPLE_WITH_EXISTING_CONDITIONS_1ST_DOSE</v>
+        <v>CVC_CLOSING_BALANCE_VACCINE2_VIALS</v>
       </c>
       <c r="E62" s="4" t="str">
-        <v>People with existing medical conditions given 1st dose</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="F62" s="4" t="str">
-        <v>Target people with existing medical conditions given 1st dose</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="G62" s="4" t="str">
         <v>1</v>
@@ -4162,7 +4503,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I62" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J62" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4170,31 +4511,31 @@
     </row>
     <row r="63">
       <c r="A63" s="5" t="str">
-        <v>QH43B8PD9V5</v>
+        <v>N4O2KBFP7Ze</v>
       </c>
       <c r="B63" s="5" t="str">
-        <v>[CONFIG] COVAX - Proportion of target essential workers given 1st dose</v>
+        <v>[CONFIG] COVAC - Received syringes with needle 1ml</v>
       </c>
       <c r="C63" s="5" t="str">
-        <v>Target essential workers who received 1st dose (%)</v>
+        <v>Received syringes with needle 1ml</v>
       </c>
       <c r="D63" s="5" t="str">
-        <v>CVX_ESS_WORKERS_GIVEN_1ST_DOSE_%</v>
+        <v>CVC_RECEIVED_SYRINGES_WITH_ NEEDLE_1ML</v>
       </c>
       <c r="E63" s="5" t="str">
-        <v>Proportion of essential workers given 1st dose</v>
+        <v>Received at the centre</v>
       </c>
       <c r="F63" s="5" t="str">
-        <v>Target essential workers who received 1st dose</v>
+        <v>Received syringes with needle 1ml</v>
       </c>
       <c r="G63" s="5" t="str">
-        <v>Target essential workers</v>
+        <v>1</v>
       </c>
       <c r="H63" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I63" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J63" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4202,22 +4543,22 @@
     </row>
     <row r="64">
       <c r="A64" s="4" t="str">
-        <v>QkFx0Jr0EST</v>
+        <v>n5u7G8DQYNJ</v>
       </c>
       <c r="B64" s="4" t="str">
-        <v>[CONFIG] COVAX - Discarded cold box</v>
+        <v>[CONFIG] COVAC - AEFIs by vaccine and severity</v>
       </c>
       <c r="C64" s="4" t="str">
-        <v>Discarded cold box</v>
+        <v>AEFIs by vaccine and severity</v>
       </c>
       <c r="D64" s="4" t="str">
-        <v>CVX_DISCARDED_COLD_BOXES</v>
+        <v>CVC_AEFIS_BY_VACCINE_AND_SEVERITY</v>
       </c>
       <c r="E64" s="4" t="str">
-        <v>Discarded due to expiry, damage, contamination and etc</v>
+        <v>AEFIs by vaccine and severity</v>
       </c>
       <c r="F64" s="4" t="str">
-        <v>Discarded cold boxes</v>
+        <v>AEFIs by vaccine and severity</v>
       </c>
       <c r="G64" s="4" t="str">
         <v>1</v>
@@ -4226,7 +4567,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I64" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J64" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4234,22 +4575,22 @@
     </row>
     <row r="65">
       <c r="A65" s="5" t="str">
-        <v>qM3QXxyUS64</v>
+        <v>nO5aJYGv9qb</v>
       </c>
       <c r="B65" s="5" t="str">
-        <v>[CONFIG] COVAX - Redistributed safety box</v>
+        <v>[CONFIG] COVAC - Received - Vaccine 3 (doses)</v>
       </c>
       <c r="C65" s="5" t="str">
-        <v>Redistributed safety box</v>
+        <v>Received - Vaccine 3 (doses)</v>
       </c>
       <c r="D65" s="5" t="str">
-        <v>CVX_REDISTRIBUTED_SAFETY_BOXES</v>
+        <v>CVC_RECEIVED_VACCINE3_DOSES</v>
       </c>
       <c r="E65" s="5" t="str">
-        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
+        <v>Received at the centre</v>
       </c>
       <c r="F65" s="5" t="str">
-        <v>Redistributed safety boxes</v>
+        <v>Received - Vaccine3 doses</v>
       </c>
       <c r="G65" s="5" t="str">
         <v>1</v>
@@ -4258,7 +4599,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I65" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J65" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4266,22 +4607,22 @@
     </row>
     <row r="66">
       <c r="A66" s="4" t="str">
-        <v>QZritWA9epc</v>
+        <v>NtkYtrGGzGV</v>
       </c>
       <c r="B66" s="4" t="str">
-        <v>[CONFIG] COVAX - Redistributed - Vaccine2 doses</v>
+        <v>[CONFIG] COVAC - Essential workers given 1st dose</v>
       </c>
       <c r="C66" s="4" t="str">
-        <v>Redistributed - Vaccine2 doses</v>
+        <v>Essential workers given 1st dose</v>
       </c>
       <c r="D66" s="4" t="str">
-        <v>CVX_REDISTRIBUTED_VACCINE2_DOSES</v>
+        <v>CVC_ESSENTIAL_WORKERS_1ST_DOSE</v>
       </c>
       <c r="E66" s="4" t="str">
-        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
+        <v>Essential workers given 1st dose</v>
       </c>
       <c r="F66" s="4" t="str">
-        <v>Redistributed - Vaccine2 doses</v>
+        <v>Essential workers given 1st dose</v>
       </c>
       <c r="G66" s="4" t="str">
         <v>1</v>
@@ -4290,7 +4631,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I66" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J66" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4298,22 +4639,22 @@
     </row>
     <row r="67">
       <c r="A67" s="5" t="str">
-        <v>RkC5nQeFp1f</v>
+        <v>o2sAk0ai7X9</v>
       </c>
       <c r="B67" s="5" t="str">
-        <v>[CONFIG] COVAX - Doses per vial - Vaccine 2</v>
+        <v>[CONFIG] COVAC - Stock at hand - Vaccine 1 (doses)</v>
       </c>
       <c r="C67" s="5" t="str">
-        <v>Doses per vial - Vaccine 2</v>
+        <v>Stock at hand - Vaccine 1 (doses)</v>
       </c>
       <c r="D67" s="5" t="str">
-        <v>CVX_DOSES_IN_A_VIAL_VACCINE2</v>
+        <v>CVC_STOCK_AT_HAND_VACCINE1_DOSES</v>
       </c>
       <c r="E67" s="5" t="str">
-        <v>Number of doses in a vial - Vaccine2</v>
+        <v>Stock at hand at the center after a physical stock count</v>
       </c>
       <c r="F67" s="5" t="str">
-        <v>Doses in a vial - Vaccine2</v>
+        <v>Stock at hand - Vaccine 1 doses</v>
       </c>
       <c r="G67" s="5" t="str">
         <v>1</v>
@@ -4322,7 +4663,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I67" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J67" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4330,31 +4671,31 @@
     </row>
     <row r="68">
       <c r="A68" s="4" t="str">
-        <v>rms4sR9JeYV</v>
+        <v>O9HPe4hooiB</v>
       </c>
       <c r="B68" s="4" t="str">
-        <v>[CONFIG] COVAX - Proportion of target people with underlying medical conditions given 1st dose</v>
+        <v>[CONFIG] COVAC - Doses discarded by reasons</v>
       </c>
       <c r="C68" s="4" t="str">
-        <v>People with existing conditions given 1st dose (%)</v>
+        <v>Doses discarded by reasons</v>
       </c>
       <c r="D68" s="4" t="str">
-        <v>CVX_EXISTING_CONDS_GIVEN_1ST_DOSE_%</v>
+        <v>CVC_DOSES_DISCARDED_BY_REASONS</v>
       </c>
       <c r="E68" s="4" t="str">
-        <v>Proportion of target people with existing medical conditions given 1st dose</v>
+        <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F68" s="4" t="str">
-        <v>Target people with existing conditions given 1st dose</v>
+        <v>Vials discarded by reasons</v>
       </c>
       <c r="G68" s="4" t="str">
-        <v>Target people with existing medical conditions</v>
+        <v>1</v>
       </c>
       <c r="H68" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I68" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J68" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4362,22 +4703,22 @@
     </row>
     <row r="69">
       <c r="A69" s="5" t="str">
-        <v>RneeVTogdGr</v>
+        <v>oB4qA3ZKs89</v>
       </c>
       <c r="B69" s="5" t="str">
-        <v>[CONFIG] COVAX - Opening balance vaccination cards</v>
+        <v>[CONFIG] COVAC - People given 1st dose</v>
       </c>
       <c r="C69" s="5" t="str">
-        <v>Opening balance vaccination cards</v>
+        <v>People given 1st dose</v>
       </c>
       <c r="D69" s="5" t="str">
-        <v>CVX_OPENING_BALANCE_CARDS</v>
+        <v>CVC_PEOPLE_1ST_DOSE</v>
       </c>
       <c r="E69" s="5" t="str">
-        <v>Opening balance equals the physical 'stock at hand count' of the previous period</v>
+        <v>People given 1st dose</v>
       </c>
       <c r="F69" s="5" t="str">
-        <v>Opening balance vaccination cards</v>
+        <v>People given 1st dose</v>
       </c>
       <c r="G69" s="5" t="str">
         <v>1</v>
@@ -4386,7 +4727,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I69" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J69" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4394,31 +4735,31 @@
     </row>
     <row r="70">
       <c r="A70" s="4" t="str">
-        <v>SBiW9NeXZeE</v>
+        <v>OkkYt2JpIZ8</v>
       </c>
       <c r="B70" s="4" t="str">
-        <v>[CONFIG] COVAX - Drop out rates among all people targeted</v>
+        <v>[CONFIG] COVAC - Vaccine 3 uptake (%)</v>
       </c>
       <c r="C70" s="4" t="str">
-        <v>Drop out rates among all (%)</v>
+        <v>Vaccine 3 uptake (%)</v>
       </c>
       <c r="D70" s="4" t="str">
-        <v>CVX_DROPOUT_RATES_AMONG_ALL%</v>
+        <v>CVC_VACCINE3_UPTAKE_%</v>
       </c>
       <c r="E70" s="4" t="str">
-        <v>(1st dose - 2nd dose)/1st dose</v>
+        <v>Proportion of people given doses of vaccine3</v>
       </c>
       <c r="F70" s="4" t="str">
-        <v>Given 1st dose - Given second dose</v>
+        <v>Vaccine3 doses given</v>
       </c>
       <c r="G70" s="4" t="str">
-        <v>Given 1st dose</v>
+        <v>Total doses of all vaccines given</v>
       </c>
       <c r="H70" s="4" t="str">
         <v>Percentage</v>
       </c>
       <c r="I70" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J70" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4426,31 +4767,31 @@
     </row>
     <row r="71">
       <c r="A71" s="5" t="str">
-        <v>sCEtYxBxsIc</v>
+        <v>orUc26gd0BF</v>
       </c>
       <c r="B71" s="5" t="str">
-        <v>[CONFIG] COVAX - Drop out rates among people with underlying medical conditions(%)</v>
+        <v>[CONFIG] COVAC - Closing balance - Vaccine 1 (vials)</v>
       </c>
       <c r="C71" s="5" t="str">
-        <v>Drop out rates - people with underlying cond (%)</v>
+        <v>Closing balance - Vaccine 1 (vials)</v>
       </c>
       <c r="D71" s="5" t="str">
-        <v>CVX_DROPOUT_RATES_AMONG_UNDERLYING_CONDs_%</v>
+        <v>CVC_CLOSING_BALANCE_VACCINE1_VIALS</v>
       </c>
       <c r="E71" s="5" t="str">
-        <v>(1st dose - 2nd dose)/1st dose</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="F71" s="5" t="str">
-        <v>Given 1st dose - Given second dose</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="G71" s="5" t="str">
-        <v>Given 1st dose</v>
+        <v>1</v>
       </c>
       <c r="H71" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I71" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J71" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4458,22 +4799,22 @@
     </row>
     <row r="72">
       <c r="A72" s="4" t="str">
-        <v>sDWeBvf4rrQ</v>
+        <v>OxPqWqw6hL6</v>
       </c>
       <c r="B72" s="4" t="str">
-        <v>[CONFIG] COVAX - Received - Vaccine 1 (doses)</v>
+        <v>[CONFIG] COVAC - Frontline healthcare workers given 1st dose</v>
       </c>
       <c r="C72" s="4" t="str">
-        <v>Received - Vaccine 1 (doses)</v>
+        <v>Frontline healthcare workers given 1st dose</v>
       </c>
       <c r="D72" s="4" t="str">
-        <v>CVX_RECEIVED_VACCINE1_DOSES</v>
+        <v>CVC_FRONTLINE_HCW_1ST_DOSE</v>
       </c>
       <c r="E72" s="4" t="str">
-        <v>Received at the centre</v>
+        <v>Frontline healthcare workers given 1st dose</v>
       </c>
       <c r="F72" s="4" t="str">
-        <v>Received - Vaccine1 doses</v>
+        <v>Frontline healthcare workers given 1st dose</v>
       </c>
       <c r="G72" s="4" t="str">
         <v>1</v>
@@ -4482,7 +4823,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I72" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J72" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4490,31 +4831,31 @@
     </row>
     <row r="73">
       <c r="A73" s="5" t="str">
-        <v>SvxFYXEwEwh</v>
+        <v>pqED8vVfjlf</v>
       </c>
       <c r="B73" s="5" t="str">
-        <v>[CONFIG] COVAX - Vaccine stock reporting rates on time</v>
+        <v>[CONFIG] COVAC - Essential workers given booster dose</v>
       </c>
       <c r="C73" s="5" t="str">
-        <v>Vaccine stock reporting rates on time (%)</v>
+        <v>Essential workers given booster dose</v>
       </c>
       <c r="D73" s="5" t="str">
-        <v>CVX_VAC_STOCK_REPORTING_RATE_ONTIME_%</v>
+        <v>CVC_ESSENTIAL_WORKERS_BOOSTER_DOSE</v>
       </c>
       <c r="E73" s="5" t="str">
-        <v>Proportion of all vaccination centres that submitted their report on time</v>
+        <v>Essential workers given booster dose</v>
       </c>
       <c r="F73" s="5" t="str">
-        <v>Actual reports received on time</v>
+        <v>Essential workers given booster dose</v>
       </c>
       <c r="G73" s="5" t="str">
-        <v>Actual reports received</v>
+        <v>1</v>
       </c>
       <c r="H73" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I73" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J73" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4522,22 +4863,22 @@
     </row>
     <row r="74">
       <c r="A74" s="4" t="str">
-        <v>t4hpTf9Jo4a</v>
+        <v>q2NHWRFKJIJ</v>
       </c>
       <c r="B74" s="4" t="str">
-        <v>[CONFIG] COVAX - Discarded closed vials - Vaccine 3 (doses)</v>
+        <v>[CONFIG] COVAC - Redistributed syringes with needle 1ml</v>
       </c>
       <c r="C74" s="4" t="str">
-        <v>Discarded closed vials - Vaccine 3 (doses)</v>
+        <v>Redistributed syringes with needle 1ml</v>
       </c>
       <c r="D74" s="4" t="str">
-        <v>CVX_DISCARDED_VACCINE3_DOSES</v>
+        <v>CVC_REDISTRIBUTED_SYRINGES_WITH_ NEEDLE_1ML</v>
       </c>
       <c r="E74" s="4" t="str">
-        <v>Discarded due to expiry, damage, contamination and etc</v>
+        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
       </c>
       <c r="F74" s="4" t="str">
-        <v>Discarded - Vaccine3 doses</v>
+        <v>Redistributed syringes with needle 1ml</v>
       </c>
       <c r="G74" s="4" t="str">
         <v>1</v>
@@ -4546,7 +4887,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I74" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J74" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4554,22 +4895,22 @@
     </row>
     <row r="75">
       <c r="A75" s="5" t="str">
-        <v>tiFvalDGy3M</v>
+        <v>Q5CvJIeZAeh</v>
       </c>
       <c r="B75" s="5" t="str">
-        <v>[CONFIG] COVAX - Redistributed - Vaccine3 doses</v>
+        <v>[CONFIG] COVAC - Redistributed cold box</v>
       </c>
       <c r="C75" s="5" t="str">
-        <v>Redistributed - Vaccine3 doses</v>
+        <v>Redistributed cold box</v>
       </c>
       <c r="D75" s="5" t="str">
-        <v>CVX_REDISTRIBUTED_VACCINE3_DOSES</v>
+        <v>CVC_REDISTRIBUTED_COLD_BOXES</v>
       </c>
       <c r="E75" s="5" t="str">
         <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
       </c>
       <c r="F75" s="5" t="str">
-        <v>Redistributed - Vaccine3 doses</v>
+        <v>Redistributed cold boxes</v>
       </c>
       <c r="G75" s="5" t="str">
         <v>1</v>
@@ -4578,7 +4919,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I75" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J75" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4586,22 +4927,22 @@
     </row>
     <row r="76">
       <c r="A76" s="4" t="str">
-        <v>TiylZPMlukw</v>
+        <v>q7a0Mh2fRC1</v>
       </c>
       <c r="B76" s="4" t="str">
-        <v>[CONFIG] COVAX - Received vials</v>
+        <v>[CONFIG] COVAC - People with existing medical conditions given 1st dose</v>
       </c>
       <c r="C76" s="4" t="str">
-        <v>Received vials</v>
+        <v>People with existing conditions given 1st dose</v>
       </c>
       <c r="D76" s="4" t="str">
-        <v>CVX_RECEIVED_VIALS</v>
+        <v>CVC_PEOPLE_WITH_EXISTING_CONDITIONS_1ST_DOSE</v>
       </c>
       <c r="E76" s="4" t="str">
-        <v>Received at the centre</v>
+        <v>People with existing medical conditions given 1st dose</v>
       </c>
       <c r="F76" s="4" t="str">
-        <v>Received vials</v>
+        <v>People with existing medical conditions given 1st dose</v>
       </c>
       <c r="G76" s="4" t="str">
         <v>1</v>
@@ -4610,7 +4951,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I76" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J76" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4618,31 +4959,31 @@
     </row>
     <row r="77">
       <c r="A77" s="5" t="str">
-        <v>TJqiY5fLP8C</v>
+        <v>QH43B8PD9V5</v>
       </c>
       <c r="B77" s="5" t="str">
-        <v>[CONFIG] COVAX - Target population</v>
+        <v>[CONFIG] COVAC - Proportion of target essential workers given 1st dose</v>
       </c>
       <c r="C77" s="5" t="str">
-        <v>Target population</v>
+        <v>Target essential workers who received 1st dose (%)</v>
       </c>
       <c r="D77" s="5" t="str">
-        <v>CVX_TARGET_POPULATION</v>
+        <v>CVC_ESS_WORKERS_GIVEN_1ST_DOSE_%</v>
       </c>
       <c r="E77" s="5" t="str">
-        <v>Target population</v>
+        <v>Proportion of essential workers given 1st dose</v>
       </c>
       <c r="F77" s="5" t="str">
-        <v>Target population</v>
+        <v>Target essential workers who received 1st dose</v>
       </c>
       <c r="G77" s="5" t="str">
-        <v>1</v>
+        <v>Target essential workers</v>
       </c>
       <c r="H77" s="5" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I77" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J77" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4650,31 +4991,31 @@
     </row>
     <row r="78">
       <c r="A78" s="4" t="str">
-        <v>U7Xq3jiK8Fy</v>
+        <v>QkFx0Jr0EST</v>
       </c>
       <c r="B78" s="4" t="str">
-        <v>[CONFIG] COVAX - Proportion of target people given 1st dose</v>
+        <v>[CONFIG] COVAC - Discarded cold box</v>
       </c>
       <c r="C78" s="4" t="str">
-        <v>Target people given 1st dose (%)</v>
+        <v>Discarded cold box</v>
       </c>
       <c r="D78" s="4" t="str">
-        <v>CVX_PEOPLE_GIVEN_1ST_DOSE_%</v>
+        <v>CVC_DISCARDED_COLD_BOXES</v>
       </c>
       <c r="E78" s="4" t="str">
-        <v>Proportion of target people given 1st dose</v>
+        <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F78" s="4" t="str">
-        <v>Target people given 1st dose</v>
+        <v>Discarded cold boxes</v>
       </c>
       <c r="G78" s="4" t="str">
-        <v>Target population</v>
+        <v>1</v>
       </c>
       <c r="H78" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I78" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J78" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4682,22 +5023,22 @@
     </row>
     <row r="79">
       <c r="A79" s="5" t="str">
-        <v>uhZxrsrhZuy</v>
+        <v>qM3QXxyUS64</v>
       </c>
       <c r="B79" s="5" t="str">
-        <v>[CONFIG] COVAX - Closing balance vials</v>
+        <v>[CONFIG] COVAC - Redistributed safety box</v>
       </c>
       <c r="C79" s="5" t="str">
-        <v>Closing balance vials</v>
+        <v>Redistributed safety box</v>
       </c>
       <c r="D79" s="5" t="str">
-        <v>CVX_CLOSING_BALANCE_VIALS</v>
+        <v>CVC_REDISTRIBUTED_SAFETY_BOXES</v>
       </c>
       <c r="E79" s="5" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
       </c>
       <c r="F79" s="5" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Redistributed safety boxes</v>
       </c>
       <c r="G79" s="5" t="str">
         <v>1</v>
@@ -4706,7 +5047,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I79" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J79" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4714,22 +5055,22 @@
     </row>
     <row r="80">
       <c r="A80" s="4" t="str">
-        <v>ujhVVQlwTB0</v>
+        <v>QZritWA9epc</v>
       </c>
       <c r="B80" s="4" t="str">
-        <v>[CONFIG] COVAX - Opening balance safety box</v>
+        <v>[CONFIG] COVAC - Redistributed - Vaccine2 doses</v>
       </c>
       <c r="C80" s="4" t="str">
-        <v>Opening balance safety box</v>
+        <v>Redistributed - Vaccine2 doses</v>
       </c>
       <c r="D80" s="4" t="str">
-        <v>CVX_OPENING_BALANCE_SAFETY_BOXES</v>
+        <v>CVC_REDISTRIBUTED_VACCINE2_DOSES</v>
       </c>
       <c r="E80" s="4" t="str">
-        <v>Opening balance equals the physical 'stock at hand count' of the previous period</v>
+        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
       </c>
       <c r="F80" s="4" t="str">
-        <v>Opening balance safety box</v>
+        <v>Redistributed - Vaccine2 doses</v>
       </c>
       <c r="G80" s="4" t="str">
         <v>1</v>
@@ -4738,7 +5079,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I80" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J80" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4746,22 +5087,22 @@
     </row>
     <row r="81">
       <c r="A81" s="5" t="str">
-        <v>UjzjMQpG41z</v>
+        <v>RkC5nQeFp1f</v>
       </c>
       <c r="B81" s="5" t="str">
-        <v>[CONFIG] COVAX - Stock at hand cold box</v>
+        <v>[CONFIG] COVAC - Doses per vial - Vaccine 2</v>
       </c>
       <c r="C81" s="5" t="str">
-        <v>Stock at hand cold box</v>
+        <v>Doses per vial - Vaccine 2</v>
       </c>
       <c r="D81" s="5" t="str">
-        <v>CVX_STOCK_AT_HAND_COLD_BOX</v>
+        <v>CVC_DOSES_IN_A_VIAL_VACCINE2</v>
       </c>
       <c r="E81" s="5" t="str">
-        <v>Stock at hand at the center after a physical stock count</v>
+        <v>Number of doses in a vial - Vaccine2</v>
       </c>
       <c r="F81" s="5" t="str">
-        <v>Stock at hand cold boxes</v>
+        <v>Doses in a vial - Vaccine2</v>
       </c>
       <c r="G81" s="5" t="str">
         <v>1</v>
@@ -4770,7 +5111,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I81" s="5" t="str">
-        <v>2021-02-02</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J81" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4778,31 +5119,31 @@
     </row>
     <row r="82">
       <c r="A82" s="4" t="str">
-        <v>UsMLXbWhhEj</v>
+        <v>rms4sR9JeYV</v>
       </c>
       <c r="B82" s="4" t="str">
-        <v>[CONFIG] COVAX - Distributed cold box</v>
+        <v>[CONFIG] COVAC - Proportion of target people with underlying medical conditions given 1st dose</v>
       </c>
       <c r="C82" s="4" t="str">
-        <v>Distributed cold box</v>
+        <v>People with existing conditions given 1st dose (%)</v>
       </c>
       <c r="D82" s="4" t="str">
-        <v>CVX_DISTRIBUTED_COLD_BOXES</v>
+        <v>CVC_EXISTING_CONDS_GIVEN_1ST_DOSE_%</v>
       </c>
       <c r="E82" s="4" t="str">
-        <v>Distributed to people receiving the items</v>
+        <v>Proportion of target people with existing medical conditions given 1st dose</v>
       </c>
       <c r="F82" s="4" t="str">
-        <v>Distributed cold boxes</v>
+        <v>Target people with existing conditions given 1st dose</v>
       </c>
       <c r="G82" s="4" t="str">
-        <v>1</v>
+        <v>Target people with existing medical conditions</v>
       </c>
       <c r="H82" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I82" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J82" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4810,22 +5151,22 @@
     </row>
     <row r="83">
       <c r="A83" s="5" t="str">
-        <v>V735nRG647O</v>
+        <v>RneeVTogdGr</v>
       </c>
       <c r="B83" s="5" t="str">
-        <v>[CONFIG] COVAX - Discarded syringes with needle 1ml</v>
+        <v>[CONFIG] COVAC - Opening balance vaccination cards</v>
       </c>
       <c r="C83" s="5" t="str">
-        <v>Discarded syringes with needle 1ml</v>
+        <v>Opening balance vaccination cards</v>
       </c>
       <c r="D83" s="5" t="str">
-        <v>CVX_DISCARDED_SYRINGES_WITH_ NEEDLE_1ML</v>
+        <v>CVC_OPENING_BALANCE_CARDS</v>
       </c>
       <c r="E83" s="5" t="str">
-        <v>Discarded due to expiry, damage, contamination and etc</v>
+        <v>Opening balance equals the physical 'stock at hand count' of the previous period</v>
       </c>
       <c r="F83" s="5" t="str">
-        <v>Discarded syringes with needle 1ml</v>
+        <v>Opening balance vaccination cards</v>
       </c>
       <c r="G83" s="5" t="str">
         <v>1</v>
@@ -4834,7 +5175,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I83" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J83" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4842,31 +5183,31 @@
     </row>
     <row r="84">
       <c r="A84" s="4" t="str">
-        <v>V8XFjC7JHtx</v>
+        <v>SBiW9NeXZeE</v>
       </c>
       <c r="B84" s="4" t="str">
-        <v>[CONFIG] COVAX - Distributed vaccination cards</v>
+        <v>[CONFIG] COVAC - Drop out rates among all people targeted</v>
       </c>
       <c r="C84" s="4" t="str">
-        <v>Distributed vaccination cards</v>
+        <v>Drop out rates among all (%)</v>
       </c>
       <c r="D84" s="4" t="str">
-        <v>CVX_DISTRIBUTED_CARDS</v>
+        <v>CVC_DROPOUT_RATES_AMONG_ALL%</v>
       </c>
       <c r="E84" s="4" t="str">
-        <v>Distributed to people receiving the items</v>
+        <v>(1st dose - 2nd dose)/1st dose</v>
       </c>
       <c r="F84" s="4" t="str">
-        <v>Distributed vaccination cards</v>
+        <v>Given 1st dose - Given second dose</v>
       </c>
       <c r="G84" s="4" t="str">
-        <v>1</v>
+        <v>Given 1st dose</v>
       </c>
       <c r="H84" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I84" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J84" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4874,31 +5215,31 @@
     </row>
     <row r="85">
       <c r="A85" s="5" t="str">
-        <v>vBBejr9Qm9y</v>
+        <v>sCEtYxBxsIc</v>
       </c>
       <c r="B85" s="5" t="str">
-        <v>[CONFIG] COVAX - Closing balance - Vaccine 3 (vials)</v>
+        <v>[CONFIG] COVAC - Drop out rates among people with underlying medical conditions(%)</v>
       </c>
       <c r="C85" s="5" t="str">
-        <v>Closing balance - Vaccine 3 (vials)</v>
+        <v>Drop out rates - people with underlying cond (%)</v>
       </c>
       <c r="D85" s="5" t="str">
-        <v>CVX_CLOSING_BALANCE_VACCINE3_VIALS</v>
+        <v>CVC_DROPOUT_RATES_AMONG_UNDERLYING_CONDs_%</v>
       </c>
       <c r="E85" s="5" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>(1st dose - 2nd dose)/1st dose</v>
       </c>
       <c r="F85" s="5" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Given 1st dose - Given second dose</v>
       </c>
       <c r="G85" s="5" t="str">
-        <v>1</v>
+        <v>Given 1st dose</v>
       </c>
       <c r="H85" s="5" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I85" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J85" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4906,22 +5247,22 @@
     </row>
     <row r="86">
       <c r="A86" s="4" t="str">
-        <v>vBJQTfzca4x</v>
+        <v>sDWeBvf4rrQ</v>
       </c>
       <c r="B86" s="4" t="str">
-        <v>[CONFIG] COVAX - Frontline healthcare workers given booster dose</v>
+        <v>[CONFIG] COVAC - Received - Vaccine 1 (doses)</v>
       </c>
       <c r="C86" s="4" t="str">
-        <v>Frontline healthcare workers given booster dose</v>
+        <v>Received - Vaccine 1 (doses)</v>
       </c>
       <c r="D86" s="4" t="str">
-        <v>CVX_FRONTLINE_HCW_BOOSTER_DOSE</v>
+        <v>CVC_RECEIVED_VACCINE1_DOSES</v>
       </c>
       <c r="E86" s="4" t="str">
-        <v>Frontline healthcare workers given booster dose</v>
+        <v>Received at the centre</v>
       </c>
       <c r="F86" s="4" t="str">
-        <v>Frontline healthcare workers given booster dose</v>
+        <v>Received - Vaccine1 doses</v>
       </c>
       <c r="G86" s="4" t="str">
         <v>1</v>
@@ -4930,7 +5271,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I86" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J86" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4938,22 +5279,22 @@
     </row>
     <row r="87">
       <c r="A87" s="5" t="str">
-        <v>VFdnTyYvS5c</v>
+        <v>sQaCAFVXOgq</v>
       </c>
       <c r="B87" s="5" t="str">
-        <v>[CONFIG] COVAX - Stock at hand vials</v>
+        <v>[CONFIG] COVAC - Stockout days dilution syringes</v>
       </c>
       <c r="C87" s="5" t="str">
-        <v>Stock at hand vials</v>
+        <v>Stockout days dilution syringes</v>
       </c>
       <c r="D87" s="5" t="str">
-        <v>CVX_STOCK_AT_HAND_VIALS</v>
+        <v>CVC_STOCKOUT_DAYS_DILUTION_SYRINGES</v>
       </c>
       <c r="E87" s="5" t="str">
-        <v>Stock at hand at the center after a physical stock count</v>
+        <v>Days the facility was stocked out of the item</v>
       </c>
       <c r="F87" s="5" t="str">
-        <v>Stock at hand vials</v>
+        <v>Stockout days dilution syringes</v>
       </c>
       <c r="G87" s="5" t="str">
         <v>1</v>
@@ -4962,7 +5303,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I87" s="5" t="str">
-        <v>2021-02-02</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J87" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4970,31 +5311,31 @@
     </row>
     <row r="88">
       <c r="A88" s="4" t="str">
-        <v>vn6JSZdN0Gq</v>
+        <v>SvxFYXEwEwh</v>
       </c>
       <c r="B88" s="4" t="str">
-        <v>[CONFIG] COVAX - Stockout days cold box</v>
+        <v>[CONFIG] COVAC - Vaccine stock reporting rates on time</v>
       </c>
       <c r="C88" s="4" t="str">
-        <v>Stockout days cold box</v>
+        <v>Vaccine stock reporting rates on time (%)</v>
       </c>
       <c r="D88" s="4" t="str">
-        <v>CVX_STOCKOUT_DAYS_COLD_BOX</v>
+        <v>CVC_VAC_STOCK_REPORTING_RATE_ONTIME_%</v>
       </c>
       <c r="E88" s="4" t="str">
-        <v>Days the facility was stocked out of the item</v>
+        <v>Proportion of all vaccination centres that submitted their report on time</v>
       </c>
       <c r="F88" s="4" t="str">
-        <v>Stockout days cold boxes</v>
+        <v>Actual reports received on time</v>
       </c>
       <c r="G88" s="4" t="str">
-        <v>1</v>
+        <v>Actual reports received</v>
       </c>
       <c r="H88" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I88" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J88" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5002,22 +5343,22 @@
     </row>
     <row r="89">
       <c r="A89" s="5" t="str">
-        <v>w42k9kZegoW</v>
+        <v>t4hpTf9Jo4a</v>
       </c>
       <c r="B89" s="5" t="str">
-        <v>[CONFIG] COVAX - Distributed safety box</v>
+        <v>[CONFIG] COVAC - Discarded closed vials - Vaccine 3 (doses)</v>
       </c>
       <c r="C89" s="5" t="str">
-        <v>Distributed safety box</v>
+        <v>Discarded closed vials - Vaccine 3 (doses)</v>
       </c>
       <c r="D89" s="5" t="str">
-        <v>CVX_DISTRIBUTED_SAFETY_BOXES</v>
+        <v>CVC_DISCARDED_VACCINE3_DOSES</v>
       </c>
       <c r="E89" s="5" t="str">
-        <v>Distributed to people receiving the items</v>
+        <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F89" s="5" t="str">
-        <v>Distributed safety boxes</v>
+        <v>Discarded - Vaccine3 doses</v>
       </c>
       <c r="G89" s="5" t="str">
         <v>1</v>
@@ -5026,7 +5367,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I89" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J89" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5034,22 +5375,22 @@
     </row>
     <row r="90">
       <c r="A90" s="4" t="str">
-        <v>wassnxEhpwM</v>
+        <v>tiFvalDGy3M</v>
       </c>
       <c r="B90" s="4" t="str">
-        <v>[CONFIG] COVAX - Target essential workers</v>
+        <v>[CONFIG] COVAC - Redistributed - Vaccine3 doses</v>
       </c>
       <c r="C90" s="4" t="str">
-        <v>Target essential workers</v>
+        <v>Redistributed - Vaccine3 doses</v>
       </c>
       <c r="D90" s="4" t="str">
-        <v>CVX_TARGET_ESSENTIAL_WORKERS</v>
+        <v>CVC_REDISTRIBUTED_VACCINE3_DOSES</v>
       </c>
       <c r="E90" s="4" t="str">
-        <v>Target essential workers</v>
+        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
       </c>
       <c r="F90" s="4" t="str">
-        <v>Target essential workers</v>
+        <v>Redistributed - Vaccine3 doses</v>
       </c>
       <c r="G90" s="4" t="str">
         <v>1</v>
@@ -5058,7 +5399,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I90" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J90" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5066,22 +5407,22 @@
     </row>
     <row r="91">
       <c r="A91" s="5" t="str">
-        <v>wcMsZNh0GO0</v>
+        <v>TiylZPMlukw</v>
       </c>
       <c r="B91" s="5" t="str">
-        <v>[CONFIG] COVAX - Received safety box</v>
+        <v>[CONFIG] COVAC - Received vials</v>
       </c>
       <c r="C91" s="5" t="str">
-        <v>Received safety box</v>
+        <v>Received vials</v>
       </c>
       <c r="D91" s="5" t="str">
-        <v>CVX_RECEIVED_SAFETY_BOX</v>
+        <v>CVC_RECEIVED_VIALS</v>
       </c>
       <c r="E91" s="5" t="str">
         <v>Received at the centre</v>
       </c>
       <c r="F91" s="5" t="str">
-        <v>Received safety boxes</v>
+        <v>Received vials</v>
       </c>
       <c r="G91" s="5" t="str">
         <v>1</v>
@@ -5090,7 +5431,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I91" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J91" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5098,22 +5439,22 @@
     </row>
     <row r="92">
       <c r="A92" s="4" t="str">
-        <v>WMjFkieChKj</v>
+        <v>TJqiY5fLP8C</v>
       </c>
       <c r="B92" s="4" t="str">
-        <v>[CONFIG] COVAX - Stockout days - Vaccine 2 (vials)</v>
+        <v>[CONFIG] COVAC - Target population</v>
       </c>
       <c r="C92" s="4" t="str">
-        <v>Stockout days - Vaccine 2 (vials)</v>
+        <v>Target population</v>
       </c>
       <c r="D92" s="4" t="str">
-        <v>CVX_STOCKOUT_DAYS_VACCINE2_VIALS</v>
+        <v>CVC_TARGET_POPULATION</v>
       </c>
       <c r="E92" s="4" t="str">
-        <v>Days the centre was stocked out of the item</v>
+        <v>Target population</v>
       </c>
       <c r="F92" s="4" t="str">
-        <v>Stockout days - Vaccine2</v>
+        <v>Target population</v>
       </c>
       <c r="G92" s="4" t="str">
         <v>1</v>
@@ -5122,7 +5463,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I92" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J92" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5130,22 +5471,22 @@
     </row>
     <row r="93">
       <c r="A93" s="5" t="str">
-        <v>wpfKN5vD3QG</v>
+        <v>TS3T65BQ5mQ</v>
       </c>
       <c r="B93" s="5" t="str">
-        <v>[CONFIG] COVAX - Used vials</v>
+        <v>[CONFIG] COVAC - Closing balance dilution syringes</v>
       </c>
       <c r="C93" s="5" t="str">
-        <v>Used vials</v>
+        <v>Closing balance dilution syringes</v>
       </c>
       <c r="D93" s="5" t="str">
-        <v>CVX_USED_VIALS</v>
+        <v>CVC_CLOSING_BALANCE_DILUTION SYRINGES</v>
       </c>
       <c r="E93" s="5" t="str">
-        <v>(Opening balance+Received)-(Redistributed+Stock on hand)</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="F93" s="5" t="str">
-        <v>(Opening balance+Received)-(Redistributed+Stock on hand)</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="G93" s="5" t="str">
         <v>1</v>
@@ -5154,7 +5495,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I93" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J93" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5162,31 +5503,31 @@
     </row>
     <row r="94">
       <c r="A94" s="4" t="str">
-        <v>X2XYc8WNUY3</v>
+        <v>U7Xq3jiK8Fy</v>
       </c>
       <c r="B94" s="4" t="str">
-        <v>[CONFIG] COVAX - Distributed - Vaccine 1 (doses)</v>
+        <v>[CONFIG] COVAC - Proportion of target people given 1st dose</v>
       </c>
       <c r="C94" s="4" t="str">
-        <v>Distributed - Vaccine 1 (doses)</v>
+        <v>Target people given 1st dose (%)</v>
       </c>
       <c r="D94" s="4" t="str">
-        <v>CVX_DISTRIBUTED_VACCINE1_DOSES</v>
+        <v>CVC_PEOPLE_GIVEN_1ST_DOSE_%</v>
       </c>
       <c r="E94" s="4" t="str">
-        <v>Distributed to people receiving the vaccines</v>
+        <v>Proportion of target people given 1st dose</v>
       </c>
       <c r="F94" s="4" t="str">
-        <v>Distributed - Vaccine1 doses</v>
+        <v>Target people given 1st dose</v>
       </c>
       <c r="G94" s="4" t="str">
-        <v>1</v>
+        <v>Target population</v>
       </c>
       <c r="H94" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I94" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J94" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5194,22 +5535,22 @@
     </row>
     <row r="95">
       <c r="A95" s="5" t="str">
-        <v>XxmA3VOxZdM</v>
+        <v>uhZxrsrhZuy</v>
       </c>
       <c r="B95" s="5" t="str">
-        <v>[CONFIG] COVAX - Distributed - Vaccine 3 (doses)</v>
+        <v>[CONFIG] COVAC - Closing balance vials</v>
       </c>
       <c r="C95" s="5" t="str">
-        <v>Distributed - Vaccine 3 (doses)</v>
+        <v>Closing balance vials</v>
       </c>
       <c r="D95" s="5" t="str">
-        <v>CVX_DISTRIBUTED_VACCINE3_DOSES</v>
+        <v>CVC_CLOSING_BALANCE_VIALS</v>
       </c>
       <c r="E95" s="5" t="str">
-        <v>Distributed to people receiving the vaccines</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="F95" s="5" t="str">
-        <v>Distributed - Vaccine3 doses</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="G95" s="5" t="str">
         <v>1</v>
@@ -5218,7 +5559,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I95" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J95" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5226,31 +5567,31 @@
     </row>
     <row r="96">
       <c r="A96" s="4" t="str">
-        <v>y7uIwU6x8VS</v>
+        <v>ujhVVQlwTB0</v>
       </c>
       <c r="B96" s="4" t="str">
-        <v>[CONFIG] COVAX - Vaccine 1 uptake (%)</v>
+        <v>[CONFIG] COVAC - Opening balance safety box</v>
       </c>
       <c r="C96" s="4" t="str">
-        <v>Vaccine 1 uptake (%)</v>
+        <v>Opening balance safety box</v>
       </c>
       <c r="D96" s="4" t="str">
-        <v>CVX_VACCINE1_UPTAKE_%</v>
+        <v>CVC_OPENING_BALANCE_SAFETY_BOXES</v>
       </c>
       <c r="E96" s="4" t="str">
-        <v>Proportion of people given doses of vaccine1</v>
+        <v>Opening balance equals the physical 'stock at hand count' of the previous period</v>
       </c>
       <c r="F96" s="4" t="str">
-        <v>Vaccine1 doses given</v>
+        <v>Opening balance safety box</v>
       </c>
       <c r="G96" s="4" t="str">
-        <v>Total doses of all vaccines given</v>
+        <v>1</v>
       </c>
       <c r="H96" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I96" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J96" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5258,22 +5599,22 @@
     </row>
     <row r="97">
       <c r="A97" s="5" t="str">
-        <v>yB3Vf9Quskj</v>
+        <v>UjzjMQpG41z</v>
       </c>
       <c r="B97" s="5" t="str">
-        <v>[CONFIG] COVAX - Discarded vaccination cards</v>
+        <v>[CONFIG] COVAC - Stock at hand cold box</v>
       </c>
       <c r="C97" s="5" t="str">
-        <v>Discarded vaccination cards</v>
+        <v>Stock at hand cold box</v>
       </c>
       <c r="D97" s="5" t="str">
-        <v>CVX_DISCARDED_CARDS</v>
+        <v>CVC_STOCK_AT_HAND_COLD_BOX</v>
       </c>
       <c r="E97" s="5" t="str">
-        <v>Discarded due to expiry, damage, contamination and etc</v>
+        <v>Stock at hand at the center after a physical stock count</v>
       </c>
       <c r="F97" s="5" t="str">
-        <v>Discarded vaccination cards</v>
+        <v>Stock at hand cold boxes</v>
       </c>
       <c r="G97" s="5" t="str">
         <v>1</v>
@@ -5282,7 +5623,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I97" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J97" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5290,31 +5631,31 @@
     </row>
     <row r="98">
       <c r="A98" s="4" t="str">
-        <v>Yb759ffWrrD</v>
+        <v>USByeCb5DTV</v>
       </c>
       <c r="B98" s="4" t="str">
-        <v>[CONFIG] COVAX - Vaccine usage rate (%)</v>
+        <v>[CONFIG] COVAC - Stockout days diluent</v>
       </c>
       <c r="C98" s="4" t="str">
-        <v>Vaccine usage rate (%)</v>
+        <v>Stockout days diluent</v>
       </c>
       <c r="D98" s="4" t="str">
-        <v>CVX_ VACCINE_USAGE_RATE_%</v>
+        <v>CVC_STOCKOUT_DAYS_DILUENT</v>
       </c>
       <c r="E98" s="4" t="str">
-        <v>(Distributed/Used)*100</v>
+        <v>Days the facility was stocked out of the item</v>
       </c>
       <c r="F98" s="4" t="str">
-        <v>Distributed vials</v>
+        <v>Stockout days diluent</v>
       </c>
       <c r="G98" s="4" t="str">
-        <v>Used vials</v>
+        <v>1</v>
       </c>
       <c r="H98" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I98" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J98" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5322,22 +5663,22 @@
     </row>
     <row r="99">
       <c r="A99" s="5" t="str">
-        <v>YBLUIQSCFPJ</v>
+        <v>UsMLXbWhhEj</v>
       </c>
       <c r="B99" s="5" t="str">
-        <v>[CONFIG] COVAX - Closing balance - Vaccine 3 (doses)</v>
+        <v>[CONFIG] COVAC - Distributed cold box</v>
       </c>
       <c r="C99" s="5" t="str">
-        <v>Closing balance - Vaccine 3 (doses)</v>
+        <v>Distributed cold box</v>
       </c>
       <c r="D99" s="5" t="str">
-        <v>CVX_CLOSING_BALANCE_VACCINE3_DOSES</v>
+        <v>CVC_DISTRIBUTED_COLD_BOXES</v>
       </c>
       <c r="E99" s="5" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Distributed to people receiving the items</v>
       </c>
       <c r="F99" s="5" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Distributed cold boxes</v>
       </c>
       <c r="G99" s="5" t="str">
         <v>1</v>
@@ -5346,7 +5687,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I99" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J99" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5354,22 +5695,22 @@
     </row>
     <row r="100">
       <c r="A100" s="4" t="str">
-        <v>yJ9izFBk1bB</v>
+        <v>V735nRG647O</v>
       </c>
       <c r="B100" s="4" t="str">
-        <v>[CONFIG] COVAX - Closing balance safety boxes</v>
+        <v>[CONFIG] COVAC - Discarded syringes with needle 1ml</v>
       </c>
       <c r="C100" s="4" t="str">
-        <v>Closing balance safety boxes</v>
+        <v>Discarded syringes with needle 1ml</v>
       </c>
       <c r="D100" s="4" t="str">
-        <v>CVX_CLOSING_BALANCE_SAFETY_BOXES</v>
+        <v>CVC_DISCARDED_SYRINGES_WITH_ NEEDLE_1ML</v>
       </c>
       <c r="E100" s="4" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F100" s="4" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Discarded syringes with needle 1ml</v>
       </c>
       <c r="G100" s="4" t="str">
         <v>1</v>
@@ -5378,7 +5719,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I100" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J100" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5386,22 +5727,22 @@
     </row>
     <row r="101">
       <c r="A101" s="5" t="str">
-        <v>ymno3YCIqbh</v>
+        <v>V8XFjC7JHtx</v>
       </c>
       <c r="B101" s="5" t="str">
-        <v>[CONFIG] COVAX - Redistributed vaccination cards</v>
+        <v>[CONFIG] COVAC - Distributed vaccination cards</v>
       </c>
       <c r="C101" s="5" t="str">
-        <v>Redistributed vaccination cards</v>
+        <v>Distributed vaccination cards</v>
       </c>
       <c r="D101" s="5" t="str">
-        <v>CVX_REDISTRIBUTED_CARDS</v>
+        <v>CVC_DISTRIBUTED_CARDS</v>
       </c>
       <c r="E101" s="5" t="str">
-        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
+        <v>Distributed to people receiving the items</v>
       </c>
       <c r="F101" s="5" t="str">
-        <v>Redistributed vaccination cards</v>
+        <v>Distributed vaccination cards</v>
       </c>
       <c r="G101" s="5" t="str">
         <v>1</v>
@@ -5410,7 +5751,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I101" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J101" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5418,16 +5759,16 @@
     </row>
     <row r="102">
       <c r="A102" s="4" t="str">
-        <v>yuEFomZq3Fh</v>
+        <v>vBBejr9Qm9y</v>
       </c>
       <c r="B102" s="4" t="str">
-        <v>[CONFIG] COVAX - Closing balance cold boxes</v>
+        <v>[CONFIG] COVAC - Closing balance - Vaccine 3 (vials)</v>
       </c>
       <c r="C102" s="4" t="str">
-        <v>Closing balance cold boxes</v>
+        <v>Closing balance - Vaccine 3 (vials)</v>
       </c>
       <c r="D102" s="4" t="str">
-        <v>CVX_CLOSING_BALANCE_COLD_BOXES</v>
+        <v>CVC_CLOSING_BALANCE_VACCINE3_VIALS</v>
       </c>
       <c r="E102" s="4" t="str">
         <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
@@ -5442,7 +5783,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I102" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J102" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5450,22 +5791,22 @@
     </row>
     <row r="103">
       <c r="A103" s="5" t="str">
-        <v>z0zjaGkserE</v>
+        <v>vBJQTfzca4x</v>
       </c>
       <c r="B103" s="5" t="str">
-        <v>[CONFIG] COVAX - Discarded safety box</v>
+        <v>[CONFIG] COVAC - Frontline healthcare workers given booster dose</v>
       </c>
       <c r="C103" s="5" t="str">
-        <v>Discarded safety box</v>
+        <v>Frontline healthcare workers given booster dose</v>
       </c>
       <c r="D103" s="5" t="str">
-        <v>CVX_DISCARDED_SAFETY_BOXES</v>
+        <v>CVC_FRONTLINE_HCW_BOOSTER_DOSE</v>
       </c>
       <c r="E103" s="5" t="str">
-        <v>Discarded due to expiry, damage, contamination and etc</v>
+        <v>Frontline healthcare workers given booster dose</v>
       </c>
       <c r="F103" s="5" t="str">
-        <v>Discarded safety boxes</v>
+        <v>Frontline healthcare workers given booster dose</v>
       </c>
       <c r="G103" s="5" t="str">
         <v>1</v>
@@ -5474,7 +5815,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I103" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J103" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5482,22 +5823,22 @@
     </row>
     <row r="104">
       <c r="A104" s="4" t="str">
-        <v>zcN15JQUWc7</v>
+        <v>VFdnTyYvS5c</v>
       </c>
       <c r="B104" s="4" t="str">
-        <v>[CONFIG] COVAX - Stock at hand - Vaccine 2 (doses)</v>
+        <v>[CONFIG] COVAC - Stock at hand vials</v>
       </c>
       <c r="C104" s="4" t="str">
-        <v>Stock at hand - Vaccine 2 (doses)</v>
+        <v>Stock at hand vials</v>
       </c>
       <c r="D104" s="4" t="str">
-        <v>CVX_STOCK_AT_HAND_VACCINE2_DOSES</v>
+        <v>CVC_STOCK_AT_HAND_VIALS</v>
       </c>
       <c r="E104" s="4" t="str">
         <v>Stock at hand at the center after a physical stock count</v>
       </c>
       <c r="F104" s="4" t="str">
-        <v>Stock at hand - Vaccine 2 doses</v>
+        <v>Stock at hand vials</v>
       </c>
       <c r="G104" s="4" t="str">
         <v>1</v>
@@ -5506,7 +5847,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I104" s="4" t="str">
-        <v>2021-02-02</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J104" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5514,22 +5855,22 @@
     </row>
     <row r="105">
       <c r="A105" s="5" t="str">
-        <v>zdTKcWr73Sk</v>
+        <v>vn6JSZdN0Gq</v>
       </c>
       <c r="B105" s="5" t="str">
-        <v>[CONFIG] COVAX - Stock at hand syringes with needle 1ml</v>
+        <v>[CONFIG] COVAC - Stockout days cold box</v>
       </c>
       <c r="C105" s="5" t="str">
-        <v>Stock at hand syringes with needle 1ml</v>
+        <v>Stockout days cold box</v>
       </c>
       <c r="D105" s="5" t="str">
-        <v>CVX_STOCK_AT_HAND_SYRINGES_WITH_ NEEDLE_1ML</v>
+        <v>CVC_STOCKOUT_DAYS_COLD_BOX</v>
       </c>
       <c r="E105" s="5" t="str">
-        <v>Stock at hand at the center after a physical stock count</v>
+        <v>Days the facility was stocked out of the item</v>
       </c>
       <c r="F105" s="5" t="str">
-        <v>Stock at hand syringes with needle 1ml</v>
+        <v>Stockout days cold boxes</v>
       </c>
       <c r="G105" s="5" t="str">
         <v>1</v>
@@ -5538,7 +5879,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I105" s="5" t="str">
-        <v>2021-02-02</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J105" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5546,22 +5887,22 @@
     </row>
     <row r="106">
       <c r="A106" s="4" t="str">
-        <v>ZEXvmTSnv8c</v>
+        <v>w42k9kZegoW</v>
       </c>
       <c r="B106" s="4" t="str">
-        <v>[CONFIG] COVAX - Closing balance - Vaccine 2 (doses)</v>
+        <v>[CONFIG] COVAC - Distributed safety box</v>
       </c>
       <c r="C106" s="4" t="str">
-        <v>Closing balance - Vaccine 2 (doses)</v>
+        <v>Distributed safety box</v>
       </c>
       <c r="D106" s="4" t="str">
-        <v>CVX_CLOSING_BALANCE_VACCINE2_DOSES</v>
+        <v>CVC_DISTRIBUTED_SAFETY_BOXES</v>
       </c>
       <c r="E106" s="4" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Distributed to people receiving the items</v>
       </c>
       <c r="F106" s="4" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Distributed safety boxes</v>
       </c>
       <c r="G106" s="4" t="str">
         <v>1</v>
@@ -5570,7 +5911,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I106" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J106" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5578,22 +5919,22 @@
     </row>
     <row r="107">
       <c r="A107" s="5" t="str">
-        <v>zqTS3RiSL3o</v>
+        <v>wassnxEhpwM</v>
       </c>
       <c r="B107" s="5" t="str">
-        <v>[CONFIG] COVAX - Doses per vial - Vaccine 1</v>
+        <v>[CONFIG] COVAC - Target essential workers</v>
       </c>
       <c r="C107" s="5" t="str">
-        <v>Doses per vial - Vaccine 1</v>
+        <v>Target essential workers</v>
       </c>
       <c r="D107" s="5" t="str">
-        <v>CVX_DOSES_IN_A_VIAL_VACCINE1</v>
+        <v>CVC_TARGET_ESSENTIAL_WORKERS</v>
       </c>
       <c r="E107" s="5" t="str">
-        <v>Number of doses in a vial - Vaccine1</v>
+        <v>Target essential workers</v>
       </c>
       <c r="F107" s="5" t="str">
-        <v>Doses in a vial - Vaccine1</v>
+        <v>Target essential workers</v>
       </c>
       <c r="G107" s="5" t="str">
         <v>1</v>
@@ -5602,7 +5943,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I107" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J107" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5610,33 +5951,705 @@
     </row>
     <row r="108">
       <c r="A108" s="4" t="str">
+        <v>wcMsZNh0GO0</v>
+      </c>
+      <c r="B108" s="4" t="str">
+        <v>[CONFIG] COVAC - Received safety box</v>
+      </c>
+      <c r="C108" s="4" t="str">
+        <v>Received safety box</v>
+      </c>
+      <c r="D108" s="4" t="str">
+        <v>CVC_RECEIVED_SAFETY_BOX</v>
+      </c>
+      <c r="E108" s="4" t="str">
+        <v>Received at the centre</v>
+      </c>
+      <c r="F108" s="4" t="str">
+        <v>Received safety boxes</v>
+      </c>
+      <c r="G108" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H108" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I108" s="4" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="J108" s="4" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="5" t="str">
+        <v>WMjFkieChKj</v>
+      </c>
+      <c r="B109" s="5" t="str">
+        <v>[CONFIG] COVAC - Stockout days - Vaccine 2 (vials)</v>
+      </c>
+      <c r="C109" s="5" t="str">
+        <v>Stockout days - Vaccine 2 (vials)</v>
+      </c>
+      <c r="D109" s="5" t="str">
+        <v>CVC_STOCKOUT_DAYS_VACCINE2_VIALS</v>
+      </c>
+      <c r="E109" s="5" t="str">
+        <v>Days the centre was stocked out of the item</v>
+      </c>
+      <c r="F109" s="5" t="str">
+        <v>Stockout days - Vaccine2</v>
+      </c>
+      <c r="G109" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H109" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I109" s="5" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="J109" s="5" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="4" t="str">
+        <v>wpfKN5vD3QG</v>
+      </c>
+      <c r="B110" s="4" t="str">
+        <v>[CONFIG] COVAC - Used vials</v>
+      </c>
+      <c r="C110" s="4" t="str">
+        <v>Used vials</v>
+      </c>
+      <c r="D110" s="4" t="str">
+        <v>CVC_USED_VIALS</v>
+      </c>
+      <c r="E110" s="4" t="str">
+        <v>(Opening balance+Received)-(Redistributed+Stock on hand)</v>
+      </c>
+      <c r="F110" s="4" t="str">
+        <v>(Opening balance+Received)-(Redistributed+Stock on hand)</v>
+      </c>
+      <c r="G110" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H110" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I110" s="4" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="J110" s="4" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="5" t="str">
+        <v>X2XYc8WNUY3</v>
+      </c>
+      <c r="B111" s="5" t="str">
+        <v>[CONFIG] COVAC - Distributed - Vaccine 1 (doses)</v>
+      </c>
+      <c r="C111" s="5" t="str">
+        <v>Distributed - Vaccine 1 (doses)</v>
+      </c>
+      <c r="D111" s="5" t="str">
+        <v>CVC_DISTRIBUTED_VACCINE1_DOSES</v>
+      </c>
+      <c r="E111" s="5" t="str">
+        <v>Distributed to people receiving the vaccines</v>
+      </c>
+      <c r="F111" s="5" t="str">
+        <v>Distributed - Vaccine1 doses</v>
+      </c>
+      <c r="G111" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H111" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I111" s="5" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="J111" s="5" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="4" t="str">
+        <v>x4tQ5wV60mg</v>
+      </c>
+      <c r="B112" s="4" t="str">
+        <v>[CONFIG] COVAC - Redistributed diluent</v>
+      </c>
+      <c r="C112" s="4" t="str">
+        <v>Redistributed diluent</v>
+      </c>
+      <c r="D112" s="4" t="str">
+        <v>CVC_REDISTRIBUTED_DILUENT</v>
+      </c>
+      <c r="E112" s="4" t="str">
+        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
+      </c>
+      <c r="F112" s="4" t="str">
+        <v>Redistributed diluent</v>
+      </c>
+      <c r="G112" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H112" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I112" s="4" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="J112" s="4" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="5" t="str">
+        <v>XAu9nDyYWiQ</v>
+      </c>
+      <c r="B113" s="5" t="str">
+        <v>[CONFIG] COVAC - Stock at hand diluent</v>
+      </c>
+      <c r="C113" s="5" t="str">
+        <v>Stock at hand diluent</v>
+      </c>
+      <c r="D113" s="5" t="str">
+        <v>CVC_STOCK_AT_HAND_DILUENT</v>
+      </c>
+      <c r="E113" s="5" t="str">
+        <v>Stock at hand at the center after a physical stock count</v>
+      </c>
+      <c r="F113" s="5" t="str">
+        <v>Stock at hand diluent</v>
+      </c>
+      <c r="G113" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H113" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I113" s="5" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="J113" s="5" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="4" t="str">
+        <v>XP9ag4eDNlu</v>
+      </c>
+      <c r="B114" s="4" t="str">
+        <v>[CONFIG] COVAC - Discarded closed vials - Vaccine 3</v>
+      </c>
+      <c r="C114" s="4" t="str">
+        <v>Discarded closed vials - Vaccine 3</v>
+      </c>
+      <c r="D114" s="4" t="str">
+        <v>CVC_DISCARDED__OPEN_VIALS_VACCINE3</v>
+      </c>
+      <c r="E114" s="4" t="str">
+        <v>Discarded due to expiry, damage, contamination and etc</v>
+      </c>
+      <c r="F114" s="4" t="str">
+        <v>Discarded closed vials - Vaccine 3</v>
+      </c>
+      <c r="G114" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H114" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I114" s="4" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="J114" s="4" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="5" t="str">
+        <v>XxmA3VOxZdM</v>
+      </c>
+      <c r="B115" s="5" t="str">
+        <v>[CONFIG] COVAC - Distributed - Vaccine 3 (doses)</v>
+      </c>
+      <c r="C115" s="5" t="str">
+        <v>Distributed - Vaccine 3 (doses)</v>
+      </c>
+      <c r="D115" s="5" t="str">
+        <v>CVC_DISTRIBUTED_VACCINE3_DOSES</v>
+      </c>
+      <c r="E115" s="5" t="str">
+        <v>Distributed to people receiving the vaccines</v>
+      </c>
+      <c r="F115" s="5" t="str">
+        <v>Distributed - Vaccine3 doses</v>
+      </c>
+      <c r="G115" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H115" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I115" s="5" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="J115" s="5" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="4" t="str">
+        <v>y7uIwU6x8VS</v>
+      </c>
+      <c r="B116" s="4" t="str">
+        <v>[CONFIG] COVAC - Vaccine 1 uptake (%)</v>
+      </c>
+      <c r="C116" s="4" t="str">
+        <v>Vaccine 1 uptake (%)</v>
+      </c>
+      <c r="D116" s="4" t="str">
+        <v>CVC_VACCINE1_UPTAKE_%</v>
+      </c>
+      <c r="E116" s="4" t="str">
+        <v>Proportion of people given doses of vaccine1</v>
+      </c>
+      <c r="F116" s="4" t="str">
+        <v>Vaccine1 doses given</v>
+      </c>
+      <c r="G116" s="4" t="str">
+        <v>Total doses of all vaccines given</v>
+      </c>
+      <c r="H116" s="4" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I116" s="4" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="J116" s="4" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="5" t="str">
+        <v>yB3Vf9Quskj</v>
+      </c>
+      <c r="B117" s="5" t="str">
+        <v>[CONFIG] COVAC - Discarded vaccination cards</v>
+      </c>
+      <c r="C117" s="5" t="str">
+        <v>Discarded vaccination cards</v>
+      </c>
+      <c r="D117" s="5" t="str">
+        <v>CVC_DISCARDED_CARDS</v>
+      </c>
+      <c r="E117" s="5" t="str">
+        <v>Discarded due to expiry, damage, contamination and etc</v>
+      </c>
+      <c r="F117" s="5" t="str">
+        <v>Discarded vaccination cards</v>
+      </c>
+      <c r="G117" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H117" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I117" s="5" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="J117" s="5" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="4" t="str">
+        <v>Yb759ffWrrD</v>
+      </c>
+      <c r="B118" s="4" t="str">
+        <v>[CONFIG] COVAC - Vaccine usage rate (%)</v>
+      </c>
+      <c r="C118" s="4" t="str">
+        <v>Vaccine usage rate (%)</v>
+      </c>
+      <c r="D118" s="4" t="str">
+        <v>CVC_ VACCINE_USAGE_RATE_%</v>
+      </c>
+      <c r="E118" s="4" t="str">
+        <v>(Distributed/Used)*100</v>
+      </c>
+      <c r="F118" s="4" t="str">
+        <v>Distributed vials</v>
+      </c>
+      <c r="G118" s="4" t="str">
+        <v>Used vials</v>
+      </c>
+      <c r="H118" s="4" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I118" s="4" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="J118" s="4" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="5" t="str">
+        <v>YBLUIQSCFPJ</v>
+      </c>
+      <c r="B119" s="5" t="str">
+        <v>[CONFIG] COVAC - Closing balance - Vaccine 3 (doses)</v>
+      </c>
+      <c r="C119" s="5" t="str">
+        <v>Closing balance - Vaccine 3 (doses)</v>
+      </c>
+      <c r="D119" s="5" t="str">
+        <v>CVC_CLOSING_BALANCE_VACCINE3_DOSES</v>
+      </c>
+      <c r="E119" s="5" t="str">
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+      </c>
+      <c r="F119" s="5" t="str">
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+      </c>
+      <c r="G119" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H119" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I119" s="5" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="J119" s="5" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="4" t="str">
+        <v>yJ9izFBk1bB</v>
+      </c>
+      <c r="B120" s="4" t="str">
+        <v>[CONFIG] COVAC - Closing balance safety boxes</v>
+      </c>
+      <c r="C120" s="4" t="str">
+        <v>Closing balance safety boxes</v>
+      </c>
+      <c r="D120" s="4" t="str">
+        <v>CVC_CLOSING_BALANCE_SAFETY_BOXES</v>
+      </c>
+      <c r="E120" s="4" t="str">
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+      </c>
+      <c r="F120" s="4" t="str">
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+      </c>
+      <c r="G120" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H120" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I120" s="4" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="J120" s="4" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="5" t="str">
+        <v>ymno3YCIqbh</v>
+      </c>
+      <c r="B121" s="5" t="str">
+        <v>[CONFIG] COVAC - Redistributed vaccination cards</v>
+      </c>
+      <c r="C121" s="5" t="str">
+        <v>Redistributed vaccination cards</v>
+      </c>
+      <c r="D121" s="5" t="str">
+        <v>CVC_REDISTRIBUTED_CARDS</v>
+      </c>
+      <c r="E121" s="5" t="str">
+        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
+      </c>
+      <c r="F121" s="5" t="str">
+        <v>Redistributed vaccination cards</v>
+      </c>
+      <c r="G121" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H121" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I121" s="5" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="J121" s="5" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="4" t="str">
+        <v>yuEFomZq3Fh</v>
+      </c>
+      <c r="B122" s="4" t="str">
+        <v>[CONFIG] COVAC - Closing balance cold boxes</v>
+      </c>
+      <c r="C122" s="4" t="str">
+        <v>Closing balance cold boxes</v>
+      </c>
+      <c r="D122" s="4" t="str">
+        <v>CVC_CLOSING_BALANCE_COLD_BOXES</v>
+      </c>
+      <c r="E122" s="4" t="str">
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+      </c>
+      <c r="F122" s="4" t="str">
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+      </c>
+      <c r="G122" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H122" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I122" s="4" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="J122" s="4" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="5" t="str">
+        <v>z0zjaGkserE</v>
+      </c>
+      <c r="B123" s="5" t="str">
+        <v>[CONFIG] COVAC - Discarded safety box</v>
+      </c>
+      <c r="C123" s="5" t="str">
+        <v>Discarded safety box</v>
+      </c>
+      <c r="D123" s="5" t="str">
+        <v>CVC_DISCARDED_SAFETY_BOXES</v>
+      </c>
+      <c r="E123" s="5" t="str">
+        <v>Discarded due to expiry, damage, contamination and etc</v>
+      </c>
+      <c r="F123" s="5" t="str">
+        <v>Discarded safety boxes</v>
+      </c>
+      <c r="G123" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H123" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I123" s="5" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="J123" s="5" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="4" t="str">
+        <v>z5Dp2kLtxAt</v>
+      </c>
+      <c r="B124" s="4" t="str">
+        <v>[CONFIG] COVAC - Distributed dilution syringes</v>
+      </c>
+      <c r="C124" s="4" t="str">
+        <v>Distributed dilution syringes</v>
+      </c>
+      <c r="D124" s="4" t="str">
+        <v>CVC_DISTRIBUTED_DILUTION_SYRINGES</v>
+      </c>
+      <c r="E124" s="4" t="str">
+        <v>Distributed to people receiving the items</v>
+      </c>
+      <c r="F124" s="4" t="str">
+        <v>Distributed dilution syringes</v>
+      </c>
+      <c r="G124" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H124" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I124" s="4" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="J124" s="4" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="5" t="str">
+        <v>zcN15JQUWc7</v>
+      </c>
+      <c r="B125" s="5" t="str">
+        <v>[CONFIG] COVAC - Stock at hand - Vaccine 2 (doses)</v>
+      </c>
+      <c r="C125" s="5" t="str">
+        <v>Stock at hand - Vaccine 2 (doses)</v>
+      </c>
+      <c r="D125" s="5" t="str">
+        <v>CVC_STOCK_AT_HAND_VACCINE2_DOSES</v>
+      </c>
+      <c r="E125" s="5" t="str">
+        <v>Stock at hand at the center after a physical stock count</v>
+      </c>
+      <c r="F125" s="5" t="str">
+        <v>Stock at hand - Vaccine 2 doses</v>
+      </c>
+      <c r="G125" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H125" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I125" s="5" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="J125" s="5" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="4" t="str">
+        <v>zdTKcWr73Sk</v>
+      </c>
+      <c r="B126" s="4" t="str">
+        <v>[CONFIG] COVAC - Stock at hand syringes with needle 1ml</v>
+      </c>
+      <c r="C126" s="4" t="str">
+        <v>Stock at hand syringes with needle 1ml</v>
+      </c>
+      <c r="D126" s="4" t="str">
+        <v>CVC_STOCK_AT_HAND_SYRINGES_WITH_ NEEDLE_1ML</v>
+      </c>
+      <c r="E126" s="4" t="str">
+        <v>Stock at hand at the center after a physical stock count</v>
+      </c>
+      <c r="F126" s="4" t="str">
+        <v>Stock at hand syringes with needle 1ml</v>
+      </c>
+      <c r="G126" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H126" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I126" s="4" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="J126" s="4" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="5" t="str">
+        <v>ZEXvmTSnv8c</v>
+      </c>
+      <c r="B127" s="5" t="str">
+        <v>[CONFIG] COVAC - Closing balance - Vaccine 2 (doses)</v>
+      </c>
+      <c r="C127" s="5" t="str">
+        <v>Closing balance - Vaccine 2 (doses)</v>
+      </c>
+      <c r="D127" s="5" t="str">
+        <v>CVC_CLOSING_BALANCE_VACCINE2_DOSES</v>
+      </c>
+      <c r="E127" s="5" t="str">
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+      </c>
+      <c r="F127" s="5" t="str">
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+      </c>
+      <c r="G127" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H127" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I127" s="5" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="J127" s="5" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="4" t="str">
+        <v>zqTS3RiSL3o</v>
+      </c>
+      <c r="B128" s="4" t="str">
+        <v>[CONFIG] COVAC - Doses per vial - Vaccine 1</v>
+      </c>
+      <c r="C128" s="4" t="str">
+        <v>Doses per vial - Vaccine 1</v>
+      </c>
+      <c r="D128" s="4" t="str">
+        <v>CVC_DOSES_IN_A_VIAL_VACCINE1</v>
+      </c>
+      <c r="E128" s="4" t="str">
+        <v>Number of doses in a vial - Vaccine1</v>
+      </c>
+      <c r="F128" s="4" t="str">
+        <v>Doses in a vial - Vaccine1</v>
+      </c>
+      <c r="G128" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H128" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I128" s="4" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="J128" s="4" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="5" t="str">
         <v>zTMJ8UYjlCU</v>
       </c>
-      <c r="B108" s="4" t="str">
-        <v>[CONFIG] COVAX - Opening balance vials</v>
-      </c>
-      <c r="C108" s="4" t="str">
+      <c r="B129" s="5" t="str">
+        <v>[CONFIG] COVAC - Opening balance vials</v>
+      </c>
+      <c r="C129" s="5" t="str">
         <v>Opening balance vials</v>
       </c>
-      <c r="D108" s="4" t="str">
-        <v>CVX_OPENING_BALANCE_VIALS</v>
-      </c>
-      <c r="E108" s="4" t="str">
+      <c r="D129" s="5" t="str">
+        <v>CVC_OPENING_BALANCE_VIALS</v>
+      </c>
+      <c r="E129" s="5" t="str">
         <v>Opening balance equals the physical 'stock at hand count' of the previous period</v>
       </c>
-      <c r="F108" s="4" t="str">
+      <c r="F129" s="5" t="str">
         <v>Opening balance vials</v>
       </c>
-      <c r="G108" s="4" t="str">
-        <v>1</v>
-      </c>
-      <c r="H108" s="4" t="str">
-        <v>Numerator only (number)</v>
-      </c>
-      <c r="I108" s="4" t="str">
-        <v>2021-02-01</v>
-      </c>
-      <c r="J108" s="4" t="str">
+      <c r="G129" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H129" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I129" s="5" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="J129" s="5" t="str">
         <v>SKgp2iI0dJp</v>
       </c>
     </row>
@@ -5679,7 +6692,7 @@
         <v>100</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>hmSnCXmLYwt</v>
@@ -5693,7 +6706,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D3" s="5" t="str">
         <v>kHy61PbChXr</v>
@@ -5710,7 +6723,7 @@
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
   </cols>
@@ -5728,10 +6741,10 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVAX - Vaccination</v>
+        <v>COVID-19 VACCINE DELIVERY (COVAC)</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>fya0FUpbxX9</v>

--- a/dashboard/reference.xlsx
+++ b/dashboard/reference.xlsx
@@ -490,7 +490,7 @@
         <v>Identifier</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>COVAX_AGG_DASHBOARD_V1.0_DHIS2.33_2021-02-04T13:59</v>
+        <v>COVAX_AGG_DASHBOARD_V1.0_DHIS2.33_2021-03-02T15:10</v>
       </c>
     </row>
   </sheetData>
@@ -499,14 +499,14 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="85.7109375" customWidth="1"/>
+    <col min="3" max="3" width="83.7109375" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" customWidth="1"/>
@@ -534,19 +534,19 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>T60YVx3ISwD</v>
+        <v>mJ7Zkgb6exz</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>Chart</v>
+        <v>Pivot table</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>COVAX - Dropout rates by priority groups, this and last 6 months</v>
+        <v>COVAC - Doses per vial</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>nqfpCrIpuhK</v>
+        <v>a18Xk13o2zR</v>
       </c>
       <c r="E2" s="4" t="str">
-        <v>2021-01-22</v>
+        <v>2021-02-23</v>
       </c>
       <c r="F2" s="4" t="str">
         <v>fya0FUpbxX9</v>
@@ -554,19 +554,19 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v/>
+        <v>yDlkIXZZpib</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>TEXT</v>
+        <v>Pivot table</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v/>
+        <v>COVAC - Vaccination cards stock overview</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>BnR8fMS7Pwd</v>
+        <v>QRNRqtz7zHP</v>
       </c>
       <c r="E3" s="5" t="str">
-        <v>2021-01-22</v>
+        <v>2021-02-23</v>
       </c>
       <c r="F3" s="5" t="str">
         <v>fya0FUpbxX9</v>
@@ -574,19 +574,19 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v/>
+        <v>adnV6bpKCh9</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>TEXT</v>
+        <v>Pivot table</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v/>
+        <v>COVAC - Safety box stock overview</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>NeWmvKGFpBe</v>
+        <v>Kxm3stHdcIM</v>
       </c>
       <c r="E4" s="4" t="str">
-        <v>2021-01-22</v>
+        <v>2021-02-23</v>
       </c>
       <c r="F4" s="4" t="str">
         <v>fya0FUpbxX9</v>
@@ -594,19 +594,19 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>L2geQCvt3m9</v>
+        <v>Wec4Dwwr1lt</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>Chart</v>
+        <v>Pivot table</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>COVAX - Vaccine stock reporting rates  - today and last 7 days</v>
+        <v>COVAC - Syringes stock overview</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>UBrW2xTHb6X</v>
+        <v>ISyRDpRmaSs</v>
       </c>
       <c r="E5" s="5" t="str">
-        <v>2021-01-22</v>
+        <v>2021-02-23</v>
       </c>
       <c r="F5" s="5" t="str">
         <v>fya0FUpbxX9</v>
@@ -614,19 +614,19 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>Sg5FrsMduxN</v>
+        <v>x7Vt3Xmo1kq</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>Map</v>
+        <v>Pivot table</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>COVAX - % of targeted people given 1st dose given by sub national level - this year</v>
+        <v>COVAC - Cold boxes stock overview</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>MpsVgklhque</v>
+        <v>EYUcCFqLpu6</v>
       </c>
       <c r="E6" s="4" t="str">
-        <v>2021-01-22</v>
+        <v>2021-02-23</v>
       </c>
       <c r="F6" s="4" t="str">
         <v>fya0FUpbxX9</v>
@@ -634,19 +634,19 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>IAmP71D6zQV</v>
+        <v>MD61sUlFB2b</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>Map</v>
+        <v>Chart</v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>COVAX - Dropout  rate at sub national level - this year</v>
+        <v>COVAC - Stock at hand of all items</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>UeONCNrMi6S</v>
+        <v>Xxta3hdZKUB</v>
       </c>
       <c r="E7" s="5" t="str">
-        <v>2021-01-22</v>
+        <v>2021-02-23</v>
       </c>
       <c r="F7" s="5" t="str">
         <v>fya0FUpbxX9</v>
@@ -654,19 +654,19 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>MeqsIPI7jsf</v>
+        <v>ri7d3UrtHDO</v>
       </c>
       <c r="B8" s="4" t="str">
         <v>Chart</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>COVAX - Vaccination reporting rates  - today and last 7 days</v>
+        <v>COVAC - Number of people receiving last dose - cumulative</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>QR67Y5lhCi5</v>
+        <v>GfnLPzjjWkk</v>
       </c>
       <c r="E8" s="4" t="str">
-        <v>2021-01-22</v>
+        <v>2021-02-23</v>
       </c>
       <c r="F8" s="4" t="str">
         <v>fya0FUpbxX9</v>
@@ -674,19 +674,19 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>iBwXpDzZJ4M</v>
+        <v>oLuNlwZC7fq</v>
       </c>
       <c r="B9" s="5" t="str">
         <v>Chart</v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>COVAX - Staff available - today and last 7 days</v>
+        <v>COVAC - Number of people given 1st dose by sex - this year</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>bAneSZhNJ2T</v>
+        <v>eciGLyUWuif</v>
       </c>
       <c r="E9" s="5" t="str">
-        <v>2021-01-22</v>
+        <v>2021-02-23</v>
       </c>
       <c r="F9" s="5" t="str">
         <v>fya0FUpbxX9</v>
@@ -694,19 +694,19 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>IC3e1YTilA3</v>
+        <v>Ci8llLIB9W3</v>
       </c>
       <c r="B10" s="4" t="str">
         <v>Chart</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>COVAX - AEFIs by vaccine and severity - this month</v>
+        <v>COVAC - Priority target groups having received last dose</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>vRdhMliOg1A</v>
+        <v>hUNOot4EkW6</v>
       </c>
       <c r="E10" s="4" t="str">
-        <v>2021-01-22</v>
+        <v>2021-02-23</v>
       </c>
       <c r="F10" s="4" t="str">
         <v>fya0FUpbxX9</v>
@@ -714,19 +714,19 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>UEnas3PpETN</v>
+        <v>JxKIz5qRtO5</v>
       </c>
       <c r="B11" s="5" t="str">
         <v>Chart</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>COVAX - Uptake (%) by vaccine given -  this year</v>
+        <v>COVAC - Priority target groups having received at least the 1st dose - cumulative</v>
       </c>
       <c r="D11" s="5" t="str">
-        <v>BIPbWkEv9bX</v>
+        <v>W2xK33tdCDt</v>
       </c>
       <c r="E11" s="5" t="str">
-        <v>2021-01-22</v>
+        <v>2021-02-23</v>
       </c>
       <c r="F11" s="5" t="str">
         <v>fya0FUpbxX9</v>
@@ -734,19 +734,19 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>q24wzRQtygl</v>
+        <v>b2p5J4aSlwX</v>
       </c>
       <c r="B12" s="4" t="str">
         <v>Pivot table</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v>COVAX - Vials received, administered, redistributed and discarded - this year</v>
+        <v>COVAC - Priority target groups</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v>guv8YUGtNHZ</v>
+        <v>QskadxgOx3K</v>
       </c>
       <c r="E12" s="4" t="str">
-        <v>2021-01-22</v>
+        <v>2021-02-23</v>
       </c>
       <c r="F12" s="4" t="str">
         <v>fya0FUpbxX9</v>
@@ -754,19 +754,19 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>UAxSsG1vtda</v>
+        <v>FU1vzJKkUwE</v>
       </c>
       <c r="B13" s="5" t="str">
         <v>Pivot table</v>
       </c>
       <c r="C13" s="5" t="str">
-        <v>COVAX - Items required/available - today and last 3 days</v>
+        <v>COVAC - Target general population</v>
       </c>
       <c r="D13" s="5" t="str">
-        <v>myxdX6NYgnL</v>
+        <v>yU9JhMbNKNC</v>
       </c>
       <c r="E13" s="5" t="str">
-        <v>2021-01-22</v>
+        <v>2021-02-23</v>
       </c>
       <c r="F13" s="5" t="str">
         <v>fya0FUpbxX9</v>
@@ -774,19 +774,19 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>vKavKhPWSRc</v>
+        <v>T60YVx3ISwD</v>
       </c>
       <c r="B14" s="4" t="str">
         <v>Chart</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v>COVAX - Wastage by reasons and condition of the vials - this month</v>
+        <v>COVAC - Dropout rates by priority groups, this and last 6 months</v>
       </c>
       <c r="D14" s="4" t="str">
-        <v>HXWEPi6u4f0</v>
+        <v>nqfpCrIpuhK</v>
       </c>
       <c r="E14" s="4" t="str">
-        <v>2021-01-22</v>
+        <v>2021-02-23</v>
       </c>
       <c r="F14" s="4" t="str">
         <v>fya0FUpbxX9</v>
@@ -794,19 +794,19 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>laDW4fMp78v</v>
+        <v/>
       </c>
       <c r="B15" s="5" t="str">
-        <v>Chart</v>
+        <v>TEXT</v>
       </c>
       <c r="C15" s="5" t="str">
-        <v>COVAX - Vaccine wastage and discrepancy rates - today and last 7 days</v>
+        <v/>
       </c>
       <c r="D15" s="5" t="str">
-        <v>nEHXv4H289u</v>
+        <v>BnR8fMS7Pwd</v>
       </c>
       <c r="E15" s="5" t="str">
-        <v>2021-01-22</v>
+        <v>2021-02-23</v>
       </c>
       <c r="F15" s="5" t="str">
         <v>fya0FUpbxX9</v>
@@ -814,19 +814,19 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>sGJvgqCpGHn</v>
+        <v>L2geQCvt3m9</v>
       </c>
       <c r="B16" s="4" t="str">
         <v>Chart</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v>COVAX - Stock at hand - vials by vaccine - today and last 7 days</v>
+        <v>COVAC - Vaccine stock reporting rates  - today and last 7 days</v>
       </c>
       <c r="D16" s="4" t="str">
-        <v>UurU6yrcbP0</v>
+        <v>UBrW2xTHb6X</v>
       </c>
       <c r="E16" s="4" t="str">
-        <v>2021-01-22</v>
+        <v>2021-02-23</v>
       </c>
       <c r="F16" s="4" t="str">
         <v>fya0FUpbxX9</v>
@@ -834,19 +834,19 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v>CwgW21jWHz1</v>
+        <v>Sg5FrsMduxN</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>Chart</v>
+        <v>Map</v>
       </c>
       <c r="C17" s="5" t="str">
-        <v>COVAX - Number of people given 1st dose by age - this year</v>
+        <v>COVAC - % of targeted people given 1st dose given by sub national level - this year</v>
       </c>
       <c r="D17" s="5" t="str">
-        <v>URQnBENIj7M</v>
+        <v>MpsVgklhque</v>
       </c>
       <c r="E17" s="5" t="str">
-        <v>2021-01-22</v>
+        <v>2021-02-23</v>
       </c>
       <c r="F17" s="5" t="str">
         <v>fya0FUpbxX9</v>
@@ -854,19 +854,19 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>NBIo8UnkJsU</v>
+        <v>IAmP71D6zQV</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>Chart</v>
+        <v>Map</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>COVAX - Number of people given 1st - this and last 6 months</v>
+        <v>COVAC - Dropout  rate at sub national level - this year</v>
       </c>
       <c r="D18" s="4" t="str">
-        <v>eLK1hVjcRMJ</v>
+        <v>UeONCNrMi6S</v>
       </c>
       <c r="E18" s="4" t="str">
-        <v>2021-01-22</v>
+        <v>2021-02-23</v>
       </c>
       <c r="F18" s="4" t="str">
         <v>fya0FUpbxX9</v>
@@ -874,21 +874,181 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v>oP1h3CJEzP2</v>
+        <v>MeqsIPI7jsf</v>
       </c>
       <c r="B19" s="5" t="str">
         <v>Chart</v>
       </c>
       <c r="C19" s="5" t="str">
-        <v>COVAX - People given 1st dose by vaccine - this  and last month</v>
+        <v>COVAC - Vaccination reporting rates  - today and last 7 days</v>
       </c>
       <c r="D19" s="5" t="str">
+        <v>QR67Y5lhCi5</v>
+      </c>
+      <c r="E19" s="5" t="str">
+        <v>2021-02-23</v>
+      </c>
+      <c r="F19" s="5" t="str">
+        <v>fya0FUpbxX9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="str">
+        <v>iBwXpDzZJ4M</v>
+      </c>
+      <c r="B20" s="4" t="str">
+        <v>Chart</v>
+      </c>
+      <c r="C20" s="4" t="str">
+        <v>COVAC - Staff available - today and last 7 days</v>
+      </c>
+      <c r="D20" s="4" t="str">
+        <v>bAneSZhNJ2T</v>
+      </c>
+      <c r="E20" s="4" t="str">
+        <v>2021-02-23</v>
+      </c>
+      <c r="F20" s="4" t="str">
+        <v>fya0FUpbxX9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="str">
+        <v>IC3e1YTilA3</v>
+      </c>
+      <c r="B21" s="5" t="str">
+        <v>Chart</v>
+      </c>
+      <c r="C21" s="5" t="str">
+        <v>COVAC - AEFIs by vaccine and severity - this month</v>
+      </c>
+      <c r="D21" s="5" t="str">
+        <v>vRdhMliOg1A</v>
+      </c>
+      <c r="E21" s="5" t="str">
+        <v>2021-02-23</v>
+      </c>
+      <c r="F21" s="5" t="str">
+        <v>fya0FUpbxX9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="str">
+        <v>q24wzRQtygl</v>
+      </c>
+      <c r="B22" s="4" t="str">
+        <v>Pivot table</v>
+      </c>
+      <c r="C22" s="4" t="str">
+        <v>COVAC - Vials received, administered, redistributed and discarded - this year</v>
+      </c>
+      <c r="D22" s="4" t="str">
+        <v>guv8YUGtNHZ</v>
+      </c>
+      <c r="E22" s="4" t="str">
+        <v>2021-02-23</v>
+      </c>
+      <c r="F22" s="4" t="str">
+        <v>fya0FUpbxX9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="str">
+        <v>vKavKhPWSRc</v>
+      </c>
+      <c r="B23" s="5" t="str">
+        <v>Chart</v>
+      </c>
+      <c r="C23" s="5" t="str">
+        <v>COVAC - Wastage by reasons and condition of the vials - this month</v>
+      </c>
+      <c r="D23" s="5" t="str">
+        <v>HXWEPi6u4f0</v>
+      </c>
+      <c r="E23" s="5" t="str">
+        <v>2021-02-23</v>
+      </c>
+      <c r="F23" s="5" t="str">
+        <v>fya0FUpbxX9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="str">
+        <v>laDW4fMp78v</v>
+      </c>
+      <c r="B24" s="4" t="str">
+        <v>Chart</v>
+      </c>
+      <c r="C24" s="4" t="str">
+        <v>COVAC - Vaccine wastage and discrepancy rates - today and last 7 days</v>
+      </c>
+      <c r="D24" s="4" t="str">
+        <v>nEHXv4H289u</v>
+      </c>
+      <c r="E24" s="4" t="str">
+        <v>2021-02-23</v>
+      </c>
+      <c r="F24" s="4" t="str">
+        <v>fya0FUpbxX9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="str">
+        <v>CwgW21jWHz1</v>
+      </c>
+      <c r="B25" s="5" t="str">
+        <v>Chart</v>
+      </c>
+      <c r="C25" s="5" t="str">
+        <v>COVAC - Number of people given 1st dose by age - this year</v>
+      </c>
+      <c r="D25" s="5" t="str">
+        <v>URQnBENIj7M</v>
+      </c>
+      <c r="E25" s="5" t="str">
+        <v>2021-02-23</v>
+      </c>
+      <c r="F25" s="5" t="str">
+        <v>fya0FUpbxX9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="str">
+        <v>NBIo8UnkJsU</v>
+      </c>
+      <c r="B26" s="4" t="str">
+        <v>Chart</v>
+      </c>
+      <c r="C26" s="4" t="str">
+        <v>COVAC - Number of people given 1st dose - cumulative</v>
+      </c>
+      <c r="D26" s="4" t="str">
+        <v>eLK1hVjcRMJ</v>
+      </c>
+      <c r="E26" s="4" t="str">
+        <v>2021-02-23</v>
+      </c>
+      <c r="F26" s="4" t="str">
+        <v>fya0FUpbxX9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="str">
+        <v>oP1h3CJEzP2</v>
+      </c>
+      <c r="B27" s="5" t="str">
+        <v>Chart</v>
+      </c>
+      <c r="C27" s="5" t="str">
+        <v xml:space="preserve">COVAC - People given 1st dose by vaccine </v>
+      </c>
+      <c r="D27" s="5" t="str">
         <v>q56CP222ae8</v>
       </c>
-      <c r="E19" s="5" t="str">
-        <v>2021-01-22</v>
-      </c>
-      <c r="F19" s="5" t="str">
+      <c r="E27" s="5" t="str">
+        <v>2021-02-23</v>
+      </c>
+      <c r="F27" s="5" t="str">
         <v>fya0FUpbxX9</v>
       </c>
     </row>
@@ -898,12 +1058,12 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="71.7109375" customWidth="1"/>
+    <col min="1" max="1" width="83.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
@@ -925,169 +1085,211 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVAX - Number of people given 1st dose by age - this year</v>
+        <v>COVAC - Priority target groups having received last dose</v>
       </c>
       <c r="B2" s="4" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>CwgW21jWHz1</v>
+        <v>Ci8llLIB9W3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>COVAX - Staff available - today and last 7 days</v>
+        <v>COVAC - Number of people given 1st dose by age - this year</v>
       </c>
       <c r="B3" s="5" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>iBwXpDzZJ4M</v>
+        <v>CwgW21jWHz1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>COVAX - AEFIs by vaccine and severity - this month</v>
+        <v>COVAC - Staff available - today and last 7 days</v>
       </c>
       <c r="B4" s="4" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>IC3e1YTilA3</v>
+        <v>iBwXpDzZJ4M</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>COVAX - Vaccine stock reporting rates  - today and last 7 days</v>
+        <v>COVAC - AEFIs by vaccine and severity - this month</v>
       </c>
       <c r="B5" s="5" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>L2geQCvt3m9</v>
+        <v>IC3e1YTilA3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>COVAX - Vaccine wastage and discrepancy rates - today and last 7 days</v>
+        <v>COVAC - Priority target groups having received at least the 1st dose - cumulative</v>
       </c>
       <c r="B6" s="4" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>laDW4fMp78v</v>
+        <v>JxKIz5qRtO5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>COVAX - Vaccination reporting rates  - today and last 7 days</v>
+        <v>COVAC - Vaccine stock reporting rates  - today and last 7 days</v>
       </c>
       <c r="B7" s="5" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>MeqsIPI7jsf</v>
+        <v>L2geQCvt3m9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>COVAX - Number of people given 1st - this and last 6 months</v>
+        <v>COVAC - Vaccine wastage and discrepancy rates - today and last 7 days</v>
       </c>
       <c r="B8" s="4" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>NBIo8UnkJsU</v>
+        <v>laDW4fMp78v</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>COVAX - People given 1st dose by vaccine - this  and last month</v>
+        <v>COVAC - Stock at hand of all items</v>
       </c>
       <c r="B9" s="5" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-23</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>oP1h3CJEzP2</v>
+        <v>MD61sUlFB2b</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>COVAX - Stock at hand - vials by vaccine - today and last 7 days</v>
+        <v>COVAC - Vaccination reporting rates  - today and last 7 days</v>
       </c>
       <c r="B10" s="4" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>sGJvgqCpGHn</v>
+        <v>MeqsIPI7jsf</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>COVAX - Dropout rates by priority groups, this and last 6 months</v>
+        <v>COVAC - Number of people given 1st dose - cumulative</v>
       </c>
       <c r="B11" s="5" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D11" s="5" t="str">
-        <v>T60YVx3ISwD</v>
+        <v>NBIo8UnkJsU</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>COVAX - Uptake (%) by vaccine given -  this year</v>
+        <v>COVAC - Number of people given 1st dose by sex - this year</v>
       </c>
       <c r="B12" s="4" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C12" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-23</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v>UEnas3PpETN</v>
+        <v>oLuNlwZC7fq</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>COVAX - Wastage by reasons and condition of the vials - this month</v>
+        <v xml:space="preserve">COVAC - People given 1st dose by vaccine </v>
       </c>
       <c r="B13" s="5" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C13" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D13" s="5" t="str">
+        <v>oP1h3CJEzP2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="str">
+        <v>COVAC - Number of people receiving last dose - cumulative</v>
+      </c>
+      <c r="B14" s="4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C14" s="4" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="D14" s="4" t="str">
+        <v>ri7d3UrtHDO</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="str">
+        <v>COVAC - Dropout rates by priority groups, this and last 6 months</v>
+      </c>
+      <c r="B15" s="5" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C15" s="5" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="D15" s="5" t="str">
+        <v>T60YVx3ISwD</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="str">
+        <v>COVAC - Wastage by reasons and condition of the vials - this month</v>
+      </c>
+      <c r="B16" s="4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C16" s="4" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="D16" s="4" t="str">
         <v>vKavKhPWSRc</v>
       </c>
     </row>
@@ -1097,7 +1299,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -1124,30 +1326,114 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVAX - Vials received, administered, redistributed and discarded - this year</v>
+        <v>COVAC - Safety box stock overview</v>
       </c>
       <c r="B2" s="4" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-23</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>q24wzRQtygl</v>
+        <v>adnV6bpKCh9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>COVAX - Items required/available - today and last 3 days</v>
+        <v>COVAC - Priority target groups</v>
       </c>
       <c r="B3" s="5" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>UAxSsG1vtda</v>
+        <v>b2p5J4aSlwX</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="str">
+        <v>COVAC - Target general population</v>
+      </c>
+      <c r="B4" s="4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C4" s="4" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="D4" s="4" t="str">
+        <v>FU1vzJKkUwE</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="str">
+        <v>COVAC - Doses per vial</v>
+      </c>
+      <c r="B5" s="5" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C5" s="5" t="str">
+        <v>2021-02-23</v>
+      </c>
+      <c r="D5" s="5" t="str">
+        <v>mJ7Zkgb6exz</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="str">
+        <v>COVAC - Vials received, administered, redistributed and discarded - this year</v>
+      </c>
+      <c r="B6" s="4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C6" s="4" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="D6" s="4" t="str">
+        <v>q24wzRQtygl</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="str">
+        <v>COVAC - Syringes stock overview</v>
+      </c>
+      <c r="B7" s="5" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C7" s="5" t="str">
+        <v>2021-02-23</v>
+      </c>
+      <c r="D7" s="5" t="str">
+        <v>Wec4Dwwr1lt</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="str">
+        <v>COVAC - Cold boxes stock overview</v>
+      </c>
+      <c r="B8" s="4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C8" s="4" t="str">
+        <v>2021-02-23</v>
+      </c>
+      <c r="D8" s="4" t="str">
+        <v>x7Vt3Xmo1kq</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="str">
+        <v>COVAC - Vaccination cards stock overview</v>
+      </c>
+      <c r="B9" s="5" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C9" s="5" t="str">
+        <v>2021-02-23</v>
+      </c>
+      <c r="D9" s="5" t="str">
+        <v>yDlkIXZZpib</v>
       </c>
     </row>
   </sheetData>
@@ -1183,13 +1469,13 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVAX - Dropout  rate at sub national level - this year</v>
+        <v>COVAC - Dropout  rate at sub national level - this year</v>
       </c>
       <c r="B2" s="4" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>IAmP71D6zQV</v>
@@ -1197,13 +1483,13 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>COVAX - % of targeted people given 1st dose given by sub national level - this year</v>
+        <v>COVAC - % of targeted people given 1st dose given by sub national level - this year</v>
       </c>
       <c r="B3" s="5" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D3" s="5" t="str">
         <v>Sg5FrsMduxN</v>
@@ -1254,7 +1540,7 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVAX coverage</v>
+        <v>COVAC coverage</v>
       </c>
       <c r="B2" s="4" t="str">
         <v>E23Wd32t961</v>
@@ -1269,7 +1555,7 @@
         <v>1000</v>
       </c>
       <c r="F2" s="4" t="str">
-        <v>2021-01-21T06:52:23.721</v>
+        <v>2021-02-23T16:30:28.108</v>
       </c>
       <c r="G2" s="4" t="str">
         <v>gM8T6aRQWBC</v>
@@ -1277,7 +1563,7 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>COVAX coverage</v>
+        <v>COVAC coverage</v>
       </c>
       <c r="B3" s="5" t="str">
         <v>E23Wd32t961</v>
@@ -1292,7 +1578,7 @@
         <v>100</v>
       </c>
       <c r="F3" s="5" t="str">
-        <v>2021-01-21T06:52:23.722</v>
+        <v>2021-02-23T16:30:28.109</v>
       </c>
       <c r="G3" s="5" t="str">
         <v>HVggqjJNI5N</v>
@@ -1300,7 +1586,7 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>COVAX coverage</v>
+        <v>COVAC coverage</v>
       </c>
       <c r="B4" s="4" t="str">
         <v>E23Wd32t961</v>
@@ -1315,7 +1601,7 @@
         <v>80</v>
       </c>
       <c r="F4" s="4" t="str">
-        <v>2021-01-21T06:52:23.721</v>
+        <v>2021-02-23T16:30:28.109</v>
       </c>
       <c r="G4" s="4" t="str">
         <v>VSd3FlTAHqH</v>
@@ -1323,7 +1609,7 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>COVAX coverage</v>
+        <v>COVAC coverage</v>
       </c>
       <c r="B5" s="5" t="str">
         <v>E23Wd32t961</v>
@@ -1338,7 +1624,7 @@
         <v>60</v>
       </c>
       <c r="F5" s="5" t="str">
-        <v>2021-01-21T06:52:23.722</v>
+        <v>2021-02-23T16:30:28.109</v>
       </c>
       <c r="G5" s="5" t="str">
         <v>qHoMkruC0sY</v>
@@ -1346,7 +1632,7 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>COVAX dropout rates</v>
+        <v>COVAC dropout rates</v>
       </c>
       <c r="B6" s="4" t="str">
         <v>sgVvVgTmcaF</v>
@@ -1361,7 +1647,7 @@
         <v>100</v>
       </c>
       <c r="F6" s="4" t="str">
-        <v>2021-01-21T06:37:19.543</v>
+        <v>2021-02-23T16:30:28.109</v>
       </c>
       <c r="G6" s="4" t="str">
         <v>us4m7jpnrJB</v>
@@ -1369,7 +1655,7 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>COVAX dropout rates</v>
+        <v>COVAC dropout rates</v>
       </c>
       <c r="B7" s="5" t="str">
         <v>sgVvVgTmcaF</v>
@@ -1384,7 +1670,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="5" t="str">
-        <v>2021-01-21T06:37:19.542</v>
+        <v>2021-02-23T16:30:28.109</v>
       </c>
       <c r="G7" s="5" t="str">
         <v>Q6zORok9vCe</v>
@@ -1392,7 +1678,7 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>COVAX dropout rates</v>
+        <v>COVAC dropout rates</v>
       </c>
       <c r="B8" s="4" t="str">
         <v>sgVvVgTmcaF</v>
@@ -1407,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="4" t="str">
-        <v>2021-01-21T06:37:19.543</v>
+        <v>2021-02-23T16:30:28.110</v>
       </c>
       <c r="G8" s="4" t="str">
         <v>oVUf6M8uezI</v>
@@ -1442,10 +1728,10 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVAX admin</v>
+        <v>COVAC admin</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-24</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>e2QMDWpq88P</v>
@@ -1456,7 +1742,7 @@
         <v>COVAX capture</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-26</v>
       </c>
       <c r="C3" s="5" t="str">
         <v>I9x6Bd4MwXc</v>
@@ -1464,10 +1750,10 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>COVAX access</v>
+        <v>COVAC access</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>2021-01-31</v>
+        <v>2021-02-26</v>
       </c>
       <c r="C4" s="4" t="str">
         <v>OeiDCnG3Pv2</v>
@@ -1505,7 +1791,7 @@
         <v>covax</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-01-20</v>
+        <v>2021-02-23</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>KB1ivLZXMv8</v>
@@ -1544,13 +1830,13 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVAX - Doses in a vial - Vaccine1</v>
+        <v>COVAC - Doses in a vial - Vaccine1</v>
       </c>
       <c r="B2" s="4" t="str">
         <v>Doses in a vial - Vaccine1</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>fyC1NhjpBH5</v>
@@ -1558,13 +1844,13 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>COVAX - Doses in a vial - Vaccine2</v>
+        <v>COVAC - Doses in a vial - Vaccine2</v>
       </c>
       <c r="B3" s="5" t="str">
         <v>Doses in a vial - Vaccine2</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D3" s="5" t="str">
         <v>GhXdnHkmph9</v>
@@ -1572,13 +1858,13 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>COVAX - Doses in a vial - Vaccine3</v>
+        <v>COVAC - Doses in a vial - Vaccine3</v>
       </c>
       <c r="B4" s="4" t="str">
         <v>Doses in a vial - Vaccine3</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D4" s="4" t="str">
         <v>zp3l4iQWPLh</v>
@@ -1590,12 +1876,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
   </cols>
@@ -1613,56 +1899,67 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVID19 Vaccines</v>
+        <v>Sex (Male/Female)</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>dX05HKf9jgk</v>
+        <v>CMrvZp5rmoC</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>Vial condition</v>
+        <v>COVID19 Vaccines</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>flirf9mAeha</v>
+        <v>dX05HKf9jgk</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>Age(&lt;60-60+years)</v>
+        <v>Vial condition</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>hEcLht1oMFl</v>
+        <v>flirf9mAeha</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>AEFI Severity</v>
+        <v>Age(&lt;60-60+years)</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>lKWQD9CDlOA</v>
+        <v>hEcLht1oMFl</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
+        <v>AEFI Severity</v>
+      </c>
+      <c r="B6" s="4" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="C6" s="4" t="str">
+        <v>lKWQD9CDlOA</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="str">
         <v>Wastage reasons</v>
       </c>
-      <c r="B6" s="4" t="str">
-        <v>2021-01-29</v>
-      </c>
-      <c r="C6" s="4" t="str">
+      <c r="B7" s="5" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="C7" s="5" t="str">
         <v>mytJKrvlNuF</v>
       </c>
     </row>
@@ -1672,7 +1969,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -1705,7 +2002,7 @@
         <v>Partial use</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>A3jbi9q2pvX</v>
@@ -1719,7 +2016,7 @@
         <v>Serious AEFI</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D3" s="5" t="str">
         <v>aHtHUdheUX7</v>
@@ -1733,7 +2030,7 @@
         <v>Open vial</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D4" s="4" t="str">
         <v>B1GRrudW4kx</v>
@@ -1741,155 +2038,183 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>[CONFIG] Other reason</v>
+        <v>[CONFIG] Female</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>Other reason</v>
+        <v>Female</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>CcM1wEkrHwA</v>
+        <v>bqoVhX2RfG4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>[CONFIG] Color change (VVM)</v>
+        <v>[CONFIG] Other reason</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>Color change (VVM)</v>
+        <v>Other reason</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>diTeRoy0yzo</v>
+        <v>CcM1wEkrHwA</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>[CONFIG] Vaccine2</v>
+        <v>[CONFIG] Color change (VVM)</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>Vaccine2</v>
+        <v>Color change (VVM)</v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>FNFBfAafW1b</v>
+        <v>diTeRoy0yzo</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>[CONFIG] 0-59 years</v>
+        <v>[CONFIG] Male</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>0-59 y</v>
+        <v>Male</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>fqborXHhXZG</v>
+        <v>EVYKU2fIc6G</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>[CONFIG] 60+ years</v>
+        <v>[CONFIG] Vaccine2</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>60+ y</v>
+        <v>Vaccine2</v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>hEct0AAbPAw</v>
+        <v>FNFBfAafW1b</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>[CONFIG] Vaccine3</v>
+        <v>[CONFIG] 0-59 years</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>Vaccine3</v>
+        <v>0-59 y</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>IIUfyc2Pe6x</v>
+        <v>fqborXHhXZG</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>[CONFIG] Contamination</v>
+        <v>[CONFIG] 60+ years</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>Contamination</v>
+        <v>60+ y</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D11" s="5" t="str">
-        <v>KS058ZLL570</v>
+        <v>hEct0AAbPAw</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>[CONFIG] Vaccine1</v>
+        <v>[CONFIG] Vaccine3</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>Vaccine1</v>
+        <v>Vaccine3</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v>TJHsOAXOi3f</v>
+        <v>IIUfyc2Pe6x</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>[CONFIG] Non-Serious AEFI</v>
+        <v>[CONFIG] Contamination</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>Non-Serious AEFI</v>
+        <v>Contamination</v>
       </c>
       <c r="C13" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D13" s="5" t="str">
-        <v>uOiOUtqUZdY</v>
+        <v>KS058ZLL570</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>[CONFIG] Closed vial</v>
+        <v>[CONFIG] Vaccine1</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>Closed vial</v>
+        <v>Vaccine1</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D14" s="4" t="str">
-        <v>uWJm7E7Jtgk</v>
+        <v>TJHsOAXOi3f</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
+        <v>[CONFIG] Non-Serious AEFI</v>
+      </c>
+      <c r="B15" s="5" t="str">
+        <v>Non-Serious AEFI</v>
+      </c>
+      <c r="C15" s="5" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="D15" s="5" t="str">
+        <v>uOiOUtqUZdY</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="str">
+        <v>[CONFIG] Closed vial</v>
+      </c>
+      <c r="B16" s="4" t="str">
+        <v>Closed vial</v>
+      </c>
+      <c r="C16" s="4" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="D16" s="4" t="str">
+        <v>uWJm7E7Jtgk</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="str">
         <v>[CONFIG] Expiry</v>
       </c>
-      <c r="B15" s="5" t="str">
+      <c r="B17" s="5" t="str">
         <v>Expiry</v>
       </c>
-      <c r="C15" s="5" t="str">
-        <v>2021-01-29</v>
-      </c>
-      <c r="D15" s="5" t="str">
+      <c r="C17" s="5" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="D17" s="5" t="str">
         <v>ZyZJL43yTIM</v>
       </c>
     </row>
@@ -1899,7 +2224,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -1918,18 +2243,18 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVID19 Vaccines</v>
+        <v>Sex (Male/Female)</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>[CONFIG] Vaccine1</v>
+        <v>[CONFIG] Female</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>COVID19 Vaccines</v>
+        <v>Sex (Male/Female)</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>[CONFIG] Vaccine2</v>
+        <v>[CONFIG] Male</v>
       </c>
     </row>
     <row r="4">
@@ -1937,71 +2262,71 @@
         <v>COVID19 Vaccines</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>[CONFIG] Vaccine3</v>
+        <v>[CONFIG] Vaccine1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>Vial condition</v>
+        <v>COVID19 Vaccines</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>[CONFIG] Closed vial</v>
+        <v>[CONFIG] Vaccine2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>Vial condition</v>
+        <v>COVID19 Vaccines</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>[CONFIG] Open vial</v>
+        <v>[CONFIG] Vaccine3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>Age(&lt;60-60+years)</v>
+        <v>Vial condition</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>[CONFIG] 0-59 years</v>
+        <v>[CONFIG] Closed vial</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>Age(&lt;60-60+years)</v>
+        <v>Vial condition</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>[CONFIG] 60+ years</v>
+        <v>[CONFIG] Open vial</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>AEFI Severity</v>
+        <v>Age(&lt;60-60+years)</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>[CONFIG] Non-Serious AEFI</v>
+        <v>[CONFIG] 0-59 years</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>AEFI Severity</v>
+        <v>Age(&lt;60-60+years)</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>[CONFIG] Serious AEFI</v>
+        <v>[CONFIG] 60+ years</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>Wastage reasons</v>
+        <v>AEFI Severity</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>[CONFIG] Contamination</v>
+        <v>[CONFIG] Non-Serious AEFI</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>Wastage reasons</v>
+        <v>AEFI Severity</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>[CONFIG] Expiry</v>
+        <v>[CONFIG] Serious AEFI</v>
       </c>
     </row>
     <row r="13">
@@ -2009,7 +2334,7 @@
         <v>Wastage reasons</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>[CONFIG] Color change (VVM)</v>
+        <v>[CONFIG] Contamination</v>
       </c>
     </row>
     <row r="14">
@@ -2017,7 +2342,7 @@
         <v>Wastage reasons</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>[CONFIG] Partial use</v>
+        <v>[CONFIG] Expiry</v>
       </c>
     </row>
     <row r="15">
@@ -2025,6 +2350,22 @@
         <v>Wastage reasons</v>
       </c>
       <c r="B15" s="5" t="str">
+        <v>[CONFIG] Color change (VVM)</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="str">
+        <v>Wastage reasons</v>
+      </c>
+      <c r="B16" s="4" t="str">
+        <v>[CONFIG] Partial use</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="str">
+        <v>Wastage reasons</v>
+      </c>
+      <c r="B17" s="5" t="str">
         <v>[CONFIG] Other reason</v>
       </c>
     </row>
@@ -2061,13 +2402,13 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVAX - Vaccination</v>
+        <v>COVAC - Vaccination</v>
       </c>
       <c r="B2" s="4" t="str">
         <v/>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2079,7 +2420,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J108"/>
+  <dimension ref="A1:J129"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -2130,22 +2471,22 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>A8UE5oyhOMl</v>
+        <v>a8exJvs1DYc</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>[CONFIG] COVAX - Opening balance syringes with needle 1ml</v>
+        <v>[CONFIG] COVAC - Received dilution syringes</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>Opening balance syringes with needle 1ml</v>
+        <v>Received dilution syringes</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>CVX_OPENING_BALANCE_SYRINGES_WITH_ NEEDLE_1ML</v>
+        <v>CVC_RECEIVED_DILUTION_SYRINGES</v>
       </c>
       <c r="E2" s="4" t="str">
-        <v>Opening balance equals the physical 'stock at hand count' of the previous period</v>
+        <v>Received at the centre</v>
       </c>
       <c r="F2" s="4" t="str">
-        <v>Opening balance syringes with needle 1ml</v>
+        <v>Received dilution syringes</v>
       </c>
       <c r="G2" s="4" t="str">
         <v>1</v>
@@ -2154,7 +2495,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I2" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J2" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2162,22 +2503,22 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>AfDDi4x9jOt</v>
+        <v>A8UE5oyhOMl</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>[CONFIG] COVAX - Opening balance cold box</v>
+        <v>[CONFIG] COVAC - Opening balance syringes with needle 1ml</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>Opening balance cold box</v>
+        <v>Opening balance syringes with needle 1ml</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>CVX_OPENING_BALANCE_COLD_BOXES</v>
+        <v>CVC_OPENING_BALANCE_SYRINGES_WITH_ NEEDLE_1ML</v>
       </c>
       <c r="E3" s="5" t="str">
         <v>Opening balance equals the physical 'stock at hand count' of the previous period</v>
       </c>
       <c r="F3" s="5" t="str">
-        <v>Opening balance cold box</v>
+        <v>Opening balance syringes with needle 1ml</v>
       </c>
       <c r="G3" s="5" t="str">
         <v>1</v>
@@ -2186,7 +2527,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I3" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J3" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2194,22 +2535,22 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>ANmlPnVtTTa</v>
+        <v>AfDDi4x9jOt</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>[CONFIG] COVAX - Stockout days - Vaccine 3 (vials)</v>
+        <v>[CONFIG] COVAC - Opening balance cold box</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>Stockout days - Vaccine 3 (vials)</v>
+        <v>Opening balance cold box</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>CVX_STOCKOUT_DAYS_VACCINE3_VIALS</v>
+        <v>CVC_OPENING_BALANCE_COLD_BOXES</v>
       </c>
       <c r="E4" s="4" t="str">
-        <v>Days the centre was stocked out of the item</v>
+        <v>Opening balance equals the physical 'stock at hand count' of the previous period</v>
       </c>
       <c r="F4" s="4" t="str">
-        <v>Stockout days - Vaccine3</v>
+        <v>Opening balance cold box</v>
       </c>
       <c r="G4" s="4" t="str">
         <v>1</v>
@@ -2218,7 +2559,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I4" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J4" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2226,31 +2567,31 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>AvwcVy7Yfv4</v>
+        <v>ANmlPnVtTTa</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>[CONFIG] COVAX - Proportion of target frontline healthcare workers given 1st dose</v>
+        <v>[CONFIG] COVAC - Stockout days - Vaccine 3 (vials)</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>Frontline healthcare workers given 1st dose (%)</v>
+        <v>Stockout days - Vaccine 3 (vials)</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>CVX_FRONTLINE_HCW_GIVEN_1ST_DOSE_%</v>
+        <v>CVC_STOCKOUT_DAYS_VACCINE3_VIALS</v>
       </c>
       <c r="E5" s="5" t="str">
-        <v>Proportion of frontline healthcare workers given 1st dose</v>
+        <v>Days the centre was stocked out of the item</v>
       </c>
       <c r="F5" s="5" t="str">
-        <v>Target frontline healthcare workers given 1st dose</v>
+        <v>Stockout days - Vaccine3</v>
       </c>
       <c r="G5" s="5" t="str">
-        <v>Target frontline healthcare workers</v>
+        <v>1</v>
       </c>
       <c r="H5" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I5" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J5" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2258,31 +2599,31 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>b3znXSaQjkD</v>
+        <v>AvwcVy7Yfv4</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>[CONFIG] COVAX - Proportion of staff available</v>
+        <v>[CONFIG] COVAC - Proportion of target frontline healthcare workers given 1st dose</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>Staff available (%)</v>
+        <v>Frontline healthcare workers given 1st dose (%)</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>CVX_STAFF_AVAILABLE_%</v>
+        <v>CVC_FRONTLINE_HCW_GIVEN_1ST_DOSE_%</v>
       </c>
       <c r="E6" s="4" t="str">
-        <v>Proportion of staff available</v>
+        <v>Proportion of frontline healthcare workers given 1st dose</v>
       </c>
       <c r="F6" s="4" t="str">
-        <v>Staff available</v>
+        <v>Target frontline healthcare workers given 1st dose</v>
       </c>
       <c r="G6" s="4" t="str">
-        <v>Expected staff</v>
+        <v>Target frontline healthcare workers</v>
       </c>
       <c r="H6" s="4" t="str">
         <v>Percentage</v>
       </c>
       <c r="I6" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J6" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2290,22 +2631,22 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>B7vM2EWHmrP</v>
+        <v>b3XVGcLxLd4</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>[CONFIG] COVAX - Stock at hand safety box</v>
+        <v>[CONFIG] COVAC - People with existing medical conditions given 2nd dose</v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>Stock at hand safety box</v>
+        <v>People with existing conditions given 2nd dose</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>CVX_STOCK_AT_HAND_SAFETY_BOX</v>
+        <v>CVC_PEOPLE_WITH_EXISTING_CONDITIONS_2ND_DOSE</v>
       </c>
       <c r="E7" s="5" t="str">
-        <v>Stock at hand at the center after a physical stock count</v>
+        <v>People with existing medical conditions given 2nd dose</v>
       </c>
       <c r="F7" s="5" t="str">
-        <v>Stock at hand safety boxes</v>
+        <v>People with existing medical conditions given 2nd dose</v>
       </c>
       <c r="G7" s="5" t="str">
         <v>1</v>
@@ -2314,7 +2655,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I7" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J7" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2322,31 +2663,31 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>BbcV04tNF2n</v>
+        <v>b3znXSaQjkD</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>[CONFIG] COVAX - Opening balance - Vaccine 2 (doses)</v>
+        <v>[CONFIG] COVAC - Proportion of staff available</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>Opening balance - Vaccine 2 (doses)</v>
+        <v>Staff available (%)</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>CVX_OPENING_BALANCE_VACCINE2_DOSES</v>
+        <v>CVC_STAFF_AVAILABLE_%</v>
       </c>
       <c r="E8" s="4" t="str">
-        <v>Opening balance equals the physical 'stock at hand count' of the previous period</v>
+        <v>Proportion of staff available</v>
       </c>
       <c r="F8" s="4" t="str">
-        <v>Opening balance - Vaccine2 doses</v>
+        <v>Staff available</v>
       </c>
       <c r="G8" s="4" t="str">
-        <v>1</v>
+        <v>Expected staff</v>
       </c>
       <c r="H8" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I8" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J8" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2354,22 +2695,22 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>BgtZgNWFVfb</v>
+        <v>B7vM2EWHmrP</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>[CONFIG] COVAX - Frontline healthcare workers given 2nd dose</v>
+        <v>[CONFIG] COVAC - Stock at hand safety box</v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>Frontline healthcare workers given 2nd dose</v>
+        <v>Stock at hand safety box</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>CVX_FRONTLINE_HCW_2ND_DOSE</v>
+        <v>CVC_STOCK_AT_HAND_SAFETY_BOX</v>
       </c>
       <c r="E9" s="5" t="str">
-        <v>Frontline healthcare workers given 2nd dose</v>
+        <v>Stock at hand at the center after a physical stock count</v>
       </c>
       <c r="F9" s="5" t="str">
-        <v>Frontline healthcare workers given 2+ dose</v>
+        <v>Stock at hand safety boxes</v>
       </c>
       <c r="G9" s="5" t="str">
         <v>1</v>
@@ -2378,7 +2719,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I9" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J9" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2386,22 +2727,22 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>bmUnh1j8eUE</v>
+        <v>BbcV04tNF2n</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>[CONFIG] COVAX - Distributed syringes with needle 1ml</v>
+        <v>[CONFIG] COVAC - Opening balance - Vaccine 2 (doses)</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>Distributed syringes with needle 1ml</v>
+        <v>Opening balance - Vaccine 2 (doses)</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>CVX_DISTRIBUTED_SYRINGES_WITH_ NEEDLE_1ML</v>
+        <v>CVC_OPENING_BALANCE_VACCINE2_DOSES</v>
       </c>
       <c r="E10" s="4" t="str">
-        <v>Distributed to people receiving the items</v>
+        <v>Opening balance equals the physical 'stock at hand count' of the previous period</v>
       </c>
       <c r="F10" s="4" t="str">
-        <v>Distributed syringes with needle 1ml</v>
+        <v>Opening balance - Vaccine2 doses</v>
       </c>
       <c r="G10" s="4" t="str">
         <v>1</v>
@@ -2410,7 +2751,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I10" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J10" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2418,31 +2759,31 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>btAPoZyKLSW</v>
+        <v>BgtZgNWFVfb</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>[CONFIG] COVAX - Drop out rates among frontline healthcare workers(%)</v>
+        <v>[CONFIG] COVAC - Frontline healthcare workers given 2nd dose</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>Drop out rates among frontline HCW (%)</v>
+        <v>Frontline healthcare workers given 2nd dose</v>
       </c>
       <c r="D11" s="5" t="str">
-        <v>CVX_DROPOUT_RATES_AMONG_FRONTLINE_HCW_%</v>
+        <v>CVC_FRONTLINE_HCW_2ND_DOSE</v>
       </c>
       <c r="E11" s="5" t="str">
-        <v>(1st dose - 2nd dose)/1st dose</v>
+        <v>Frontline healthcare workers given 2nd dose</v>
       </c>
       <c r="F11" s="5" t="str">
-        <v>Given 1st dose - Given second dose</v>
+        <v>Frontline healthcare workers given 2+ dose</v>
       </c>
       <c r="G11" s="5" t="str">
-        <v>Given 1st dose</v>
+        <v>1</v>
       </c>
       <c r="H11" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I11" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J11" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2450,22 +2791,22 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>ByzkeCHudEH</v>
+        <v>bmUnh1j8eUE</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>[CONFIG] COVAX - Staff expected at PoC</v>
+        <v>[CONFIG] COVAC - Distributed syringes with needle 1ml</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v>Staff expected at PoC</v>
+        <v>Distributed syringes with needle 1ml</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v>CVX_STAFF_EXPECTED_AT_POC</v>
+        <v>CVC_DISTRIBUTED_SYRINGES_WITH_ NEEDLE_1ML</v>
       </c>
       <c r="E12" s="4" t="str">
-        <v>Staff expected at PoC during the reporting period</v>
+        <v>Distributed to people receiving the items</v>
       </c>
       <c r="F12" s="4" t="str">
-        <v>Staff expected at PoC</v>
+        <v>Distributed syringes with needle 1ml</v>
       </c>
       <c r="G12" s="4" t="str">
         <v>1</v>
@@ -2474,7 +2815,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I12" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J12" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2482,16 +2823,16 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>c4p6bfoOh0B</v>
+        <v>btAPoZyKLSW</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>[CONFIG] COVAX - Drop out rates among essential workers(%)</v>
+        <v>[CONFIG] COVAC - Drop out rates among frontline healthcare workers(%)</v>
       </c>
       <c r="C13" s="5" t="str">
-        <v>Drop out rates among essential workers (%)</v>
+        <v>Drop out rates among frontline HCW (%)</v>
       </c>
       <c r="D13" s="5" t="str">
-        <v>CVX_DROPOUT_RATES_AMONG_ESS_WORKERS_%</v>
+        <v>CVC_DROPOUT_RATES_AMONG_FRONTLINE_HCW_%</v>
       </c>
       <c r="E13" s="5" t="str">
         <v>(1st dose - 2nd dose)/1st dose</v>
@@ -2506,7 +2847,7 @@
         <v>Percentage</v>
       </c>
       <c r="I13" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J13" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2514,31 +2855,31 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>cdLF5DVO45T</v>
+        <v>ByzkeCHudEH</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>[CONFIG] COVAX - Closed vials wastage (%)</v>
+        <v>[CONFIG] COVAC - Staff expected at PoC</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v>Closed vials wastage (%)</v>
+        <v>Staff expected at PoC</v>
       </c>
       <c r="D14" s="4" t="str">
-        <v>CVX_ CLOSED_VIALS_WASTAGE_%</v>
+        <v>CVC_STAFF_EXPECTED_AT_POC</v>
       </c>
       <c r="E14" s="4" t="str">
-        <v>(Discarded closed vial doses/Doses discarded)*100</v>
+        <v>Staff expected at PoC during the reporting period</v>
       </c>
       <c r="F14" s="4" t="str">
-        <v>Closed vial doses discarded</v>
+        <v>Staff expected at PoC</v>
       </c>
       <c r="G14" s="4" t="str">
-        <v>Discarded doses</v>
+        <v>1</v>
       </c>
       <c r="H14" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I14" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J14" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2546,31 +2887,31 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>cEUzKKCa7fv</v>
+        <v>c4p6bfoOh0B</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>[CONFIG] COVAX - Vaccine stock reporting rates</v>
+        <v>[CONFIG] COVAC - Drop out rates among essential workers(%)</v>
       </c>
       <c r="C15" s="5" t="str">
-        <v>Vaccine stock reporting rates (%)</v>
+        <v>Drop out rates among essential workers (%)</v>
       </c>
       <c r="D15" s="5" t="str">
-        <v>CVX_VAC_STOCK_REPORTING_RATE_%</v>
+        <v>CVC_DROPOUT_RATES_AMONG_ESS_WORKERS_%</v>
       </c>
       <c r="E15" s="5" t="str">
-        <v>Proportion of all vaccination centres that submitted their report</v>
+        <v>(1st dose - 2nd dose)/1st dose</v>
       </c>
       <c r="F15" s="5" t="str">
-        <v>Actual reports received</v>
+        <v>Given 1st dose - Given second dose</v>
       </c>
       <c r="G15" s="5" t="str">
-        <v>Expected reports</v>
+        <v>Given 1st dose</v>
       </c>
       <c r="H15" s="5" t="str">
         <v>Percentage</v>
       </c>
       <c r="I15" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J15" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2578,22 +2919,22 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>cSnIflt4J3h</v>
+        <v>cd7NXT5z1pV</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>[CONFIG] COVAX - Redistributed - Vaccine1 doses</v>
+        <v>[CONFIG] COVAC - Received diluent</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v>Redistributed - Vaccine1 doses</v>
+        <v>Received diluent</v>
       </c>
       <c r="D16" s="4" t="str">
-        <v>CVX_REDISTRIBUTED_VACCINE1_DOSES</v>
+        <v>CVC_RECEIVED_DILUENT</v>
       </c>
       <c r="E16" s="4" t="str">
-        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
+        <v>Received at the centre</v>
       </c>
       <c r="F16" s="4" t="str">
-        <v>Redistributed - Vaccine1 doses</v>
+        <v>Received diluent</v>
       </c>
       <c r="G16" s="4" t="str">
         <v>1</v>
@@ -2602,7 +2943,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I16" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J16" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2610,31 +2951,31 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v>CydbboFk0yH</v>
+        <v>cdLF5DVO45T</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>[CONFIG] COVAX - Stock at hand - Vaccine 3 (doses)</v>
+        <v>[CONFIG] COVAC - Closed vials wastage (%)</v>
       </c>
       <c r="C17" s="5" t="str">
-        <v>Stock at hand - Vaccine 3 (doses)</v>
+        <v>Closed vials wastage (%)</v>
       </c>
       <c r="D17" s="5" t="str">
-        <v>CVX_STOCK_AT_HAND_VACCINE3_DOSES</v>
+        <v>CVC_ CLOSED_VIALS_WASTAGE_%</v>
       </c>
       <c r="E17" s="5" t="str">
-        <v>Stock at hand at the center after a physical stock count</v>
+        <v>(Discarded closed vial doses/Doses discarded)*100</v>
       </c>
       <c r="F17" s="5" t="str">
-        <v>Stock at hand - Vaccine 3 doses</v>
+        <v>Closed vial doses discarded</v>
       </c>
       <c r="G17" s="5" t="str">
-        <v>1</v>
+        <v>Discarded doses</v>
       </c>
       <c r="H17" s="5" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I17" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J17" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2642,31 +2983,31 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>eA3THL80DDH</v>
+        <v>cEUzKKCa7fv</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>[CONFIG] COVAX - Stockout days - Vaccine 1 (vials)</v>
+        <v>[CONFIG] COVAC - Vaccine stock reporting rates</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>Stockout days - Vaccine 1 (vials)</v>
+        <v>Vaccine stock reporting rates (%)</v>
       </c>
       <c r="D18" s="4" t="str">
-        <v>CVX_STOCKOUT_DAYS_VACCINE1_VIALS</v>
+        <v>CVC_VAC_STOCK_REPORTING_RATE_%</v>
       </c>
       <c r="E18" s="4" t="str">
-        <v>Days the centre was stocked out of the item</v>
+        <v>Proportion of all vaccination centres that submitted their report</v>
       </c>
       <c r="F18" s="4" t="str">
-        <v>Stockout days - Vaccine1</v>
+        <v>Actual reports received</v>
       </c>
       <c r="G18" s="4" t="str">
-        <v>1</v>
+        <v>Expected reports</v>
       </c>
       <c r="H18" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I18" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J18" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2674,22 +3015,22 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v>EMDTyzi8eMD</v>
+        <v>cSnIflt4J3h</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>[CONFIG] COVAX - Stockout days syringes with needle 1ml</v>
+        <v>[CONFIG] COVAC - Redistributed - Vaccine1 doses</v>
       </c>
       <c r="C19" s="5" t="str">
-        <v>Stockout days syringes with needle 1ml</v>
+        <v>Redistributed - Vaccine1 doses</v>
       </c>
       <c r="D19" s="5" t="str">
-        <v>CVX_STOCKOUT_DAYS_SYRINGES_WITH_ NEEDLE_1ML</v>
+        <v>CVC_REDISTRIBUTED_VACCINE1_DOSES</v>
       </c>
       <c r="E19" s="5" t="str">
-        <v>Days the facility was stocked out of the item</v>
+        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
       </c>
       <c r="F19" s="5" t="str">
-        <v>Stockout days syringes with needle 1ml</v>
+        <v>Redistributed - Vaccine1 doses</v>
       </c>
       <c r="G19" s="5" t="str">
         <v>1</v>
@@ -2698,7 +3039,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I19" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J19" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2706,22 +3047,22 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v>f1W0R9vbMEn</v>
+        <v>cVo16hm11Kj</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>[CONFIG] COVAX - Stockout days vaccination cards</v>
+        <v>[CONFIG] COVAC - Redistributed dilution syringes</v>
       </c>
       <c r="C20" s="4" t="str">
-        <v>Stockout days vaccination cards</v>
+        <v>Redistributed dilution syringes</v>
       </c>
       <c r="D20" s="4" t="str">
-        <v>CVX_STOCKOUT_DAYS_CARDS</v>
+        <v>CVC_REDISTRIBUTED_DILUTION_SYRINGES</v>
       </c>
       <c r="E20" s="4" t="str">
-        <v>Days the facility was stocked out of the item</v>
+        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
       </c>
       <c r="F20" s="4" t="str">
-        <v>Stockout days vaccination cards</v>
+        <v>Redistributed dilution syringes</v>
       </c>
       <c r="G20" s="4" t="str">
         <v>1</v>
@@ -2730,7 +3071,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I20" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J20" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2738,22 +3079,22 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>FE4mbnWq0rv</v>
+        <v>CydbboFk0yH</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>[CONFIG] COVAX - Discarded closed vials - Vaccine 2 (doses)</v>
+        <v>[CONFIG] COVAC - Stock at hand - Vaccine 3 (doses)</v>
       </c>
       <c r="C21" s="5" t="str">
-        <v>Discarded closed vials - Vaccine 2 (doses)</v>
+        <v>Stock at hand - Vaccine 3 (doses)</v>
       </c>
       <c r="D21" s="5" t="str">
-        <v>CVX_DISCARDED_VACCINE2_DOSES</v>
+        <v>CVC_STOCK_AT_HAND_VACCINE3_DOSES</v>
       </c>
       <c r="E21" s="5" t="str">
-        <v>Discarded due to expiry, damage, contamination and etc</v>
+        <v>Stock at hand at the center after a physical stock count</v>
       </c>
       <c r="F21" s="5" t="str">
-        <v>Discarded - Vaccine2 doses</v>
+        <v>Stock at hand - Vaccine 3 doses</v>
       </c>
       <c r="G21" s="5" t="str">
         <v>1</v>
@@ -2762,7 +3103,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I21" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J21" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2770,31 +3111,31 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
-        <v>ffjCEkN7xC2</v>
+        <v>djMXxir9aEw</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>[CONFIG] COVAX - Stock discrepancy rate (%)</v>
+        <v>[CONFIG] COVAC - Stock at hand dilution syringes</v>
       </c>
       <c r="C22" s="4" t="str">
-        <v>Stock discrepancy rate (%)</v>
+        <v>Stock at hand dilution syringes</v>
       </c>
       <c r="D22" s="4" t="str">
-        <v>CVX_STOCK_DISCREPANCY_VIALS</v>
+        <v>CVC_STOCK_AT_HAND_DILUTION_SYRINGES</v>
       </c>
       <c r="E22" s="4" t="str">
-        <v>(Closing balance-Stock on hand)/Stock at hand</v>
+        <v>Stock at hand at the center after a physical stock count</v>
       </c>
       <c r="F22" s="4" t="str">
-        <v>Closing balance-Stock at hand</v>
+        <v>Stock at hand dilution syringes</v>
       </c>
       <c r="G22" s="4" t="str">
-        <v>Stock at hand</v>
+        <v>1</v>
       </c>
       <c r="H22" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I22" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J22" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2802,22 +3143,22 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="str">
-        <v>fQAVcB4dAQp</v>
+        <v>eA3THL80DDH</v>
       </c>
       <c r="B23" s="5" t="str">
-        <v>[CONFIG] COVAX - Redistributed vials</v>
+        <v>[CONFIG] COVAC - Stockout days - Vaccine 1 (vials)</v>
       </c>
       <c r="C23" s="5" t="str">
-        <v>Redistributed vials</v>
+        <v>Stockout days - Vaccine 1 (vials)</v>
       </c>
       <c r="D23" s="5" t="str">
-        <v>CVX_REDISTRIBUTED_VIALS</v>
+        <v>CVC_STOCKOUT_DAYS_VACCINE1_VIALS</v>
       </c>
       <c r="E23" s="5" t="str">
-        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
+        <v>Days the centre was stocked out of the item</v>
       </c>
       <c r="F23" s="5" t="str">
-        <v>Redistributed vials</v>
+        <v>Stockout days - Vaccine1</v>
       </c>
       <c r="G23" s="5" t="str">
         <v>1</v>
@@ -2826,7 +3167,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I23" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J23" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2834,22 +3175,22 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="str">
-        <v>fySBzigjUbH</v>
+        <v>EMDTyzi8eMD</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v>[CONFIG] COVAX - Closing balance vaccination cards</v>
+        <v>[CONFIG] COVAC - Stockout days syringes with needle 1ml</v>
       </c>
       <c r="C24" s="4" t="str">
-        <v>Closing balance vaccination cards</v>
+        <v>Stockout days syringes with needle 1ml</v>
       </c>
       <c r="D24" s="4" t="str">
-        <v>CVX_CLOSING_BALANCE_CARDS</v>
+        <v>CVC_STOCKOUT_DAYS_SYRINGES_WITH_ NEEDLE_1ML</v>
       </c>
       <c r="E24" s="4" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Days the facility was stocked out of the item</v>
       </c>
       <c r="F24" s="4" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Stockout days syringes with needle 1ml</v>
       </c>
       <c r="G24" s="4" t="str">
         <v>1</v>
@@ -2858,7 +3199,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I24" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J24" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2866,22 +3207,22 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="str">
-        <v>g2voTi7ZCxe</v>
+        <v>EPpNtahWX9y</v>
       </c>
       <c r="B25" s="5" t="str">
-        <v>[CONFIG] COVAX - Opening balance - Vaccine 1 (doses)</v>
+        <v>[CONFIG] COVAC - Discarded open vials - Vaccine 3</v>
       </c>
       <c r="C25" s="5" t="str">
-        <v>Opening balance - Vaccine 1 (doses)</v>
+        <v>Discarded open vials - Vaccine 3</v>
       </c>
       <c r="D25" s="5" t="str">
-        <v>CVX_OPENING_BALANCE_VACCINE1_DOSES</v>
+        <v>CVC_DISCARDED__CLOSED_VIALS_VACCINE3</v>
       </c>
       <c r="E25" s="5" t="str">
-        <v>Opening balance equals the physical 'stock at hand count' of the previous period</v>
+        <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F25" s="5" t="str">
-        <v>Opening balance - Vaccine1 doses</v>
+        <v>Discarded open vials - Vaccine 3</v>
       </c>
       <c r="G25" s="5" t="str">
         <v>1</v>
@@ -2890,7 +3231,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I25" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J25" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2898,22 +3239,22 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="str">
-        <v>G9jRzY6zmJg</v>
+        <v>f1W0R9vbMEn</v>
       </c>
       <c r="B26" s="4" t="str">
-        <v>[CONFIG] COVAX - Stock at hand vaccination cards</v>
+        <v>[CONFIG] COVAC - Stockout days vaccination cards</v>
       </c>
       <c r="C26" s="4" t="str">
-        <v>Stock at hand vaccination cards</v>
+        <v>Stockout days vaccination cards</v>
       </c>
       <c r="D26" s="4" t="str">
-        <v>CVX_STOCK_AT_HAND_CARDS</v>
+        <v>CVC_STOCKOUT_DAYS_CARDS</v>
       </c>
       <c r="E26" s="4" t="str">
-        <v>Stock at hand at the center after a physical stock count</v>
+        <v>Days the facility was stocked out of the item</v>
       </c>
       <c r="F26" s="4" t="str">
-        <v>Stock at hand vaccination cards</v>
+        <v>Stockout days vaccination cards</v>
       </c>
       <c r="G26" s="4" t="str">
         <v>1</v>
@@ -2922,7 +3263,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I26" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J26" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2930,22 +3271,22 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="str">
-        <v>gZEoyKpx4hE</v>
+        <v>FE4mbnWq0rv</v>
       </c>
       <c r="B27" s="5" t="str">
-        <v>[CONFIG] COVAX - Essential workers given 2nd dose</v>
+        <v>[CONFIG] COVAC - Discarded closed vials - Vaccine 2 (doses)</v>
       </c>
       <c r="C27" s="5" t="str">
-        <v>Essential workers given 2nd dose</v>
+        <v>Discarded closed vials - Vaccine 2 (doses)</v>
       </c>
       <c r="D27" s="5" t="str">
-        <v>CVX_ESSENTIAL_WORKERS_2ND_DOSE</v>
+        <v>CVC_DISCARDED_VACCINE2_DOSES</v>
       </c>
       <c r="E27" s="5" t="str">
-        <v>Essential workers given 2nd dose</v>
+        <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F27" s="5" t="str">
-        <v>Essential workers given 2+ dose</v>
+        <v>Discarded - Vaccine2 doses</v>
       </c>
       <c r="G27" s="5" t="str">
         <v>1</v>
@@ -2954,7 +3295,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I27" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J27" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2962,31 +3303,31 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="str">
-        <v>h3NchPC73cV</v>
+        <v>ffjCEkN7xC2</v>
       </c>
       <c r="B28" s="4" t="str">
-        <v>[CONFIG] COVAX - Vaccination reporting rates</v>
+        <v>[CONFIG] COVAC - Stock discrepancy rate (%)</v>
       </c>
       <c r="C28" s="4" t="str">
-        <v>Vaccination reporting rates (%)</v>
+        <v>Stock discrepancy rate (%)</v>
       </c>
       <c r="D28" s="4" t="str">
-        <v>CVX_VAC_REPORTING_RATE_%</v>
+        <v>CVC_STOCK_DISCREPANCY_VIALS</v>
       </c>
       <c r="E28" s="4" t="str">
-        <v>Proportion of all vaccination centres that submitted their report</v>
+        <v>(Closing balance-Stock on hand)/Stock at hand</v>
       </c>
       <c r="F28" s="4" t="str">
-        <v>Actual reports received</v>
+        <v>Closing balance-Stock at hand</v>
       </c>
       <c r="G28" s="4" t="str">
-        <v>Expected reports</v>
+        <v>Stock at hand</v>
       </c>
       <c r="H28" s="4" t="str">
         <v>Percentage</v>
       </c>
       <c r="I28" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J28" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -2994,22 +3335,22 @@
     </row>
     <row r="29">
       <c r="A29" s="5" t="str">
-        <v>H6nsnH2w9A9</v>
+        <v>FMLTWPO5qFU</v>
       </c>
       <c r="B29" s="5" t="str">
-        <v>[CONFIG] COVAX - Opening balance - Vaccine 3 (doses)</v>
+        <v>[CONFIG] COVAC - Distributed diluent</v>
       </c>
       <c r="C29" s="5" t="str">
-        <v>Opening balance - Vaccine 3 (doses)</v>
+        <v>Distriuted diluent</v>
       </c>
       <c r="D29" s="5" t="str">
-        <v>CVX_OPENING_BALANCE_VACCINE3_DOSES</v>
+        <v>CVC_DISTRIBUTED_DILUENT</v>
       </c>
       <c r="E29" s="5" t="str">
-        <v>Opening balance equals the physical 'stock at hand count' of the previous period</v>
+        <v>Distributed to people receiving the items</v>
       </c>
       <c r="F29" s="5" t="str">
-        <v>Opening balance - Vaccine3 doses</v>
+        <v>Distributed diluent</v>
       </c>
       <c r="G29" s="5" t="str">
         <v>1</v>
@@ -3018,7 +3359,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I29" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J29" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3026,22 +3367,22 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="str">
-        <v>hJKdezT5GcK</v>
+        <v>fQAVcB4dAQp</v>
       </c>
       <c r="B30" s="4" t="str">
-        <v>[CONFIG] COVAX - Closing balance - Vaccine 1 (doses)</v>
+        <v>[CONFIG] COVAC - Redistributed vials</v>
       </c>
       <c r="C30" s="4" t="str">
-        <v>Closing balance - Vaccine 1 (doses)</v>
+        <v>Redistributed vials</v>
       </c>
       <c r="D30" s="4" t="str">
-        <v>CVX_CLOSING_BALANCE_VACCINE1_DOSES</v>
+        <v>CVC_REDISTRIBUTED_VIALS</v>
       </c>
       <c r="E30" s="4" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
       </c>
       <c r="F30" s="4" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Redistributed vials</v>
       </c>
       <c r="G30" s="4" t="str">
         <v>1</v>
@@ -3050,7 +3391,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I30" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J30" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3058,22 +3399,22 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="str">
-        <v>i0dG1vChnP6</v>
+        <v>fSchc931av0</v>
       </c>
       <c r="B31" s="5" t="str">
-        <v>[CONFIG] COVAX - Discarded closed vials - Vaccine 1 (doses)</v>
+        <v>[CONFIG] COVAC - Discarded open vials - Vaccine 1</v>
       </c>
       <c r="C31" s="5" t="str">
-        <v>Discarded closed vials - Vaccine 1 (doses)</v>
+        <v>Discarded open vials - Vaccine 1</v>
       </c>
       <c r="D31" s="5" t="str">
-        <v>CVX_DISCARDED_VACCINE1_DOSES</v>
+        <v>CVC_DISCARDED__CLOSED_VIALS_VACCINE1</v>
       </c>
       <c r="E31" s="5" t="str">
         <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F31" s="5" t="str">
-        <v>Discarded - Vaccine1 doses</v>
+        <v>Discarded open vials - Vaccine 1</v>
       </c>
       <c r="G31" s="5" t="str">
         <v>1</v>
@@ -3082,7 +3423,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I31" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J31" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3090,22 +3431,22 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="str">
-        <v>iC5xj6Dqa0P</v>
+        <v>FyC7Cf74Cao</v>
       </c>
       <c r="B32" s="4" t="str">
-        <v>[CONFIG] COVAX - Target frontline healthcare workers</v>
+        <v>[CONFIG] COVAC - Discarded closed vials - Vaccine 2</v>
       </c>
       <c r="C32" s="4" t="str">
-        <v>Target frontline healthcare workers</v>
+        <v>Discarded closed vials - Vaccine 2</v>
       </c>
       <c r="D32" s="4" t="str">
-        <v>CVX_TARGET_FRONTLINE_HCW</v>
+        <v>CVC_DISCARDED__OPEN_VIALS_VACCINE2</v>
       </c>
       <c r="E32" s="4" t="str">
-        <v>Target frontline healthcare workers</v>
+        <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F32" s="4" t="str">
-        <v>Target frontline healthcare workers</v>
+        <v>Discarded closed vials - Vaccine 2</v>
       </c>
       <c r="G32" s="4" t="str">
         <v>1</v>
@@ -3114,7 +3455,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I32" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J32" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3122,22 +3463,22 @@
     </row>
     <row r="33">
       <c r="A33" s="5" t="str">
-        <v>ILLy5jdUwwE</v>
+        <v>fySBzigjUbH</v>
       </c>
       <c r="B33" s="5" t="str">
-        <v>[CONFIG] COVAX - Stockout days safety box</v>
+        <v>[CONFIG] COVAC - Closing balance vaccination cards</v>
       </c>
       <c r="C33" s="5" t="str">
-        <v>Stockout days safety box</v>
+        <v>Closing balance vaccination cards</v>
       </c>
       <c r="D33" s="5" t="str">
-        <v>CVX_STOCKOUT_DAYS_SAFETY_BOX</v>
+        <v>CVC_CLOSING_BALANCE_CARDS</v>
       </c>
       <c r="E33" s="5" t="str">
-        <v>Days the facility was stocked out of the item</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="F33" s="5" t="str">
-        <v>Stockout days safety boxes</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="G33" s="5" t="str">
         <v>1</v>
@@ -3146,7 +3487,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I33" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J33" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3154,31 +3495,31 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="str">
-        <v>Iv3tfc8gso7</v>
+        <v>g2voTi7ZCxe</v>
       </c>
       <c r="B34" s="4" t="str">
-        <v>[CONFIG] COVAX - Vaccination reporting rates on time</v>
+        <v>[CONFIG] COVAC - Opening balance - Vaccine 1 (doses)</v>
       </c>
       <c r="C34" s="4" t="str">
-        <v>Vaccination reporting rates on time (%)</v>
+        <v>Opening balance - Vaccine 1 (doses)</v>
       </c>
       <c r="D34" s="4" t="str">
-        <v>CVX_VAC_REPORTING_RATE_ONTIME_%</v>
+        <v>CVC_OPENING_BALANCE_VACCINE1_DOSES</v>
       </c>
       <c r="E34" s="4" t="str">
-        <v>Proportion of all vaccination centres that submitted their report on time</v>
+        <v>Opening balance equals the physical 'stock at hand count' of the previous period</v>
       </c>
       <c r="F34" s="4" t="str">
-        <v>Actual reports received on time</v>
+        <v>Opening balance - Vaccine1 doses</v>
       </c>
       <c r="G34" s="4" t="str">
-        <v>Actual reports received</v>
+        <v>1</v>
       </c>
       <c r="H34" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I34" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J34" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3186,22 +3527,22 @@
     </row>
     <row r="35">
       <c r="A35" s="5" t="str">
-        <v>J4UW8FgK4vq</v>
+        <v>G9jRzY6zmJg</v>
       </c>
       <c r="B35" s="5" t="str">
-        <v>[CONFIG] COVAX - Received vaccination cards</v>
+        <v>[CONFIG] COVAC - Stock at hand vaccination cards</v>
       </c>
       <c r="C35" s="5" t="str">
-        <v>Received vaccination cards</v>
+        <v>Stock at hand vaccination cards</v>
       </c>
       <c r="D35" s="5" t="str">
-        <v>CVX_RECEIVED_CARD</v>
+        <v>CVC_STOCK_AT_HAND_CARDS</v>
       </c>
       <c r="E35" s="5" t="str">
-        <v>Received at the centre</v>
+        <v>Stock at hand at the center after a physical stock count</v>
       </c>
       <c r="F35" s="5" t="str">
-        <v>Received vaccination cards</v>
+        <v>Stock at hand vaccination cards</v>
       </c>
       <c r="G35" s="5" t="str">
         <v>1</v>
@@ -3210,7 +3551,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I35" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J35" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3218,31 +3559,31 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="str">
-        <v>j550fnnj9QU</v>
+        <v>gZEoyKpx4hE</v>
       </c>
       <c r="B36" s="4" t="str">
-        <v>[CONFIG] COVAX - Vaccine 2 uptake (%)</v>
+        <v>[CONFIG] COVAC - Essential workers given 2nd dose</v>
       </c>
       <c r="C36" s="4" t="str">
-        <v>Vaccine 2 uptake (%)</v>
+        <v>Essential workers given 2nd dose</v>
       </c>
       <c r="D36" s="4" t="str">
-        <v>CVX_VACCINE2_UPTAKE_%</v>
+        <v>CVC_ESSENTIAL_WORKERS_2ND_DOSE</v>
       </c>
       <c r="E36" s="4" t="str">
-        <v>Proportion of people given doses of vaccine2</v>
+        <v>Essential workers given 2nd dose</v>
       </c>
       <c r="F36" s="4" t="str">
-        <v>Vaccine2 doses given</v>
+        <v>Essential workers given 2+ dose</v>
       </c>
       <c r="G36" s="4" t="str">
-        <v>Total doses of all vaccines given</v>
+        <v>1</v>
       </c>
       <c r="H36" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I36" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J36" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3250,31 +3591,31 @@
     </row>
     <row r="37">
       <c r="A37" s="5" t="str">
-        <v>jayuvPfIQBz</v>
+        <v>h3NchPC73cV</v>
       </c>
       <c r="B37" s="5" t="str">
-        <v>[CONFIG] COVAX - Received cold box</v>
+        <v>[CONFIG] COVAC - Vaccination reporting rates</v>
       </c>
       <c r="C37" s="5" t="str">
-        <v>Received cold box</v>
+        <v>Vaccination reporting rates (%)</v>
       </c>
       <c r="D37" s="5" t="str">
-        <v>CVX_RECEIVED_COLD_BOX</v>
+        <v>CVC_VAC_REPORTING_RATE_%</v>
       </c>
       <c r="E37" s="5" t="str">
-        <v>Received at the centre</v>
+        <v>Proportion of all vaccination centres that submitted their report</v>
       </c>
       <c r="F37" s="5" t="str">
-        <v>Received cold boxes</v>
+        <v>Actual reports received</v>
       </c>
       <c r="G37" s="5" t="str">
-        <v>1</v>
+        <v>Expected reports</v>
       </c>
       <c r="H37" s="5" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I37" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J37" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3282,22 +3623,22 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="str">
-        <v>jFlfqS1M9Hj</v>
+        <v>H6nsnH2w9A9</v>
       </c>
       <c r="B38" s="4" t="str">
-        <v>[CONFIG] COVAX - Staff available at PoC</v>
+        <v>[CONFIG] COVAC - Opening balance - Vaccine 3 (doses)</v>
       </c>
       <c r="C38" s="4" t="str">
-        <v>Staff available at PoC</v>
+        <v>Opening balance - Vaccine 3 (doses)</v>
       </c>
       <c r="D38" s="4" t="str">
-        <v>CVX_STAFF_AVAILABLE_AT_POC</v>
+        <v>CVC_OPENING_BALANCE_VACCINE3_DOSES</v>
       </c>
       <c r="E38" s="4" t="str">
-        <v>Staff available at PoC during the reporting period</v>
+        <v>Opening balance equals the physical 'stock at hand count' of the previous period</v>
       </c>
       <c r="F38" s="4" t="str">
-        <v>Staff available at PoC</v>
+        <v>Opening balance - Vaccine3 doses</v>
       </c>
       <c r="G38" s="4" t="str">
         <v>1</v>
@@ -3306,7 +3647,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I38" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J38" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3314,31 +3655,31 @@
     </row>
     <row r="39">
       <c r="A39" s="5" t="str">
-        <v>k9kIyVQEc0o</v>
+        <v>hJKdezT5GcK</v>
       </c>
       <c r="B39" s="5" t="str">
-        <v>[CONFIG] COVAX - Wastage rate (%)</v>
+        <v>[CONFIG] COVAC - Closing balance - Vaccine 1 (doses)</v>
       </c>
       <c r="C39" s="5" t="str">
-        <v>Wastage rate (%)</v>
+        <v>Closing balance - Vaccine 1 (doses)</v>
       </c>
       <c r="D39" s="5" t="str">
-        <v>CVX_ WASTAGE_RATE_%</v>
+        <v>CVC_CLOSING_BALANCE_VACCINE1_DOSES</v>
       </c>
       <c r="E39" s="5" t="str">
-        <v>(Discarded/Used)*100</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="F39" s="5" t="str">
-        <v>Discarded doses</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="G39" s="5" t="str">
-        <v>Used doses=(Opening balance+Received)-(Redistributed+Stock on hand)</v>
+        <v>1</v>
       </c>
       <c r="H39" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I39" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J39" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3346,22 +3687,22 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="str">
-        <v>Kkbt3LgbCbD</v>
+        <v>hlmH910DBPC</v>
       </c>
       <c r="B40" s="4" t="str">
-        <v>[CONFIG] COVAX - Doses per vial - Vaccine 3</v>
+        <v>[CONFIG] COVAC - Discarded vaccination dilution syringes</v>
       </c>
       <c r="C40" s="4" t="str">
-        <v>Doses per vial - Vaccine 3</v>
+        <v>Discarded dilution syringes</v>
       </c>
       <c r="D40" s="4" t="str">
-        <v>CVX_DOSES_IN_A_VIAL_VACCINE3</v>
+        <v>CVC_DISCARDED_DILUTION_SYRINGES</v>
       </c>
       <c r="E40" s="4" t="str">
-        <v>Number of doses in a vial - Vaccine3</v>
+        <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F40" s="4" t="str">
-        <v>Doses in a vial - Vaccine3</v>
+        <v>Discarded dilution syringes</v>
       </c>
       <c r="G40" s="4" t="str">
         <v>1</v>
@@ -3370,7 +3711,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I40" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J40" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3378,22 +3719,22 @@
     </row>
     <row r="41">
       <c r="A41" s="5" t="str">
-        <v>KLFHy7LdaEp</v>
+        <v>i0dG1vChnP6</v>
       </c>
       <c r="B41" s="5" t="str">
-        <v>[CONFIG] COVAX - Received - Vaccine 2 (doses)</v>
+        <v>[CONFIG] COVAC - Discarded closed vials - Vaccine 1 (doses)</v>
       </c>
       <c r="C41" s="5" t="str">
-        <v>Received - Vaccine 2 (doses)</v>
+        <v>Discarded closed vials - Vaccine 1 (doses)</v>
       </c>
       <c r="D41" s="5" t="str">
-        <v>CVX_RECEIVED_VACCINE2_DOSES</v>
+        <v>CVC_DISCARDED_VACCINE1_DOSES</v>
       </c>
       <c r="E41" s="5" t="str">
-        <v>Received at the centre</v>
+        <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F41" s="5" t="str">
-        <v>Received - Vaccine2 doses</v>
+        <v>Discarded - Vaccine1 doses</v>
       </c>
       <c r="G41" s="5" t="str">
         <v>1</v>
@@ -3402,7 +3743,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I41" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J41" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3410,22 +3751,22 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="str">
-        <v>kx79vq5XdQd</v>
+        <v>iC5xj6Dqa0P</v>
       </c>
       <c r="B42" s="4" t="str">
-        <v>[CONFIG] COVAX - Closing balance syringes with needle 1ml</v>
+        <v>[CONFIG] COVAC - Target frontline healthcare workers</v>
       </c>
       <c r="C42" s="4" t="str">
-        <v>Closing balance syringes with needle 1ml</v>
+        <v>Target frontline healthcare workers</v>
       </c>
       <c r="D42" s="4" t="str">
-        <v>CVX_CLOSING_BALANCE_SYRINGES_WITH_ NEEDLE_1ML</v>
+        <v>CVC_TARGET_FRONTLINE_HCW</v>
       </c>
       <c r="E42" s="4" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Target frontline healthcare workers</v>
       </c>
       <c r="F42" s="4" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Target frontline healthcare workers</v>
       </c>
       <c r="G42" s="4" t="str">
         <v>1</v>
@@ -3434,7 +3775,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I42" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J42" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3442,22 +3783,22 @@
     </row>
     <row r="43">
       <c r="A43" s="5" t="str">
-        <v>lGv5kC9pLPI</v>
+        <v>ILLy5jdUwwE</v>
       </c>
       <c r="B43" s="5" t="str">
-        <v>[CONFIG] COVAX - Discarded closed vials - Vaccine 1</v>
+        <v>[CONFIG] COVAC - Stockout days safety box</v>
       </c>
       <c r="C43" s="5" t="str">
-        <v>Discarded closed vials - Vaccine 1</v>
+        <v>Stockout days safety box</v>
       </c>
       <c r="D43" s="5" t="str">
-        <v>CVX_DISCARDED__OPEN_VIALS_VACCINE1</v>
+        <v>CVC_STOCKOUT_DAYS_SAFETY_BOX</v>
       </c>
       <c r="E43" s="5" t="str">
-        <v>Discarded due to expiry, damage, contamination and etc</v>
+        <v>Days the facility was stocked out of the item</v>
       </c>
       <c r="F43" s="5" t="str">
-        <v>Discarded closed vials - Vaccine 1</v>
+        <v>Stockout days safety boxes</v>
       </c>
       <c r="G43" s="5" t="str">
         <v>1</v>
@@ -3466,7 +3807,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I43" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J43" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3474,31 +3815,31 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="str">
-        <v>LgvcCkQIQ44</v>
+        <v>inS5ZAeuMN5</v>
       </c>
       <c r="B44" s="4" t="str">
-        <v>[CONFIG] COVAX - Opened vials wastage (%)</v>
+        <v>[CONFIG] COVAC - People given 2nd dose</v>
       </c>
       <c r="C44" s="4" t="str">
-        <v>Opened vials wastage (%)</v>
+        <v>People given 2nd dose</v>
       </c>
       <c r="D44" s="4" t="str">
-        <v>CVX_ OPENED_VIALS_WASTAGE_%</v>
+        <v>CVC_PEOPLE_2ND_DOSE</v>
       </c>
       <c r="E44" s="4" t="str">
-        <v>(Discarded open vial doses/Doses discarded)*100</v>
+        <v>People given 1st dose</v>
       </c>
       <c r="F44" s="4" t="str">
-        <v>Opened vial doses discarded</v>
+        <v>People given 2nd dose</v>
       </c>
       <c r="G44" s="4" t="str">
-        <v>Discarded doses</v>
+        <v>1</v>
       </c>
       <c r="H44" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I44" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J44" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3506,22 +3847,22 @@
     </row>
     <row r="45">
       <c r="A45" s="5" t="str">
-        <v>lXV4Lk0aah6</v>
+        <v>iPolbKiHAaq</v>
       </c>
       <c r="B45" s="5" t="str">
-        <v>[CONFIG] COVAX - Distributed vials</v>
+        <v>[CONFIG] COVAC - Discarded open vials - Vaccine 2</v>
       </c>
       <c r="C45" s="5" t="str">
-        <v>Distributed vials</v>
+        <v>Discarded open vials - Vaccine 2</v>
       </c>
       <c r="D45" s="5" t="str">
-        <v>CVX_DISTRIBUTED_VIALS</v>
+        <v>CVC_DISCARDED__CLOSED_VIALS_VACCINE2</v>
       </c>
       <c r="E45" s="5" t="str">
-        <v>Distributed to people receiving the items</v>
+        <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F45" s="5" t="str">
-        <v>Distributed vials</v>
+        <v>Discarded open vials - Vaccine 2</v>
       </c>
       <c r="G45" s="5" t="str">
         <v>1</v>
@@ -3530,7 +3871,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I45" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J45" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3538,31 +3879,31 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="str">
-        <v>mQYStz4mXT5</v>
+        <v>Iv3tfc8gso7</v>
       </c>
       <c r="B46" s="4" t="str">
-        <v>[CONFIG] COVAX - Target people with existing medical conditions</v>
+        <v>[CONFIG] COVAC - Vaccination reporting rates on time</v>
       </c>
       <c r="C46" s="4" t="str">
-        <v>Target people with existing medical conditions</v>
+        <v>Vaccination reporting rates on time (%)</v>
       </c>
       <c r="D46" s="4" t="str">
-        <v>CVX_TARGET_PEOPLE_WITH_EXISTING_CONDITIONS</v>
+        <v>CVC_VAC_REPORTING_RATE_ONTIME_%</v>
       </c>
       <c r="E46" s="4" t="str">
-        <v>Target people with existing medical conditions</v>
+        <v>Proportion of all vaccination centres that submitted their report on time</v>
       </c>
       <c r="F46" s="4" t="str">
-        <v>Target people with existing medical conditions</v>
+        <v>Actual reports received on time</v>
       </c>
       <c r="G46" s="4" t="str">
-        <v>1</v>
+        <v>Actual reports received</v>
       </c>
       <c r="H46" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I46" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J46" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3570,22 +3911,22 @@
     </row>
     <row r="47">
       <c r="A47" s="5" t="str">
-        <v>MRUsCIsRdps</v>
+        <v>J4UW8FgK4vq</v>
       </c>
       <c r="B47" s="5" t="str">
-        <v>[CONFIG] COVAX - Distributed - Vaccine 2 (doses)</v>
+        <v>[CONFIG] COVAC - Received vaccination cards</v>
       </c>
       <c r="C47" s="5" t="str">
-        <v>Distributed - Vaccine 2 (doses)</v>
+        <v>Received vaccination cards</v>
       </c>
       <c r="D47" s="5" t="str">
-        <v>CVX_DISTRIBUTED_VACCINE2_DOSES</v>
+        <v>CVC_RECEIVED_CARD</v>
       </c>
       <c r="E47" s="5" t="str">
-        <v>Distributed to people receiving the vaccines</v>
+        <v>Received at the centre</v>
       </c>
       <c r="F47" s="5" t="str">
-        <v>Distributed - Vaccine2 doses</v>
+        <v>Received vaccination cards</v>
       </c>
       <c r="G47" s="5" t="str">
         <v>1</v>
@@ -3594,7 +3935,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I47" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J47" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3602,31 +3943,31 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="str">
-        <v>N4iXbeP3T5O</v>
+        <v>j550fnnj9QU</v>
       </c>
       <c r="B48" s="4" t="str">
-        <v>[CONFIG] COVAX - Closing balance - Vaccine 2 (vials)</v>
+        <v>[CONFIG] COVAC - Vaccine 2 uptake (%)</v>
       </c>
       <c r="C48" s="4" t="str">
-        <v>Closing balance - Vaccine 2 (vials)</v>
+        <v>Vaccine 2 uptake (%)</v>
       </c>
       <c r="D48" s="4" t="str">
-        <v>CVX_CLOSING_BALANCE_VACCINE2_VIALS</v>
+        <v>CVC_VACCINE2_UPTAKE_%</v>
       </c>
       <c r="E48" s="4" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Proportion of people given doses of vaccine2</v>
       </c>
       <c r="F48" s="4" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Vaccine2 doses given</v>
       </c>
       <c r="G48" s="4" t="str">
-        <v>1</v>
+        <v>Total doses of all vaccines given</v>
       </c>
       <c r="H48" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I48" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J48" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3634,22 +3975,22 @@
     </row>
     <row r="49">
       <c r="A49" s="5" t="str">
-        <v>N4O2KBFP7Ze</v>
+        <v>jayuvPfIQBz</v>
       </c>
       <c r="B49" s="5" t="str">
-        <v>[CONFIG] COVAX - Received syringes with needle 1ml</v>
+        <v>[CONFIG] COVAC - Received cold box</v>
       </c>
       <c r="C49" s="5" t="str">
-        <v>Received syringes with needle 1ml</v>
+        <v>Received cold box</v>
       </c>
       <c r="D49" s="5" t="str">
-        <v>CVX_RECEIVED_SYRINGES_WITH_ NEEDLE_1ML</v>
+        <v>CVC_RECEIVED_COLD_BOX</v>
       </c>
       <c r="E49" s="5" t="str">
         <v>Received at the centre</v>
       </c>
       <c r="F49" s="5" t="str">
-        <v>Received syringes with needle 1ml</v>
+        <v>Received cold boxes</v>
       </c>
       <c r="G49" s="5" t="str">
         <v>1</v>
@@ -3658,7 +3999,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I49" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J49" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3666,22 +4007,22 @@
     </row>
     <row r="50">
       <c r="A50" s="4" t="str">
-        <v>n5u7G8DQYNJ</v>
+        <v>jFlfqS1M9Hj</v>
       </c>
       <c r="B50" s="4" t="str">
-        <v>[CONFIG] COVAX - AEFIs by vaccine and severity</v>
+        <v>[CONFIG] COVAC - Staff available at PoC</v>
       </c>
       <c r="C50" s="4" t="str">
-        <v>AEFIs by vaccine and severity</v>
+        <v>Staff available at PoC</v>
       </c>
       <c r="D50" s="4" t="str">
-        <v>CVX_AEFIS_BY_VACCINE_AND_SEVERITY</v>
+        <v>CVC_STAFF_AVAILABLE_AT_POC</v>
       </c>
       <c r="E50" s="4" t="str">
-        <v>AEFIs by vaccine and severity</v>
+        <v>Staff available at PoC during the reporting period</v>
       </c>
       <c r="F50" s="4" t="str">
-        <v>AEFIs by vaccine and severity</v>
+        <v>Staff available at PoC</v>
       </c>
       <c r="G50" s="4" t="str">
         <v>1</v>
@@ -3690,7 +4031,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I50" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J50" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3698,31 +4039,31 @@
     </row>
     <row r="51">
       <c r="A51" s="5" t="str">
-        <v>nO5aJYGv9qb</v>
+        <v>k9kIyVQEc0o</v>
       </c>
       <c r="B51" s="5" t="str">
-        <v>[CONFIG] COVAX - Received - Vaccine 3 (doses)</v>
+        <v>[CONFIG] COVAC - Wastage rate (%)</v>
       </c>
       <c r="C51" s="5" t="str">
-        <v>Received - Vaccine 3 (doses)</v>
+        <v>Wastage rate (%)</v>
       </c>
       <c r="D51" s="5" t="str">
-        <v>CVX_RECEIVED_VACCINE3_DOSES</v>
+        <v>CVC_ WASTAGE_RATE_%</v>
       </c>
       <c r="E51" s="5" t="str">
-        <v>Received at the centre</v>
+        <v>(Discarded/Used)*100</v>
       </c>
       <c r="F51" s="5" t="str">
-        <v>Received - Vaccine3 doses</v>
+        <v>Discarded doses</v>
       </c>
       <c r="G51" s="5" t="str">
-        <v>1</v>
+        <v>Used doses=(Opening balance+Received)-(Redistributed+Stock on hand)</v>
       </c>
       <c r="H51" s="5" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I51" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J51" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3730,22 +4071,22 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="str">
-        <v>NtkYtrGGzGV</v>
+        <v>Kkbt3LgbCbD</v>
       </c>
       <c r="B52" s="4" t="str">
-        <v>[CONFIG] COVAX - Essential workers given 1st dose</v>
+        <v>[CONFIG] COVAC - Doses per vial - Vaccine 3</v>
       </c>
       <c r="C52" s="4" t="str">
-        <v>Essential workers given 1st dose</v>
+        <v>Doses per vial - Vaccine 3</v>
       </c>
       <c r="D52" s="4" t="str">
-        <v>CVX_ESSENTIAL_WORKERS_1ST_DOSE</v>
+        <v>CVC_DOSES_IN_A_VIAL_VACCINE3</v>
       </c>
       <c r="E52" s="4" t="str">
-        <v>Essential workers given 1st dose</v>
+        <v>Number of doses in a vial - Vaccine3</v>
       </c>
       <c r="F52" s="4" t="str">
-        <v>Essential workers given 1st dose</v>
+        <v>Doses in a vial - Vaccine3</v>
       </c>
       <c r="G52" s="4" t="str">
         <v>1</v>
@@ -3754,7 +4095,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I52" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J52" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3762,22 +4103,22 @@
     </row>
     <row r="53">
       <c r="A53" s="5" t="str">
-        <v>o2sAk0ai7X9</v>
+        <v>KLFHy7LdaEp</v>
       </c>
       <c r="B53" s="5" t="str">
-        <v>[CONFIG] COVAX - Stock at hand - Vaccine 1 (doses)</v>
+        <v>[CONFIG] COVAC - Received - Vaccine 2 (doses)</v>
       </c>
       <c r="C53" s="5" t="str">
-        <v>Stock at hand - Vaccine 1 (doses)</v>
+        <v>Received - Vaccine 2 (doses)</v>
       </c>
       <c r="D53" s="5" t="str">
-        <v>CVX_STOCK_AT_HAND_VACCINE1_DOSES</v>
+        <v>CVC_RECEIVED_VACCINE2_DOSES</v>
       </c>
       <c r="E53" s="5" t="str">
-        <v>Stock at hand at the center after a physical stock count</v>
+        <v>Received at the centre</v>
       </c>
       <c r="F53" s="5" t="str">
-        <v>Stock at hand - Vaccine 1 doses</v>
+        <v>Received - Vaccine2 doses</v>
       </c>
       <c r="G53" s="5" t="str">
         <v>1</v>
@@ -3786,7 +4127,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I53" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J53" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3794,22 +4135,22 @@
     </row>
     <row r="54">
       <c r="A54" s="4" t="str">
-        <v>O9HPe4hooiB</v>
+        <v>kx79vq5XdQd</v>
       </c>
       <c r="B54" s="4" t="str">
-        <v>[CONFIG] COVAX - Doses discarded by reasons</v>
+        <v>[CONFIG] COVAC - Closing balance syringes with needle 1ml</v>
       </c>
       <c r="C54" s="4" t="str">
-        <v>Doses discarded by reasons</v>
+        <v>Closing balance syringes with needle 1ml</v>
       </c>
       <c r="D54" s="4" t="str">
-        <v>CVX_DOSES_DISCARDED_BY_REASONS</v>
+        <v>CVC_CLOSING_BALANCE_SYRINGES_WITH_ NEEDLE_1ML</v>
       </c>
       <c r="E54" s="4" t="str">
-        <v>Discarded due to expiry, damage, contamination and etc</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="F54" s="4" t="str">
-        <v>Vials discarded by reasons</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="G54" s="4" t="str">
         <v>1</v>
@@ -3818,7 +4159,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I54" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J54" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3826,22 +4167,22 @@
     </row>
     <row r="55">
       <c r="A55" s="5" t="str">
-        <v>oB4qA3ZKs89</v>
+        <v>lGv5kC9pLPI</v>
       </c>
       <c r="B55" s="5" t="str">
-        <v>[CONFIG] COVAX - Target people given 1st dose</v>
+        <v>[CONFIG] COVAC - Discarded closed vials - Vaccine 1</v>
       </c>
       <c r="C55" s="5" t="str">
-        <v>Target people given 1st dose</v>
+        <v>Discarded closed vials - Vaccine 1</v>
       </c>
       <c r="D55" s="5" t="str">
-        <v>CVX_PEOPLE_1ST_DOSE</v>
+        <v>CVC_DISCARDED__OPEN_VIALS_VACCINE1</v>
       </c>
       <c r="E55" s="5" t="str">
-        <v>Target people given 1st dose</v>
+        <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F55" s="5" t="str">
-        <v>Target people given 1st dose</v>
+        <v>Discarded closed vials - Vaccine 1</v>
       </c>
       <c r="G55" s="5" t="str">
         <v>1</v>
@@ -3850,7 +4191,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I55" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J55" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3858,31 +4199,31 @@
     </row>
     <row r="56">
       <c r="A56" s="4" t="str">
-        <v>OkkYt2JpIZ8</v>
+        <v>LgvcCkQIQ44</v>
       </c>
       <c r="B56" s="4" t="str">
-        <v>[CONFIG] COVAX - Vaccine 3 uptake (%)</v>
+        <v>[CONFIG] COVAC - Opened vials wastage (%)</v>
       </c>
       <c r="C56" s="4" t="str">
-        <v>Vaccine 3 uptake (%)</v>
+        <v>Opened vials wastage (%)</v>
       </c>
       <c r="D56" s="4" t="str">
-        <v>CVX_VACCINE3_UPTAKE_%</v>
+        <v>CVC_ OPENED_VIALS_WASTAGE_%</v>
       </c>
       <c r="E56" s="4" t="str">
-        <v>Proportion of people given doses of vaccine3</v>
+        <v>(Discarded open vial doses/Doses discarded)*100</v>
       </c>
       <c r="F56" s="4" t="str">
-        <v>Vaccine3 doses given</v>
+        <v>Opened vial doses discarded</v>
       </c>
       <c r="G56" s="4" t="str">
-        <v>Total doses of all vaccines given</v>
+        <v>Discarded doses</v>
       </c>
       <c r="H56" s="4" t="str">
         <v>Percentage</v>
       </c>
       <c r="I56" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J56" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3890,16 +4231,16 @@
     </row>
     <row r="57">
       <c r="A57" s="5" t="str">
-        <v>orUc26gd0BF</v>
+        <v>LlSh5OozlKX</v>
       </c>
       <c r="B57" s="5" t="str">
-        <v>[CONFIG] COVAX - Closing balance - Vaccine 1 (vials)</v>
+        <v>[CONFIG] COVAC - Closing balance diluent</v>
       </c>
       <c r="C57" s="5" t="str">
-        <v>Closing balance - Vaccine 1 (vials)</v>
+        <v>Closing balance diluent</v>
       </c>
       <c r="D57" s="5" t="str">
-        <v>CVX_CLOSING_BALANCE_VACCINE1_VIALS</v>
+        <v>CVC_CLOSING_BALANCE_DILUENT</v>
       </c>
       <c r="E57" s="5" t="str">
         <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
@@ -3914,7 +4255,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I57" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J57" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3922,22 +4263,22 @@
     </row>
     <row r="58">
       <c r="A58" s="4" t="str">
-        <v>OxPqWqw6hL6</v>
+        <v>lXV4Lk0aah6</v>
       </c>
       <c r="B58" s="4" t="str">
-        <v>[CONFIG] COVAX - Frontline healthcare workers given 1st dose</v>
+        <v>[CONFIG] COVAC - Distributed vials</v>
       </c>
       <c r="C58" s="4" t="str">
-        <v>Frontline healthcare workers given 1st dose</v>
+        <v>Distributed vials</v>
       </c>
       <c r="D58" s="4" t="str">
-        <v>CVX_FRONTLINE_HCW_1ST_DOSE</v>
+        <v>CVC_DISTRIBUTED_VIALS</v>
       </c>
       <c r="E58" s="4" t="str">
-        <v>Frontline healthcare workers given 1st dose</v>
+        <v>Distributed to people receiving the items</v>
       </c>
       <c r="F58" s="4" t="str">
-        <v>Frontline healthcare workers given 1st dose</v>
+        <v>Distributed vials</v>
       </c>
       <c r="G58" s="4" t="str">
         <v>1</v>
@@ -3946,7 +4287,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I58" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J58" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3954,22 +4295,22 @@
     </row>
     <row r="59">
       <c r="A59" s="5" t="str">
-        <v>pqED8vVfjlf</v>
+        <v>M5EPDK0aiWj</v>
       </c>
       <c r="B59" s="5" t="str">
-        <v>[CONFIG] COVAX - Essential workers given booster dose</v>
+        <v>[CONFIG] COVAC - Discarded vaccination diluent</v>
       </c>
       <c r="C59" s="5" t="str">
-        <v>Essential workers given booster dose</v>
+        <v>Discarded diluent</v>
       </c>
       <c r="D59" s="5" t="str">
-        <v>CVX_ESSENTIAL_WORKERS_BOOSTER_DOSE</v>
+        <v>CVC_DISCARDED_DILUENT</v>
       </c>
       <c r="E59" s="5" t="str">
-        <v>Essential workers given booster dose</v>
+        <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F59" s="5" t="str">
-        <v>Essential workers given booster dose</v>
+        <v>Discarded diluent</v>
       </c>
       <c r="G59" s="5" t="str">
         <v>1</v>
@@ -3978,7 +4319,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I59" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J59" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -3986,22 +4327,22 @@
     </row>
     <row r="60">
       <c r="A60" s="4" t="str">
-        <v>q2NHWRFKJIJ</v>
+        <v>mQYStz4mXT5</v>
       </c>
       <c r="B60" s="4" t="str">
-        <v>[CONFIG] COVAX - Redistributed syringes with needle 1ml</v>
+        <v>[CONFIG] COVAC - Target people with existing medical conditions</v>
       </c>
       <c r="C60" s="4" t="str">
-        <v>Redistributed syringes with needle 1ml</v>
+        <v>Target people with existing medical conditions</v>
       </c>
       <c r="D60" s="4" t="str">
-        <v>CVX_REDISTRIBUTED_SYRINGES_WITH_ NEEDLE_1ML</v>
+        <v>CVC_TARGET_PEOPLE_WITH_EXISTING_CONDITIONS</v>
       </c>
       <c r="E60" s="4" t="str">
-        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
+        <v>Target people with existing medical conditions</v>
       </c>
       <c r="F60" s="4" t="str">
-        <v>Redistributed syringes with needle 1ml</v>
+        <v>Target people with existing medical conditions</v>
       </c>
       <c r="G60" s="4" t="str">
         <v>1</v>
@@ -4010,7 +4351,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I60" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J60" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4018,22 +4359,22 @@
     </row>
     <row r="61">
       <c r="A61" s="5" t="str">
-        <v>Q5CvJIeZAeh</v>
+        <v>MRUsCIsRdps</v>
       </c>
       <c r="B61" s="5" t="str">
-        <v>[CONFIG] COVAX - Redistributed cold box</v>
+        <v>[CONFIG] COVAC - Distributed - Vaccine 2 (doses)</v>
       </c>
       <c r="C61" s="5" t="str">
-        <v>Redistributed cold box</v>
+        <v>Distributed - Vaccine 2 (doses)</v>
       </c>
       <c r="D61" s="5" t="str">
-        <v>CVX_REDISTRIBUTED_COLD_BOXES</v>
+        <v>CVC_DISTRIBUTED_VACCINE2_DOSES</v>
       </c>
       <c r="E61" s="5" t="str">
-        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
+        <v>Distributed to people receiving the vaccines</v>
       </c>
       <c r="F61" s="5" t="str">
-        <v>Redistributed cold boxes</v>
+        <v>Distributed - Vaccine2 doses</v>
       </c>
       <c r="G61" s="5" t="str">
         <v>1</v>
@@ -4042,7 +4383,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I61" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J61" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4050,22 +4391,22 @@
     </row>
     <row r="62">
       <c r="A62" s="4" t="str">
-        <v>q7a0Mh2fRC1</v>
+        <v>N4iXbeP3T5O</v>
       </c>
       <c r="B62" s="4" t="str">
-        <v>[CONFIG] COVAX - Target people with existing medical conditions given 1st dose</v>
+        <v>[CONFIG] COVAC - Closing balance - Vaccine 2 (vials)</v>
       </c>
       <c r="C62" s="4" t="str">
-        <v>People with existing conditions given 1st dose</v>
+        <v>Closing balance - Vaccine 2 (vials)</v>
       </c>
       <c r="D62" s="4" t="str">
-        <v>CVX_PEOPLE_WITH_EXISTING_CONDITIONS_1ST_DOSE</v>
+        <v>CVC_CLOSING_BALANCE_VACCINE2_VIALS</v>
       </c>
       <c r="E62" s="4" t="str">
-        <v>People with existing medical conditions given 1st dose</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="F62" s="4" t="str">
-        <v>Target people with existing medical conditions given 1st dose</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="G62" s="4" t="str">
         <v>1</v>
@@ -4074,7 +4415,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I62" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J62" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4082,31 +4423,31 @@
     </row>
     <row r="63">
       <c r="A63" s="5" t="str">
-        <v>QH43B8PD9V5</v>
+        <v>N4O2KBFP7Ze</v>
       </c>
       <c r="B63" s="5" t="str">
-        <v>[CONFIG] COVAX - Proportion of target essential workers given 1st dose</v>
+        <v>[CONFIG] COVAC - Received syringes with needle 1ml</v>
       </c>
       <c r="C63" s="5" t="str">
-        <v>Target essential workers who received 1st dose (%)</v>
+        <v>Received syringes with needle 1ml</v>
       </c>
       <c r="D63" s="5" t="str">
-        <v>CVX_ESS_WORKERS_GIVEN_1ST_DOSE_%</v>
+        <v>CVC_RECEIVED_SYRINGES_WITH_ NEEDLE_1ML</v>
       </c>
       <c r="E63" s="5" t="str">
-        <v>Proportion of essential workers given 1st dose</v>
+        <v>Received at the centre</v>
       </c>
       <c r="F63" s="5" t="str">
-        <v>Target essential workers who received 1st dose</v>
+        <v>Received syringes with needle 1ml</v>
       </c>
       <c r="G63" s="5" t="str">
-        <v>Target essential workers</v>
+        <v>1</v>
       </c>
       <c r="H63" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I63" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J63" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4114,22 +4455,22 @@
     </row>
     <row r="64">
       <c r="A64" s="4" t="str">
-        <v>QkFx0Jr0EST</v>
+        <v>n5u7G8DQYNJ</v>
       </c>
       <c r="B64" s="4" t="str">
-        <v>[CONFIG] COVAX - Discarded cold box</v>
+        <v>[CONFIG] COVAC - AEFIs by vaccine and severity</v>
       </c>
       <c r="C64" s="4" t="str">
-        <v>Discarded cold box</v>
+        <v>AEFIs by vaccine and severity</v>
       </c>
       <c r="D64" s="4" t="str">
-        <v>CVX_DISCARDED_COLD_BOXES</v>
+        <v>CVC_AEFIS_BY_VACCINE_AND_SEVERITY</v>
       </c>
       <c r="E64" s="4" t="str">
-        <v>Discarded due to expiry, damage, contamination and etc</v>
+        <v>AEFIs by vaccine and severity</v>
       </c>
       <c r="F64" s="4" t="str">
-        <v>Discarded cold boxes</v>
+        <v>AEFIs by vaccine and severity</v>
       </c>
       <c r="G64" s="4" t="str">
         <v>1</v>
@@ -4138,7 +4479,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I64" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J64" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4146,22 +4487,22 @@
     </row>
     <row r="65">
       <c r="A65" s="5" t="str">
-        <v>qM3QXxyUS64</v>
+        <v>nO5aJYGv9qb</v>
       </c>
       <c r="B65" s="5" t="str">
-        <v>[CONFIG] COVAX - Redistributed safety box</v>
+        <v>[CONFIG] COVAC - Received - Vaccine 3 (doses)</v>
       </c>
       <c r="C65" s="5" t="str">
-        <v>Redistributed safety box</v>
+        <v>Received - Vaccine 3 (doses)</v>
       </c>
       <c r="D65" s="5" t="str">
-        <v>CVX_REDISTRIBUTED_SAFETY_BOXES</v>
+        <v>CVC_RECEIVED_VACCINE3_DOSES</v>
       </c>
       <c r="E65" s="5" t="str">
-        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
+        <v>Received at the centre</v>
       </c>
       <c r="F65" s="5" t="str">
-        <v>Redistributed safety boxes</v>
+        <v>Received - Vaccine3 doses</v>
       </c>
       <c r="G65" s="5" t="str">
         <v>1</v>
@@ -4170,7 +4511,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I65" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J65" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4178,22 +4519,22 @@
     </row>
     <row r="66">
       <c r="A66" s="4" t="str">
-        <v>QZritWA9epc</v>
+        <v>NtkYtrGGzGV</v>
       </c>
       <c r="B66" s="4" t="str">
-        <v>[CONFIG] COVAX - Redistributed - Vaccine2 doses</v>
+        <v>[CONFIG] COVAC - Essential workers given 1st dose</v>
       </c>
       <c r="C66" s="4" t="str">
-        <v>Redistributed - Vaccine2 doses</v>
+        <v>Essential workers given 1st dose</v>
       </c>
       <c r="D66" s="4" t="str">
-        <v>CVX_REDISTRIBUTED_VACCINE2_DOSES</v>
+        <v>CVC_ESSENTIAL_WORKERS_1ST_DOSE</v>
       </c>
       <c r="E66" s="4" t="str">
-        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
+        <v>Essential workers given 1st dose</v>
       </c>
       <c r="F66" s="4" t="str">
-        <v>Redistributed - Vaccine2 doses</v>
+        <v>Essential workers given 1st dose</v>
       </c>
       <c r="G66" s="4" t="str">
         <v>1</v>
@@ -4202,7 +4543,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I66" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J66" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4210,22 +4551,22 @@
     </row>
     <row r="67">
       <c r="A67" s="5" t="str">
-        <v>RkC5nQeFp1f</v>
+        <v>o2sAk0ai7X9</v>
       </c>
       <c r="B67" s="5" t="str">
-        <v>[CONFIG] COVAX - Doses per vial - Vaccine 2</v>
+        <v>[CONFIG] COVAC - Stock at hand - Vaccine 1 (doses)</v>
       </c>
       <c r="C67" s="5" t="str">
-        <v>Doses per vial - Vaccine 2</v>
+        <v>Stock at hand - Vaccine 1 (doses)</v>
       </c>
       <c r="D67" s="5" t="str">
-        <v>CVX_DOSES_IN_A_VIAL_VACCINE2</v>
+        <v>CVC_STOCK_AT_HAND_VACCINE1_DOSES</v>
       </c>
       <c r="E67" s="5" t="str">
-        <v>Number of doses in a vial - Vaccine2</v>
+        <v>Stock at hand at the center after a physical stock count</v>
       </c>
       <c r="F67" s="5" t="str">
-        <v>Doses in a vial - Vaccine2</v>
+        <v>Stock at hand - Vaccine 1 doses</v>
       </c>
       <c r="G67" s="5" t="str">
         <v>1</v>
@@ -4234,7 +4575,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I67" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J67" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4242,31 +4583,31 @@
     </row>
     <row r="68">
       <c r="A68" s="4" t="str">
-        <v>rms4sR9JeYV</v>
+        <v>O9HPe4hooiB</v>
       </c>
       <c r="B68" s="4" t="str">
-        <v>[CONFIG] COVAX - Proportion of target people with underlying medical conditions given 1st dose</v>
+        <v>[CONFIG] COVAC - Doses discarded by reasons</v>
       </c>
       <c r="C68" s="4" t="str">
-        <v>People with existing conditions given 1st dose (%)</v>
+        <v>Doses discarded by reasons</v>
       </c>
       <c r="D68" s="4" t="str">
-        <v>CVX_EXISTING_CONDS_GIVEN_1ST_DOSE_%</v>
+        <v>CVC_DOSES_DISCARDED_BY_REASONS</v>
       </c>
       <c r="E68" s="4" t="str">
-        <v>Proportion of target people with existing medical conditions given 1st dose</v>
+        <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F68" s="4" t="str">
-        <v>Target people with existing conditions given 1st dose</v>
+        <v>Vials discarded by reasons</v>
       </c>
       <c r="G68" s="4" t="str">
-        <v>Target people with existing medical conditions</v>
+        <v>1</v>
       </c>
       <c r="H68" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I68" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J68" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4274,22 +4615,22 @@
     </row>
     <row r="69">
       <c r="A69" s="5" t="str">
-        <v>RneeVTogdGr</v>
+        <v>oB4qA3ZKs89</v>
       </c>
       <c r="B69" s="5" t="str">
-        <v>[CONFIG] COVAX - Opening balance vaccination cards</v>
+        <v>[CONFIG] COVAC - People given 1st dose</v>
       </c>
       <c r="C69" s="5" t="str">
-        <v>Opening balance vaccination cards</v>
+        <v>People given 1st dose</v>
       </c>
       <c r="D69" s="5" t="str">
-        <v>CVX_OPENING_BALANCE_CARDS</v>
+        <v>CVC_PEOPLE_1ST_DOSE</v>
       </c>
       <c r="E69" s="5" t="str">
-        <v>Opening balance equals the physical 'stock at hand count' of the previous period</v>
+        <v>People given 1st dose</v>
       </c>
       <c r="F69" s="5" t="str">
-        <v>Opening balance vaccination cards</v>
+        <v>People given 1st dose</v>
       </c>
       <c r="G69" s="5" t="str">
         <v>1</v>
@@ -4298,7 +4639,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I69" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J69" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4306,31 +4647,31 @@
     </row>
     <row r="70">
       <c r="A70" s="4" t="str">
-        <v>SBiW9NeXZeE</v>
+        <v>OkkYt2JpIZ8</v>
       </c>
       <c r="B70" s="4" t="str">
-        <v>[CONFIG] COVAX - Drop out rates among all people targeted</v>
+        <v>[CONFIG] COVAC - Vaccine 3 uptake (%)</v>
       </c>
       <c r="C70" s="4" t="str">
-        <v>Drop out rates among all (%)</v>
+        <v>Vaccine 3 uptake (%)</v>
       </c>
       <c r="D70" s="4" t="str">
-        <v>CVX_DROPOUT_RATES_AMONG_ALL%</v>
+        <v>CVC_VACCINE3_UPTAKE_%</v>
       </c>
       <c r="E70" s="4" t="str">
-        <v>(1st dose - 2nd dose)/1st dose</v>
+        <v>Proportion of people given doses of vaccine3</v>
       </c>
       <c r="F70" s="4" t="str">
-        <v>Given 1st dose - Given second dose</v>
+        <v>Vaccine3 doses given</v>
       </c>
       <c r="G70" s="4" t="str">
-        <v>Given 1st dose</v>
+        <v>Total doses of all vaccines given</v>
       </c>
       <c r="H70" s="4" t="str">
         <v>Percentage</v>
       </c>
       <c r="I70" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J70" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4338,31 +4679,31 @@
     </row>
     <row r="71">
       <c r="A71" s="5" t="str">
-        <v>sCEtYxBxsIc</v>
+        <v>orUc26gd0BF</v>
       </c>
       <c r="B71" s="5" t="str">
-        <v>[CONFIG] COVAX - Drop out rates among people with underlying medical conditions(%)</v>
+        <v>[CONFIG] COVAC - Closing balance - Vaccine 1 (vials)</v>
       </c>
       <c r="C71" s="5" t="str">
-        <v>Drop out rates - people with underlying cond (%)</v>
+        <v>Closing balance - Vaccine 1 (vials)</v>
       </c>
       <c r="D71" s="5" t="str">
-        <v>CVX_DROPOUT_RATES_AMONG_UNDERLYING_CONDs_%</v>
+        <v>CVC_CLOSING_BALANCE_VACCINE1_VIALS</v>
       </c>
       <c r="E71" s="5" t="str">
-        <v>(1st dose - 2nd dose)/1st dose</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="F71" s="5" t="str">
-        <v>Given 1st dose - Given second dose</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="G71" s="5" t="str">
-        <v>Given 1st dose</v>
+        <v>1</v>
       </c>
       <c r="H71" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I71" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J71" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4370,22 +4711,22 @@
     </row>
     <row r="72">
       <c r="A72" s="4" t="str">
-        <v>sDWeBvf4rrQ</v>
+        <v>OxPqWqw6hL6</v>
       </c>
       <c r="B72" s="4" t="str">
-        <v>[CONFIG] COVAX - Received - Vaccine 1 (doses)</v>
+        <v>[CONFIG] COVAC - Frontline healthcare workers given 1st dose</v>
       </c>
       <c r="C72" s="4" t="str">
-        <v>Received - Vaccine 1 (doses)</v>
+        <v>Frontline healthcare workers given 1st dose</v>
       </c>
       <c r="D72" s="4" t="str">
-        <v>CVX_RECEIVED_VACCINE1_DOSES</v>
+        <v>CVC_FRONTLINE_HCW_1ST_DOSE</v>
       </c>
       <c r="E72" s="4" t="str">
-        <v>Received at the centre</v>
+        <v>Frontline healthcare workers given 1st dose</v>
       </c>
       <c r="F72" s="4" t="str">
-        <v>Received - Vaccine1 doses</v>
+        <v>Frontline healthcare workers given 1st dose</v>
       </c>
       <c r="G72" s="4" t="str">
         <v>1</v>
@@ -4394,7 +4735,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I72" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J72" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4402,31 +4743,31 @@
     </row>
     <row r="73">
       <c r="A73" s="5" t="str">
-        <v>SvxFYXEwEwh</v>
+        <v>pqED8vVfjlf</v>
       </c>
       <c r="B73" s="5" t="str">
-        <v>[CONFIG] COVAX - Vaccine stock reporting rates on time</v>
+        <v>[CONFIG] COVAC - Essential workers given booster dose</v>
       </c>
       <c r="C73" s="5" t="str">
-        <v>Vaccine stock reporting rates on time (%)</v>
+        <v>Essential workers given booster dose</v>
       </c>
       <c r="D73" s="5" t="str">
-        <v>CVX_VAC_STOCK_REPORTING_RATE_ONTIME_%</v>
+        <v>CVC_ESSENTIAL_WORKERS_BOOSTER_DOSE</v>
       </c>
       <c r="E73" s="5" t="str">
-        <v>Proportion of all vaccination centres that submitted their report on time</v>
+        <v>Essential workers given booster dose</v>
       </c>
       <c r="F73" s="5" t="str">
-        <v>Actual reports received on time</v>
+        <v>Essential workers given booster dose</v>
       </c>
       <c r="G73" s="5" t="str">
-        <v>Actual reports received</v>
+        <v>1</v>
       </c>
       <c r="H73" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I73" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J73" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4434,22 +4775,22 @@
     </row>
     <row r="74">
       <c r="A74" s="4" t="str">
-        <v>t4hpTf9Jo4a</v>
+        <v>q2NHWRFKJIJ</v>
       </c>
       <c r="B74" s="4" t="str">
-        <v>[CONFIG] COVAX - Discarded closed vials - Vaccine 3 (doses)</v>
+        <v>[CONFIG] COVAC - Redistributed syringes with needle 1ml</v>
       </c>
       <c r="C74" s="4" t="str">
-        <v>Discarded closed vials - Vaccine 3 (doses)</v>
+        <v>Redistributed syringes with needle 1ml</v>
       </c>
       <c r="D74" s="4" t="str">
-        <v>CVX_DISCARDED_VACCINE3_DOSES</v>
+        <v>CVC_REDISTRIBUTED_SYRINGES_WITH_ NEEDLE_1ML</v>
       </c>
       <c r="E74" s="4" t="str">
-        <v>Discarded due to expiry, damage, contamination and etc</v>
+        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
       </c>
       <c r="F74" s="4" t="str">
-        <v>Discarded - Vaccine3 doses</v>
+        <v>Redistributed syringes with needle 1ml</v>
       </c>
       <c r="G74" s="4" t="str">
         <v>1</v>
@@ -4458,7 +4799,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I74" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J74" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4466,22 +4807,22 @@
     </row>
     <row r="75">
       <c r="A75" s="5" t="str">
-        <v>tiFvalDGy3M</v>
+        <v>Q5CvJIeZAeh</v>
       </c>
       <c r="B75" s="5" t="str">
-        <v>[CONFIG] COVAX - Redistributed - Vaccine3 doses</v>
+        <v>[CONFIG] COVAC - Redistributed cold box</v>
       </c>
       <c r="C75" s="5" t="str">
-        <v>Redistributed - Vaccine3 doses</v>
+        <v>Redistributed cold box</v>
       </c>
       <c r="D75" s="5" t="str">
-        <v>CVX_REDISTRIBUTED_VACCINE3_DOSES</v>
+        <v>CVC_REDISTRIBUTED_COLD_BOXES</v>
       </c>
       <c r="E75" s="5" t="str">
         <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
       </c>
       <c r="F75" s="5" t="str">
-        <v>Redistributed - Vaccine3 doses</v>
+        <v>Redistributed cold boxes</v>
       </c>
       <c r="G75" s="5" t="str">
         <v>1</v>
@@ -4490,7 +4831,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I75" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J75" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4498,22 +4839,22 @@
     </row>
     <row r="76">
       <c r="A76" s="4" t="str">
-        <v>TiylZPMlukw</v>
+        <v>q7a0Mh2fRC1</v>
       </c>
       <c r="B76" s="4" t="str">
-        <v>[CONFIG] COVAX - Received vials</v>
+        <v>[CONFIG] COVAC - People with existing medical conditions given 1st dose</v>
       </c>
       <c r="C76" s="4" t="str">
-        <v>Received vials</v>
+        <v>People with existing conditions given 1st dose</v>
       </c>
       <c r="D76" s="4" t="str">
-        <v>CVX_RECEIVED_VIALS</v>
+        <v>CVC_PEOPLE_WITH_EXISTING_CONDITIONS_1ST_DOSE</v>
       </c>
       <c r="E76" s="4" t="str">
-        <v>Received at the centre</v>
+        <v>People with existing medical conditions given 1st dose</v>
       </c>
       <c r="F76" s="4" t="str">
-        <v>Received vials</v>
+        <v>People with existing medical conditions given 1st dose</v>
       </c>
       <c r="G76" s="4" t="str">
         <v>1</v>
@@ -4522,7 +4863,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I76" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J76" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4530,31 +4871,31 @@
     </row>
     <row r="77">
       <c r="A77" s="5" t="str">
-        <v>TJqiY5fLP8C</v>
+        <v>QH43B8PD9V5</v>
       </c>
       <c r="B77" s="5" t="str">
-        <v>[CONFIG] COVAX - Target population</v>
+        <v>[CONFIG] COVAC - Proportion of target essential workers given 1st dose</v>
       </c>
       <c r="C77" s="5" t="str">
-        <v>Target population</v>
+        <v>Target essential workers who received 1st dose (%)</v>
       </c>
       <c r="D77" s="5" t="str">
-        <v>CVX_TARGET_POPULATION</v>
+        <v>CVC_ESS_WORKERS_GIVEN_1ST_DOSE_%</v>
       </c>
       <c r="E77" s="5" t="str">
-        <v>Target population</v>
+        <v>Proportion of essential workers given 1st dose</v>
       </c>
       <c r="F77" s="5" t="str">
-        <v>Target population</v>
+        <v>Target essential workers who received 1st dose</v>
       </c>
       <c r="G77" s="5" t="str">
-        <v>1</v>
+        <v>Target essential workers</v>
       </c>
       <c r="H77" s="5" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I77" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J77" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4562,31 +4903,31 @@
     </row>
     <row r="78">
       <c r="A78" s="4" t="str">
-        <v>U7Xq3jiK8Fy</v>
+        <v>QkFx0Jr0EST</v>
       </c>
       <c r="B78" s="4" t="str">
-        <v>[CONFIG] COVAX - Proportion of target people given 1st dose</v>
+        <v>[CONFIG] COVAC - Discarded cold box</v>
       </c>
       <c r="C78" s="4" t="str">
-        <v>Target people given 1st dose (%)</v>
+        <v>Discarded cold box</v>
       </c>
       <c r="D78" s="4" t="str">
-        <v>CVX_PEOPLE_GIVEN_1ST_DOSE_%</v>
+        <v>CVC_DISCARDED_COLD_BOXES</v>
       </c>
       <c r="E78" s="4" t="str">
-        <v>Proportion of target people given 1st dose</v>
+        <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F78" s="4" t="str">
-        <v>Target people given 1st dose</v>
+        <v>Discarded cold boxes</v>
       </c>
       <c r="G78" s="4" t="str">
-        <v>Target population</v>
+        <v>1</v>
       </c>
       <c r="H78" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I78" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J78" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4594,22 +4935,22 @@
     </row>
     <row r="79">
       <c r="A79" s="5" t="str">
-        <v>uhZxrsrhZuy</v>
+        <v>qM3QXxyUS64</v>
       </c>
       <c r="B79" s="5" t="str">
-        <v>[CONFIG] COVAX - Closing balance vials</v>
+        <v>[CONFIG] COVAC - Redistributed safety box</v>
       </c>
       <c r="C79" s="5" t="str">
-        <v>Closing balance vials</v>
+        <v>Redistributed safety box</v>
       </c>
       <c r="D79" s="5" t="str">
-        <v>CVX_CLOSING_BALANCE_VIALS</v>
+        <v>CVC_REDISTRIBUTED_SAFETY_BOXES</v>
       </c>
       <c r="E79" s="5" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
       </c>
       <c r="F79" s="5" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Redistributed safety boxes</v>
       </c>
       <c r="G79" s="5" t="str">
         <v>1</v>
@@ -4618,7 +4959,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I79" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J79" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4626,22 +4967,22 @@
     </row>
     <row r="80">
       <c r="A80" s="4" t="str">
-        <v>ujhVVQlwTB0</v>
+        <v>QZritWA9epc</v>
       </c>
       <c r="B80" s="4" t="str">
-        <v>[CONFIG] COVAX - Opening balance safety box</v>
+        <v>[CONFIG] COVAC - Redistributed - Vaccine2 doses</v>
       </c>
       <c r="C80" s="4" t="str">
-        <v>Opening balance safety box</v>
+        <v>Redistributed - Vaccine2 doses</v>
       </c>
       <c r="D80" s="4" t="str">
-        <v>CVX_OPENING_BALANCE_SAFETY_BOXES</v>
+        <v>CVC_REDISTRIBUTED_VACCINE2_DOSES</v>
       </c>
       <c r="E80" s="4" t="str">
-        <v>Opening balance equals the physical 'stock at hand count' of the previous period</v>
+        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
       </c>
       <c r="F80" s="4" t="str">
-        <v>Opening balance safety box</v>
+        <v>Redistributed - Vaccine2 doses</v>
       </c>
       <c r="G80" s="4" t="str">
         <v>1</v>
@@ -4650,7 +4991,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I80" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J80" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4658,22 +4999,22 @@
     </row>
     <row r="81">
       <c r="A81" s="5" t="str">
-        <v>UjzjMQpG41z</v>
+        <v>RkC5nQeFp1f</v>
       </c>
       <c r="B81" s="5" t="str">
-        <v>[CONFIG] COVAX - Stock at hand cold box</v>
+        <v>[CONFIG] COVAC - Doses per vial - Vaccine 2</v>
       </c>
       <c r="C81" s="5" t="str">
-        <v>Stock at hand cold box</v>
+        <v>Doses per vial - Vaccine 2</v>
       </c>
       <c r="D81" s="5" t="str">
-        <v>CVX_STOCK_AT_HAND_COLD_BOX</v>
+        <v>CVC_DOSES_IN_A_VIAL_VACCINE2</v>
       </c>
       <c r="E81" s="5" t="str">
-        <v>Stock at hand at the center after a physical stock count</v>
+        <v>Number of doses in a vial - Vaccine2</v>
       </c>
       <c r="F81" s="5" t="str">
-        <v>Stock at hand cold boxes</v>
+        <v>Doses in a vial - Vaccine2</v>
       </c>
       <c r="G81" s="5" t="str">
         <v>1</v>
@@ -4682,7 +5023,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I81" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J81" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4690,31 +5031,31 @@
     </row>
     <row r="82">
       <c r="A82" s="4" t="str">
-        <v>UsMLXbWhhEj</v>
+        <v>rms4sR9JeYV</v>
       </c>
       <c r="B82" s="4" t="str">
-        <v>[CONFIG] COVAX - Distributed cold box</v>
+        <v>[CONFIG] COVAC - Proportion of target people with underlying medical conditions given 1st dose</v>
       </c>
       <c r="C82" s="4" t="str">
-        <v>Distributed cold box</v>
+        <v>People with existing conditions given 1st dose (%)</v>
       </c>
       <c r="D82" s="4" t="str">
-        <v>CVX_DISTRIBUTED_COLD_BOXES</v>
+        <v>CVC_EXISTING_CONDS_GIVEN_1ST_DOSE_%</v>
       </c>
       <c r="E82" s="4" t="str">
-        <v>Distributed to people receiving the items</v>
+        <v>Proportion of target people with existing medical conditions given 1st dose</v>
       </c>
       <c r="F82" s="4" t="str">
-        <v>Distributed cold boxes</v>
+        <v>Target people with existing conditions given 1st dose</v>
       </c>
       <c r="G82" s="4" t="str">
-        <v>1</v>
+        <v>Target people with existing medical conditions</v>
       </c>
       <c r="H82" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I82" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J82" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4722,22 +5063,22 @@
     </row>
     <row r="83">
       <c r="A83" s="5" t="str">
-        <v>V735nRG647O</v>
+        <v>RneeVTogdGr</v>
       </c>
       <c r="B83" s="5" t="str">
-        <v>[CONFIG] COVAX - Discarded syringes with needle 1ml</v>
+        <v>[CONFIG] COVAC - Opening balance vaccination cards</v>
       </c>
       <c r="C83" s="5" t="str">
-        <v>Discarded syringes with needle 1ml</v>
+        <v>Opening balance vaccination cards</v>
       </c>
       <c r="D83" s="5" t="str">
-        <v>CVX_DISCARDED_SYRINGES_WITH_ NEEDLE_1ML</v>
+        <v>CVC_OPENING_BALANCE_CARDS</v>
       </c>
       <c r="E83" s="5" t="str">
-        <v>Discarded due to expiry, damage, contamination and etc</v>
+        <v>Opening balance equals the physical 'stock at hand count' of the previous period</v>
       </c>
       <c r="F83" s="5" t="str">
-        <v>Discarded syringes with needle 1ml</v>
+        <v>Opening balance vaccination cards</v>
       </c>
       <c r="G83" s="5" t="str">
         <v>1</v>
@@ -4746,7 +5087,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I83" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J83" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4754,31 +5095,31 @@
     </row>
     <row r="84">
       <c r="A84" s="4" t="str">
-        <v>V8XFjC7JHtx</v>
+        <v>SBiW9NeXZeE</v>
       </c>
       <c r="B84" s="4" t="str">
-        <v>[CONFIG] COVAX - Distributed vaccination cards</v>
+        <v>[CONFIG] COVAC - Drop out rates among all people targeted</v>
       </c>
       <c r="C84" s="4" t="str">
-        <v>Distributed vaccination cards</v>
+        <v>Drop out rates among all (%)</v>
       </c>
       <c r="D84" s="4" t="str">
-        <v>CVX_DISTRIBUTED_CARDS</v>
+        <v>CVC_DROPOUT_RATES_AMONG_ALL%</v>
       </c>
       <c r="E84" s="4" t="str">
-        <v>Distributed to people receiving the items</v>
+        <v>(1st dose - 2nd dose)/1st dose</v>
       </c>
       <c r="F84" s="4" t="str">
-        <v>Distributed vaccination cards</v>
+        <v>Given 1st dose - Given second dose</v>
       </c>
       <c r="G84" s="4" t="str">
-        <v>1</v>
+        <v>Given 1st dose</v>
       </c>
       <c r="H84" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I84" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J84" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4786,31 +5127,31 @@
     </row>
     <row r="85">
       <c r="A85" s="5" t="str">
-        <v>vBBejr9Qm9y</v>
+        <v>sCEtYxBxsIc</v>
       </c>
       <c r="B85" s="5" t="str">
-        <v>[CONFIG] COVAX - Closing balance - Vaccine 3 (vials)</v>
+        <v>[CONFIG] COVAC - Drop out rates among people with underlying medical conditions(%)</v>
       </c>
       <c r="C85" s="5" t="str">
-        <v>Closing balance - Vaccine 3 (vials)</v>
+        <v>Drop out rates - people with underlying cond (%)</v>
       </c>
       <c r="D85" s="5" t="str">
-        <v>CVX_CLOSING_BALANCE_VACCINE3_VIALS</v>
+        <v>CVC_DROPOUT_RATES_AMONG_UNDERLYING_CONDs_%</v>
       </c>
       <c r="E85" s="5" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>(1st dose - 2nd dose)/1st dose</v>
       </c>
       <c r="F85" s="5" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Given 1st dose - Given second dose</v>
       </c>
       <c r="G85" s="5" t="str">
-        <v>1</v>
+        <v>Given 1st dose</v>
       </c>
       <c r="H85" s="5" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I85" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J85" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4818,22 +5159,22 @@
     </row>
     <row r="86">
       <c r="A86" s="4" t="str">
-        <v>vBJQTfzca4x</v>
+        <v>sDWeBvf4rrQ</v>
       </c>
       <c r="B86" s="4" t="str">
-        <v>[CONFIG] COVAX - Frontline healthcare workers given booster dose</v>
+        <v>[CONFIG] COVAC - Received - Vaccine 1 (doses)</v>
       </c>
       <c r="C86" s="4" t="str">
-        <v>Frontline healthcare workers given booster dose</v>
+        <v>Received - Vaccine 1 (doses)</v>
       </c>
       <c r="D86" s="4" t="str">
-        <v>CVX_FRONTLINE_HCW_BOOSTER_DOSE</v>
+        <v>CVC_RECEIVED_VACCINE1_DOSES</v>
       </c>
       <c r="E86" s="4" t="str">
-        <v>Frontline healthcare workers given booster dose</v>
+        <v>Received at the centre</v>
       </c>
       <c r="F86" s="4" t="str">
-        <v>Frontline healthcare workers given booster dose</v>
+        <v>Received - Vaccine1 doses</v>
       </c>
       <c r="G86" s="4" t="str">
         <v>1</v>
@@ -4842,7 +5183,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I86" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J86" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4850,22 +5191,22 @@
     </row>
     <row r="87">
       <c r="A87" s="5" t="str">
-        <v>VFdnTyYvS5c</v>
+        <v>sQaCAFVXOgq</v>
       </c>
       <c r="B87" s="5" t="str">
-        <v>[CONFIG] COVAX - Stock at hand vials</v>
+        <v>[CONFIG] COVAC - Stockout days dilution syringes</v>
       </c>
       <c r="C87" s="5" t="str">
-        <v>Stock at hand vials</v>
+        <v>Stockout days dilution syringes</v>
       </c>
       <c r="D87" s="5" t="str">
-        <v>CVX_STOCK_AT_HAND_VIALS</v>
+        <v>CVC_STOCKOUT_DAYS_DILUTION_SYRINGES</v>
       </c>
       <c r="E87" s="5" t="str">
-        <v>Stock at hand at the center after a physical stock count</v>
+        <v>Days the facility was stocked out of the item</v>
       </c>
       <c r="F87" s="5" t="str">
-        <v>Stock at hand vials</v>
+        <v>Stockout days dilution syringes</v>
       </c>
       <c r="G87" s="5" t="str">
         <v>1</v>
@@ -4874,7 +5215,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I87" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J87" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4882,31 +5223,31 @@
     </row>
     <row r="88">
       <c r="A88" s="4" t="str">
-        <v>vn6JSZdN0Gq</v>
+        <v>SvxFYXEwEwh</v>
       </c>
       <c r="B88" s="4" t="str">
-        <v>[CONFIG] COVAX - Stockout days cold box</v>
+        <v>[CONFIG] COVAC - Vaccine stock reporting rates on time</v>
       </c>
       <c r="C88" s="4" t="str">
-        <v>Stockout days cold box</v>
+        <v>Vaccine stock reporting rates on time (%)</v>
       </c>
       <c r="D88" s="4" t="str">
-        <v>CVX_STOCKOUT_DAYS_COLD_BOX</v>
+        <v>CVC_VAC_STOCK_REPORTING_RATE_ONTIME_%</v>
       </c>
       <c r="E88" s="4" t="str">
-        <v>Days the facility was stocked out of the item</v>
+        <v>Proportion of all vaccination centres that submitted their report on time</v>
       </c>
       <c r="F88" s="4" t="str">
-        <v>Stockout days cold boxes</v>
+        <v>Actual reports received on time</v>
       </c>
       <c r="G88" s="4" t="str">
-        <v>1</v>
+        <v>Actual reports received</v>
       </c>
       <c r="H88" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I88" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J88" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4914,22 +5255,22 @@
     </row>
     <row r="89">
       <c r="A89" s="5" t="str">
-        <v>w42k9kZegoW</v>
+        <v>t4hpTf9Jo4a</v>
       </c>
       <c r="B89" s="5" t="str">
-        <v>[CONFIG] COVAX - Distributed safety box</v>
+        <v>[CONFIG] COVAC - Discarded closed vials - Vaccine 3 (doses)</v>
       </c>
       <c r="C89" s="5" t="str">
-        <v>Distributed safety box</v>
+        <v>Discarded closed vials - Vaccine 3 (doses)</v>
       </c>
       <c r="D89" s="5" t="str">
-        <v>CVX_DISTRIBUTED_SAFETY_BOXES</v>
+        <v>CVC_DISCARDED_VACCINE3_DOSES</v>
       </c>
       <c r="E89" s="5" t="str">
-        <v>Distributed to people receiving the items</v>
+        <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F89" s="5" t="str">
-        <v>Distributed safety boxes</v>
+        <v>Discarded - Vaccine3 doses</v>
       </c>
       <c r="G89" s="5" t="str">
         <v>1</v>
@@ -4938,7 +5279,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I89" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J89" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4946,22 +5287,22 @@
     </row>
     <row r="90">
       <c r="A90" s="4" t="str">
-        <v>wassnxEhpwM</v>
+        <v>tiFvalDGy3M</v>
       </c>
       <c r="B90" s="4" t="str">
-        <v>[CONFIG] COVAX - Target essential workers</v>
+        <v>[CONFIG] COVAC - Redistributed - Vaccine3 doses</v>
       </c>
       <c r="C90" s="4" t="str">
-        <v>Target essential workers</v>
+        <v>Redistributed - Vaccine3 doses</v>
       </c>
       <c r="D90" s="4" t="str">
-        <v>CVX_TARGET_ESSENTIAL_WORKERS</v>
+        <v>CVC_REDISTRIBUTED_VACCINE3_DOSES</v>
       </c>
       <c r="E90" s="4" t="str">
-        <v>Target essential workers</v>
+        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
       </c>
       <c r="F90" s="4" t="str">
-        <v>Target essential workers</v>
+        <v>Redistributed - Vaccine3 doses</v>
       </c>
       <c r="G90" s="4" t="str">
         <v>1</v>
@@ -4970,7 +5311,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I90" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J90" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -4978,22 +5319,22 @@
     </row>
     <row r="91">
       <c r="A91" s="5" t="str">
-        <v>wcMsZNh0GO0</v>
+        <v>TiylZPMlukw</v>
       </c>
       <c r="B91" s="5" t="str">
-        <v>[CONFIG] COVAX - Received safety box</v>
+        <v>[CONFIG] COVAC - Received vials</v>
       </c>
       <c r="C91" s="5" t="str">
-        <v>Received safety box</v>
+        <v>Received vials</v>
       </c>
       <c r="D91" s="5" t="str">
-        <v>CVX_RECEIVED_SAFETY_BOX</v>
+        <v>CVC_RECEIVED_VIALS</v>
       </c>
       <c r="E91" s="5" t="str">
         <v>Received at the centre</v>
       </c>
       <c r="F91" s="5" t="str">
-        <v>Received safety boxes</v>
+        <v>Received vials</v>
       </c>
       <c r="G91" s="5" t="str">
         <v>1</v>
@@ -5002,7 +5343,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I91" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J91" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5010,22 +5351,22 @@
     </row>
     <row r="92">
       <c r="A92" s="4" t="str">
-        <v>WMjFkieChKj</v>
+        <v>TJqiY5fLP8C</v>
       </c>
       <c r="B92" s="4" t="str">
-        <v>[CONFIG] COVAX - Stockout days - Vaccine 2 (vials)</v>
+        <v>[CONFIG] COVAC - Target population</v>
       </c>
       <c r="C92" s="4" t="str">
-        <v>Stockout days - Vaccine 2 (vials)</v>
+        <v>Target population</v>
       </c>
       <c r="D92" s="4" t="str">
-        <v>CVX_STOCKOUT_DAYS_VACCINE2_VIALS</v>
+        <v>CVC_TARGET_POPULATION</v>
       </c>
       <c r="E92" s="4" t="str">
-        <v>Days the centre was stocked out of the item</v>
+        <v>Target population</v>
       </c>
       <c r="F92" s="4" t="str">
-        <v>Stockout days - Vaccine2</v>
+        <v>Target population</v>
       </c>
       <c r="G92" s="4" t="str">
         <v>1</v>
@@ -5034,7 +5375,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I92" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J92" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5042,22 +5383,22 @@
     </row>
     <row r="93">
       <c r="A93" s="5" t="str">
-        <v>wpfKN5vD3QG</v>
+        <v>TS3T65BQ5mQ</v>
       </c>
       <c r="B93" s="5" t="str">
-        <v>[CONFIG] COVAX - Used vials</v>
+        <v>[CONFIG] COVAC - Closing balance dilution syringes</v>
       </c>
       <c r="C93" s="5" t="str">
-        <v>Used vials</v>
+        <v>Closing balance dilution syringes</v>
       </c>
       <c r="D93" s="5" t="str">
-        <v>CVX_USED_VIALS</v>
+        <v>CVC_CLOSING_BALANCE_DILUTION SYRINGES</v>
       </c>
       <c r="E93" s="5" t="str">
-        <v>(Opening balance+Received)-(Redistributed+Stock on hand)</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="F93" s="5" t="str">
-        <v>(Opening balance+Received)-(Redistributed+Stock on hand)</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="G93" s="5" t="str">
         <v>1</v>
@@ -5066,7 +5407,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I93" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J93" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5074,31 +5415,31 @@
     </row>
     <row r="94">
       <c r="A94" s="4" t="str">
-        <v>X2XYc8WNUY3</v>
+        <v>U7Xq3jiK8Fy</v>
       </c>
       <c r="B94" s="4" t="str">
-        <v>[CONFIG] COVAX - Distributed - Vaccine 1 (doses)</v>
+        <v>[CONFIG] COVAC - Proportion of target people given 1st dose</v>
       </c>
       <c r="C94" s="4" t="str">
-        <v>Distributed - Vaccine 1 (doses)</v>
+        <v>Target people given 1st dose (%)</v>
       </c>
       <c r="D94" s="4" t="str">
-        <v>CVX_DISTRIBUTED_VACCINE1_DOSES</v>
+        <v>CVC_PEOPLE_GIVEN_1ST_DOSE_%</v>
       </c>
       <c r="E94" s="4" t="str">
-        <v>Distributed to people receiving the vaccines</v>
+        <v>Proportion of target people given 1st dose</v>
       </c>
       <c r="F94" s="4" t="str">
-        <v>Distributed - Vaccine1 doses</v>
+        <v>Target people given 1st dose</v>
       </c>
       <c r="G94" s="4" t="str">
-        <v>1</v>
+        <v>Target population</v>
       </c>
       <c r="H94" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I94" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J94" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5106,22 +5447,22 @@
     </row>
     <row r="95">
       <c r="A95" s="5" t="str">
-        <v>XxmA3VOxZdM</v>
+        <v>uhZxrsrhZuy</v>
       </c>
       <c r="B95" s="5" t="str">
-        <v>[CONFIG] COVAX - Distributed - Vaccine 3 (doses)</v>
+        <v>[CONFIG] COVAC - Closing balance vials</v>
       </c>
       <c r="C95" s="5" t="str">
-        <v>Distributed - Vaccine 3 (doses)</v>
+        <v>Closing balance vials</v>
       </c>
       <c r="D95" s="5" t="str">
-        <v>CVX_DISTRIBUTED_VACCINE3_DOSES</v>
+        <v>CVC_CLOSING_BALANCE_VIALS</v>
       </c>
       <c r="E95" s="5" t="str">
-        <v>Distributed to people receiving the vaccines</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="F95" s="5" t="str">
-        <v>Distributed - Vaccine3 doses</v>
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
       </c>
       <c r="G95" s="5" t="str">
         <v>1</v>
@@ -5130,7 +5471,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I95" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J95" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5138,31 +5479,31 @@
     </row>
     <row r="96">
       <c r="A96" s="4" t="str">
-        <v>y7uIwU6x8VS</v>
+        <v>ujhVVQlwTB0</v>
       </c>
       <c r="B96" s="4" t="str">
-        <v>[CONFIG] COVAX - Vaccine 1 uptake (%)</v>
+        <v>[CONFIG] COVAC - Opening balance safety box</v>
       </c>
       <c r="C96" s="4" t="str">
-        <v>Vaccine 1 uptake (%)</v>
+        <v>Opening balance safety box</v>
       </c>
       <c r="D96" s="4" t="str">
-        <v>CVX_VACCINE1_UPTAKE_%</v>
+        <v>CVC_OPENING_BALANCE_SAFETY_BOXES</v>
       </c>
       <c r="E96" s="4" t="str">
-        <v>Proportion of people given doses of vaccine1</v>
+        <v>Opening balance equals the physical 'stock at hand count' of the previous period</v>
       </c>
       <c r="F96" s="4" t="str">
-        <v>Vaccine1 doses given</v>
+        <v>Opening balance safety box</v>
       </c>
       <c r="G96" s="4" t="str">
-        <v>Total doses of all vaccines given</v>
+        <v>1</v>
       </c>
       <c r="H96" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I96" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J96" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5170,22 +5511,22 @@
     </row>
     <row r="97">
       <c r="A97" s="5" t="str">
-        <v>yB3Vf9Quskj</v>
+        <v>UjzjMQpG41z</v>
       </c>
       <c r="B97" s="5" t="str">
-        <v>[CONFIG] COVAX - Discarded vaccination cards</v>
+        <v>[CONFIG] COVAC - Stock at hand cold box</v>
       </c>
       <c r="C97" s="5" t="str">
-        <v>Discarded vaccination cards</v>
+        <v>Stock at hand cold box</v>
       </c>
       <c r="D97" s="5" t="str">
-        <v>CVX_DISCARDED_CARDS</v>
+        <v>CVC_STOCK_AT_HAND_COLD_BOX</v>
       </c>
       <c r="E97" s="5" t="str">
-        <v>Discarded due to expiry, damage, contamination and etc</v>
+        <v>Stock at hand at the center after a physical stock count</v>
       </c>
       <c r="F97" s="5" t="str">
-        <v>Discarded vaccination cards</v>
+        <v>Stock at hand cold boxes</v>
       </c>
       <c r="G97" s="5" t="str">
         <v>1</v>
@@ -5194,7 +5535,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I97" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J97" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5202,31 +5543,31 @@
     </row>
     <row r="98">
       <c r="A98" s="4" t="str">
-        <v>Yb759ffWrrD</v>
+        <v>USByeCb5DTV</v>
       </c>
       <c r="B98" s="4" t="str">
-        <v>[CONFIG] COVAX - Vaccine usage rate (%)</v>
+        <v>[CONFIG] COVAC - Stockout days diluent</v>
       </c>
       <c r="C98" s="4" t="str">
-        <v>Vaccine usage rate (%)</v>
+        <v>Stockout days diluent</v>
       </c>
       <c r="D98" s="4" t="str">
-        <v>CVX_ VACCINE_USAGE_RATE_%</v>
+        <v>CVC_STOCKOUT_DAYS_DILUENT</v>
       </c>
       <c r="E98" s="4" t="str">
-        <v>(Distributed/Used)*100</v>
+        <v>Days the facility was stocked out of the item</v>
       </c>
       <c r="F98" s="4" t="str">
-        <v>Distributed vials</v>
+        <v>Stockout days diluent</v>
       </c>
       <c r="G98" s="4" t="str">
-        <v>Used vials</v>
+        <v>1</v>
       </c>
       <c r="H98" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I98" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J98" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5234,22 +5575,22 @@
     </row>
     <row r="99">
       <c r="A99" s="5" t="str">
-        <v>YBLUIQSCFPJ</v>
+        <v>UsMLXbWhhEj</v>
       </c>
       <c r="B99" s="5" t="str">
-        <v>[CONFIG] COVAX - Closing balance - Vaccine 3 (doses)</v>
+        <v>[CONFIG] COVAC - Distributed cold box</v>
       </c>
       <c r="C99" s="5" t="str">
-        <v>Closing balance - Vaccine 3 (doses)</v>
+        <v>Distributed cold box</v>
       </c>
       <c r="D99" s="5" t="str">
-        <v>CVX_CLOSING_BALANCE_VACCINE3_DOSES</v>
+        <v>CVC_DISTRIBUTED_COLD_BOXES</v>
       </c>
       <c r="E99" s="5" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Distributed to people receiving the items</v>
       </c>
       <c r="F99" s="5" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Distributed cold boxes</v>
       </c>
       <c r="G99" s="5" t="str">
         <v>1</v>
@@ -5258,7 +5599,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I99" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J99" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5266,22 +5607,22 @@
     </row>
     <row r="100">
       <c r="A100" s="4" t="str">
-        <v>yJ9izFBk1bB</v>
+        <v>V735nRG647O</v>
       </c>
       <c r="B100" s="4" t="str">
-        <v>[CONFIG] COVAX - Closing balance safety boxes</v>
+        <v>[CONFIG] COVAC - Discarded syringes with needle 1ml</v>
       </c>
       <c r="C100" s="4" t="str">
-        <v>Closing balance safety boxes</v>
+        <v>Discarded syringes with needle 1ml</v>
       </c>
       <c r="D100" s="4" t="str">
-        <v>CVX_CLOSING_BALANCE_SAFETY_BOXES</v>
+        <v>CVC_DISCARDED_SYRINGES_WITH_ NEEDLE_1ML</v>
       </c>
       <c r="E100" s="4" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Discarded due to expiry, damage, contamination and etc</v>
       </c>
       <c r="F100" s="4" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Discarded syringes with needle 1ml</v>
       </c>
       <c r="G100" s="4" t="str">
         <v>1</v>
@@ -5290,7 +5631,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I100" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J100" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5298,22 +5639,22 @@
     </row>
     <row r="101">
       <c r="A101" s="5" t="str">
-        <v>ymno3YCIqbh</v>
+        <v>V8XFjC7JHtx</v>
       </c>
       <c r="B101" s="5" t="str">
-        <v>[CONFIG] COVAX - Redistributed vaccination cards</v>
+        <v>[CONFIG] COVAC - Distributed vaccination cards</v>
       </c>
       <c r="C101" s="5" t="str">
-        <v>Redistributed vaccination cards</v>
+        <v>Distributed vaccination cards</v>
       </c>
       <c r="D101" s="5" t="str">
-        <v>CVX_REDISTRIBUTED_CARDS</v>
+        <v>CVC_DISTRIBUTED_CARDS</v>
       </c>
       <c r="E101" s="5" t="str">
-        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
+        <v>Distributed to people receiving the items</v>
       </c>
       <c r="F101" s="5" t="str">
-        <v>Redistributed vaccination cards</v>
+        <v>Distributed vaccination cards</v>
       </c>
       <c r="G101" s="5" t="str">
         <v>1</v>
@@ -5322,7 +5663,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I101" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J101" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5330,16 +5671,16 @@
     </row>
     <row r="102">
       <c r="A102" s="4" t="str">
-        <v>yuEFomZq3Fh</v>
+        <v>vBBejr9Qm9y</v>
       </c>
       <c r="B102" s="4" t="str">
-        <v>[CONFIG] COVAX - Closing balance cold boxes</v>
+        <v>[CONFIG] COVAC - Closing balance - Vaccine 3 (vials)</v>
       </c>
       <c r="C102" s="4" t="str">
-        <v>Closing balance cold boxes</v>
+        <v>Closing balance - Vaccine 3 (vials)</v>
       </c>
       <c r="D102" s="4" t="str">
-        <v>CVX_CLOSING_BALANCE_COLD_BOXES</v>
+        <v>CVC_CLOSING_BALANCE_VACCINE3_VIALS</v>
       </c>
       <c r="E102" s="4" t="str">
         <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
@@ -5354,7 +5695,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I102" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J102" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5362,22 +5703,22 @@
     </row>
     <row r="103">
       <c r="A103" s="5" t="str">
-        <v>z0zjaGkserE</v>
+        <v>vBJQTfzca4x</v>
       </c>
       <c r="B103" s="5" t="str">
-        <v>[CONFIG] COVAX - Discarded safety box</v>
+        <v>[CONFIG] COVAC - Frontline healthcare workers given booster dose</v>
       </c>
       <c r="C103" s="5" t="str">
-        <v>Discarded safety box</v>
+        <v>Frontline healthcare workers given booster dose</v>
       </c>
       <c r="D103" s="5" t="str">
-        <v>CVX_DISCARDED_SAFETY_BOXES</v>
+        <v>CVC_FRONTLINE_HCW_BOOSTER_DOSE</v>
       </c>
       <c r="E103" s="5" t="str">
-        <v>Discarded due to expiry, damage, contamination and etc</v>
+        <v>Frontline healthcare workers given booster dose</v>
       </c>
       <c r="F103" s="5" t="str">
-        <v>Discarded safety boxes</v>
+        <v>Frontline healthcare workers given booster dose</v>
       </c>
       <c r="G103" s="5" t="str">
         <v>1</v>
@@ -5386,7 +5727,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I103" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J103" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5394,22 +5735,22 @@
     </row>
     <row r="104">
       <c r="A104" s="4" t="str">
-        <v>zcN15JQUWc7</v>
+        <v>VFdnTyYvS5c</v>
       </c>
       <c r="B104" s="4" t="str">
-        <v>[CONFIG] COVAX - Stock at hand - Vaccine 2 (doses)</v>
+        <v>[CONFIG] COVAC - Stock at hand vials</v>
       </c>
       <c r="C104" s="4" t="str">
-        <v>Stock at hand - Vaccine 2 (doses)</v>
+        <v>Stock at hand vials</v>
       </c>
       <c r="D104" s="4" t="str">
-        <v>CVX_STOCK_AT_HAND_VACCINE2_DOSES</v>
+        <v>CVC_STOCK_AT_HAND_VIALS</v>
       </c>
       <c r="E104" s="4" t="str">
         <v>Stock at hand at the center after a physical stock count</v>
       </c>
       <c r="F104" s="4" t="str">
-        <v>Stock at hand - Vaccine 2 doses</v>
+        <v>Stock at hand vials</v>
       </c>
       <c r="G104" s="4" t="str">
         <v>1</v>
@@ -5418,7 +5759,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I104" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J104" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5426,22 +5767,22 @@
     </row>
     <row r="105">
       <c r="A105" s="5" t="str">
-        <v>zdTKcWr73Sk</v>
+        <v>vn6JSZdN0Gq</v>
       </c>
       <c r="B105" s="5" t="str">
-        <v>[CONFIG] COVAX - Stock at hand syringes with needle 1ml</v>
+        <v>[CONFIG] COVAC - Stockout days cold box</v>
       </c>
       <c r="C105" s="5" t="str">
-        <v>Stock at hand syringes with needle 1ml</v>
+        <v>Stockout days cold box</v>
       </c>
       <c r="D105" s="5" t="str">
-        <v>CVX_STOCK_AT_HAND_SYRINGES_WITH_ NEEDLE_1ML</v>
+        <v>CVC_STOCKOUT_DAYS_COLD_BOX</v>
       </c>
       <c r="E105" s="5" t="str">
-        <v>Stock at hand at the center after a physical stock count</v>
+        <v>Days the facility was stocked out of the item</v>
       </c>
       <c r="F105" s="5" t="str">
-        <v>Stock at hand syringes with needle 1ml</v>
+        <v>Stockout days cold boxes</v>
       </c>
       <c r="G105" s="5" t="str">
         <v>1</v>
@@ -5450,7 +5791,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I105" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J105" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5458,22 +5799,22 @@
     </row>
     <row r="106">
       <c r="A106" s="4" t="str">
-        <v>ZEXvmTSnv8c</v>
+        <v>w42k9kZegoW</v>
       </c>
       <c r="B106" s="4" t="str">
-        <v>[CONFIG] COVAX - Closing balance - Vaccine 2 (doses)</v>
+        <v>[CONFIG] COVAC - Distributed safety box</v>
       </c>
       <c r="C106" s="4" t="str">
-        <v>Closing balance - Vaccine 2 (doses)</v>
+        <v>Distributed safety box</v>
       </c>
       <c r="D106" s="4" t="str">
-        <v>CVX_CLOSING_BALANCE_VACCINE2_DOSES</v>
+        <v>CVC_DISTRIBUTED_SAFETY_BOXES</v>
       </c>
       <c r="E106" s="4" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Distributed to people receiving the items</v>
       </c>
       <c r="F106" s="4" t="str">
-        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+        <v>Distributed safety boxes</v>
       </c>
       <c r="G106" s="4" t="str">
         <v>1</v>
@@ -5482,7 +5823,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I106" s="4" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J106" s="4" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5490,22 +5831,22 @@
     </row>
     <row r="107">
       <c r="A107" s="5" t="str">
-        <v>zqTS3RiSL3o</v>
+        <v>wassnxEhpwM</v>
       </c>
       <c r="B107" s="5" t="str">
-        <v>[CONFIG] COVAX - Doses per vial - Vaccine 1</v>
+        <v>[CONFIG] COVAC - Target essential workers</v>
       </c>
       <c r="C107" s="5" t="str">
-        <v>Doses per vial - Vaccine 1</v>
+        <v>Target essential workers</v>
       </c>
       <c r="D107" s="5" t="str">
-        <v>CVX_DOSES_IN_A_VIAL_VACCINE1</v>
+        <v>CVC_TARGET_ESSENTIAL_WORKERS</v>
       </c>
       <c r="E107" s="5" t="str">
-        <v>Number of doses in a vial - Vaccine1</v>
+        <v>Target essential workers</v>
       </c>
       <c r="F107" s="5" t="str">
-        <v>Doses in a vial - Vaccine1</v>
+        <v>Target essential workers</v>
       </c>
       <c r="G107" s="5" t="str">
         <v>1</v>
@@ -5514,7 +5855,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I107" s="5" t="str">
-        <v>2021-02-01</v>
+        <v>2021-02-24</v>
       </c>
       <c r="J107" s="5" t="str">
         <v>SKgp2iI0dJp</v>
@@ -5522,33 +5863,705 @@
     </row>
     <row r="108">
       <c r="A108" s="4" t="str">
+        <v>wcMsZNh0GO0</v>
+      </c>
+      <c r="B108" s="4" t="str">
+        <v>[CONFIG] COVAC - Received safety box</v>
+      </c>
+      <c r="C108" s="4" t="str">
+        <v>Received safety box</v>
+      </c>
+      <c r="D108" s="4" t="str">
+        <v>CVC_RECEIVED_SAFETY_BOX</v>
+      </c>
+      <c r="E108" s="4" t="str">
+        <v>Received at the centre</v>
+      </c>
+      <c r="F108" s="4" t="str">
+        <v>Received safety boxes</v>
+      </c>
+      <c r="G108" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H108" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I108" s="4" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="J108" s="4" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="5" t="str">
+        <v>WMjFkieChKj</v>
+      </c>
+      <c r="B109" s="5" t="str">
+        <v>[CONFIG] COVAC - Stockout days - Vaccine 2 (vials)</v>
+      </c>
+      <c r="C109" s="5" t="str">
+        <v>Stockout days - Vaccine 2 (vials)</v>
+      </c>
+      <c r="D109" s="5" t="str">
+        <v>CVC_STOCKOUT_DAYS_VACCINE2_VIALS</v>
+      </c>
+      <c r="E109" s="5" t="str">
+        <v>Days the centre was stocked out of the item</v>
+      </c>
+      <c r="F109" s="5" t="str">
+        <v>Stockout days - Vaccine2</v>
+      </c>
+      <c r="G109" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H109" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I109" s="5" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="J109" s="5" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="4" t="str">
+        <v>wpfKN5vD3QG</v>
+      </c>
+      <c r="B110" s="4" t="str">
+        <v>[CONFIG] COVAC - Used vials</v>
+      </c>
+      <c r="C110" s="4" t="str">
+        <v>Used vials</v>
+      </c>
+      <c r="D110" s="4" t="str">
+        <v>CVC_USED_VIALS</v>
+      </c>
+      <c r="E110" s="4" t="str">
+        <v>(Opening balance+Received)-(Redistributed+Stock on hand)</v>
+      </c>
+      <c r="F110" s="4" t="str">
+        <v>(Opening balance+Received)-(Redistributed+Stock on hand)</v>
+      </c>
+      <c r="G110" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H110" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I110" s="4" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="J110" s="4" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="5" t="str">
+        <v>X2XYc8WNUY3</v>
+      </c>
+      <c r="B111" s="5" t="str">
+        <v>[CONFIG] COVAC - Distributed - Vaccine 1 (doses)</v>
+      </c>
+      <c r="C111" s="5" t="str">
+        <v>Distributed - Vaccine 1 (doses)</v>
+      </c>
+      <c r="D111" s="5" t="str">
+        <v>CVC_DISTRIBUTED_VACCINE1_DOSES</v>
+      </c>
+      <c r="E111" s="5" t="str">
+        <v>Distributed to people receiving the vaccines</v>
+      </c>
+      <c r="F111" s="5" t="str">
+        <v>Distributed - Vaccine1 doses</v>
+      </c>
+      <c r="G111" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H111" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I111" s="5" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="J111" s="5" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="4" t="str">
+        <v>x4tQ5wV60mg</v>
+      </c>
+      <c r="B112" s="4" t="str">
+        <v>[CONFIG] COVAC - Redistributed diluent</v>
+      </c>
+      <c r="C112" s="4" t="str">
+        <v>Redistributed diluent</v>
+      </c>
+      <c r="D112" s="4" t="str">
+        <v>CVC_REDISTRIBUTED_DILUENT</v>
+      </c>
+      <c r="E112" s="4" t="str">
+        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
+      </c>
+      <c r="F112" s="4" t="str">
+        <v>Redistributed diluent</v>
+      </c>
+      <c r="G112" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H112" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I112" s="4" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="J112" s="4" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="5" t="str">
+        <v>XAu9nDyYWiQ</v>
+      </c>
+      <c r="B113" s="5" t="str">
+        <v>[CONFIG] COVAC - Stock at hand diluent</v>
+      </c>
+      <c r="C113" s="5" t="str">
+        <v>Stock at hand diluent</v>
+      </c>
+      <c r="D113" s="5" t="str">
+        <v>CVC_STOCK_AT_HAND_DILUENT</v>
+      </c>
+      <c r="E113" s="5" t="str">
+        <v>Stock at hand at the center after a physical stock count</v>
+      </c>
+      <c r="F113" s="5" t="str">
+        <v>Stock at hand diluent</v>
+      </c>
+      <c r="G113" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H113" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I113" s="5" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="J113" s="5" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="4" t="str">
+        <v>XP9ag4eDNlu</v>
+      </c>
+      <c r="B114" s="4" t="str">
+        <v>[CONFIG] COVAC - Discarded closed vials - Vaccine 3</v>
+      </c>
+      <c r="C114" s="4" t="str">
+        <v>Discarded closed vials - Vaccine 3</v>
+      </c>
+      <c r="D114" s="4" t="str">
+        <v>CVC_DISCARDED__OPEN_VIALS_VACCINE3</v>
+      </c>
+      <c r="E114" s="4" t="str">
+        <v>Discarded due to expiry, damage, contamination and etc</v>
+      </c>
+      <c r="F114" s="4" t="str">
+        <v>Discarded closed vials - Vaccine 3</v>
+      </c>
+      <c r="G114" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H114" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I114" s="4" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="J114" s="4" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="5" t="str">
+        <v>XxmA3VOxZdM</v>
+      </c>
+      <c r="B115" s="5" t="str">
+        <v>[CONFIG] COVAC - Distributed - Vaccine 3 (doses)</v>
+      </c>
+      <c r="C115" s="5" t="str">
+        <v>Distributed - Vaccine 3 (doses)</v>
+      </c>
+      <c r="D115" s="5" t="str">
+        <v>CVC_DISTRIBUTED_VACCINE3_DOSES</v>
+      </c>
+      <c r="E115" s="5" t="str">
+        <v>Distributed to people receiving the vaccines</v>
+      </c>
+      <c r="F115" s="5" t="str">
+        <v>Distributed - Vaccine3 doses</v>
+      </c>
+      <c r="G115" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H115" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I115" s="5" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="J115" s="5" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="4" t="str">
+        <v>y7uIwU6x8VS</v>
+      </c>
+      <c r="B116" s="4" t="str">
+        <v>[CONFIG] COVAC - Vaccine 1 uptake (%)</v>
+      </c>
+      <c r="C116" s="4" t="str">
+        <v>Vaccine 1 uptake (%)</v>
+      </c>
+      <c r="D116" s="4" t="str">
+        <v>CVC_VACCINE1_UPTAKE_%</v>
+      </c>
+      <c r="E116" s="4" t="str">
+        <v>Proportion of people given doses of vaccine1</v>
+      </c>
+      <c r="F116" s="4" t="str">
+        <v>Vaccine1 doses given</v>
+      </c>
+      <c r="G116" s="4" t="str">
+        <v>Total doses of all vaccines given</v>
+      </c>
+      <c r="H116" s="4" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I116" s="4" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="J116" s="4" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="5" t="str">
+        <v>yB3Vf9Quskj</v>
+      </c>
+      <c r="B117" s="5" t="str">
+        <v>[CONFIG] COVAC - Discarded vaccination cards</v>
+      </c>
+      <c r="C117" s="5" t="str">
+        <v>Discarded vaccination cards</v>
+      </c>
+      <c r="D117" s="5" t="str">
+        <v>CVC_DISCARDED_CARDS</v>
+      </c>
+      <c r="E117" s="5" t="str">
+        <v>Discarded due to expiry, damage, contamination and etc</v>
+      </c>
+      <c r="F117" s="5" t="str">
+        <v>Discarded vaccination cards</v>
+      </c>
+      <c r="G117" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H117" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I117" s="5" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="J117" s="5" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="4" t="str">
+        <v>Yb759ffWrrD</v>
+      </c>
+      <c r="B118" s="4" t="str">
+        <v>[CONFIG] COVAC - Vaccine usage rate (%)</v>
+      </c>
+      <c r="C118" s="4" t="str">
+        <v>Vaccine usage rate (%)</v>
+      </c>
+      <c r="D118" s="4" t="str">
+        <v>CVC_ VACCINE_USAGE_RATE_%</v>
+      </c>
+      <c r="E118" s="4" t="str">
+        <v>(Distributed/Used)*100</v>
+      </c>
+      <c r="F118" s="4" t="str">
+        <v>Distributed vials</v>
+      </c>
+      <c r="G118" s="4" t="str">
+        <v>Used vials</v>
+      </c>
+      <c r="H118" s="4" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I118" s="4" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="J118" s="4" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="5" t="str">
+        <v>YBLUIQSCFPJ</v>
+      </c>
+      <c r="B119" s="5" t="str">
+        <v>[CONFIG] COVAC - Closing balance - Vaccine 3 (doses)</v>
+      </c>
+      <c r="C119" s="5" t="str">
+        <v>Closing balance - Vaccine 3 (doses)</v>
+      </c>
+      <c r="D119" s="5" t="str">
+        <v>CVC_CLOSING_BALANCE_VACCINE3_DOSES</v>
+      </c>
+      <c r="E119" s="5" t="str">
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+      </c>
+      <c r="F119" s="5" t="str">
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+      </c>
+      <c r="G119" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H119" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I119" s="5" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="J119" s="5" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="4" t="str">
+        <v>yJ9izFBk1bB</v>
+      </c>
+      <c r="B120" s="4" t="str">
+        <v>[CONFIG] COVAC - Closing balance safety boxes</v>
+      </c>
+      <c r="C120" s="4" t="str">
+        <v>Closing balance safety boxes</v>
+      </c>
+      <c r="D120" s="4" t="str">
+        <v>CVC_CLOSING_BALANCE_SAFETY_BOXES</v>
+      </c>
+      <c r="E120" s="4" t="str">
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+      </c>
+      <c r="F120" s="4" t="str">
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+      </c>
+      <c r="G120" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H120" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I120" s="4" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="J120" s="4" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="5" t="str">
+        <v>ymno3YCIqbh</v>
+      </c>
+      <c r="B121" s="5" t="str">
+        <v>[CONFIG] COVAC - Redistributed vaccination cards</v>
+      </c>
+      <c r="C121" s="5" t="str">
+        <v>Redistributed vaccination cards</v>
+      </c>
+      <c r="D121" s="5" t="str">
+        <v>CVC_REDISTRIBUTED_CARDS</v>
+      </c>
+      <c r="E121" s="5" t="str">
+        <v>Redistributed back into the supply chain and is no longer intended for the at the centre</v>
+      </c>
+      <c r="F121" s="5" t="str">
+        <v>Redistributed vaccination cards</v>
+      </c>
+      <c r="G121" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H121" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I121" s="5" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="J121" s="5" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="4" t="str">
+        <v>yuEFomZq3Fh</v>
+      </c>
+      <c r="B122" s="4" t="str">
+        <v>[CONFIG] COVAC - Closing balance cold boxes</v>
+      </c>
+      <c r="C122" s="4" t="str">
+        <v>Closing balance cold boxes</v>
+      </c>
+      <c r="D122" s="4" t="str">
+        <v>CVC_CLOSING_BALANCE_COLD_BOXES</v>
+      </c>
+      <c r="E122" s="4" t="str">
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+      </c>
+      <c r="F122" s="4" t="str">
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+      </c>
+      <c r="G122" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H122" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I122" s="4" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="J122" s="4" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="5" t="str">
+        <v>z0zjaGkserE</v>
+      </c>
+      <c r="B123" s="5" t="str">
+        <v>[CONFIG] COVAC - Discarded safety box</v>
+      </c>
+      <c r="C123" s="5" t="str">
+        <v>Discarded safety box</v>
+      </c>
+      <c r="D123" s="5" t="str">
+        <v>CVC_DISCARDED_SAFETY_BOXES</v>
+      </c>
+      <c r="E123" s="5" t="str">
+        <v>Discarded due to expiry, damage, contamination and etc</v>
+      </c>
+      <c r="F123" s="5" t="str">
+        <v>Discarded safety boxes</v>
+      </c>
+      <c r="G123" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H123" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I123" s="5" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="J123" s="5" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="4" t="str">
+        <v>z5Dp2kLtxAt</v>
+      </c>
+      <c r="B124" s="4" t="str">
+        <v>[CONFIG] COVAC - Distributed dilution syringes</v>
+      </c>
+      <c r="C124" s="4" t="str">
+        <v>Distributed dilution syringes</v>
+      </c>
+      <c r="D124" s="4" t="str">
+        <v>CVC_DISTRIBUTED_DILUTION_SYRINGES</v>
+      </c>
+      <c r="E124" s="4" t="str">
+        <v>Distributed to people receiving the items</v>
+      </c>
+      <c r="F124" s="4" t="str">
+        <v>Distributed dilution syringes</v>
+      </c>
+      <c r="G124" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H124" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I124" s="4" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="J124" s="4" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="5" t="str">
+        <v>zcN15JQUWc7</v>
+      </c>
+      <c r="B125" s="5" t="str">
+        <v>[CONFIG] COVAC - Stock at hand - Vaccine 2 (doses)</v>
+      </c>
+      <c r="C125" s="5" t="str">
+        <v>Stock at hand - Vaccine 2 (doses)</v>
+      </c>
+      <c r="D125" s="5" t="str">
+        <v>CVC_STOCK_AT_HAND_VACCINE2_DOSES</v>
+      </c>
+      <c r="E125" s="5" t="str">
+        <v>Stock at hand at the center after a physical stock count</v>
+      </c>
+      <c r="F125" s="5" t="str">
+        <v>Stock at hand - Vaccine 2 doses</v>
+      </c>
+      <c r="G125" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H125" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I125" s="5" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="J125" s="5" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="4" t="str">
+        <v>zdTKcWr73Sk</v>
+      </c>
+      <c r="B126" s="4" t="str">
+        <v>[CONFIG] COVAC - Stock at hand syringes with needle 1ml</v>
+      </c>
+      <c r="C126" s="4" t="str">
+        <v>Stock at hand syringes with needle 1ml</v>
+      </c>
+      <c r="D126" s="4" t="str">
+        <v>CVC_STOCK_AT_HAND_SYRINGES_WITH_ NEEDLE_1ML</v>
+      </c>
+      <c r="E126" s="4" t="str">
+        <v>Stock at hand at the center after a physical stock count</v>
+      </c>
+      <c r="F126" s="4" t="str">
+        <v>Stock at hand syringes with needle 1ml</v>
+      </c>
+      <c r="G126" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H126" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I126" s="4" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="J126" s="4" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="5" t="str">
+        <v>ZEXvmTSnv8c</v>
+      </c>
+      <c r="B127" s="5" t="str">
+        <v>[CONFIG] COVAC - Closing balance - Vaccine 2 (doses)</v>
+      </c>
+      <c r="C127" s="5" t="str">
+        <v>Closing balance - Vaccine 2 (doses)</v>
+      </c>
+      <c r="D127" s="5" t="str">
+        <v>CVC_CLOSING_BALANCE_VACCINE2_DOSES</v>
+      </c>
+      <c r="E127" s="5" t="str">
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+      </c>
+      <c r="F127" s="5" t="str">
+        <v>(Opening balance+Received)-(Distributed+Redistributed+Discarded)</v>
+      </c>
+      <c r="G127" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H127" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I127" s="5" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="J127" s="5" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="4" t="str">
+        <v>zqTS3RiSL3o</v>
+      </c>
+      <c r="B128" s="4" t="str">
+        <v>[CONFIG] COVAC - Doses per vial - Vaccine 1</v>
+      </c>
+      <c r="C128" s="4" t="str">
+        <v>Doses per vial - Vaccine 1</v>
+      </c>
+      <c r="D128" s="4" t="str">
+        <v>CVC_DOSES_IN_A_VIAL_VACCINE1</v>
+      </c>
+      <c r="E128" s="4" t="str">
+        <v>Number of doses in a vial - Vaccine1</v>
+      </c>
+      <c r="F128" s="4" t="str">
+        <v>Doses in a vial - Vaccine1</v>
+      </c>
+      <c r="G128" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H128" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I128" s="4" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="J128" s="4" t="str">
+        <v>SKgp2iI0dJp</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="5" t="str">
         <v>zTMJ8UYjlCU</v>
       </c>
-      <c r="B108" s="4" t="str">
-        <v>[CONFIG] COVAX - Opening balance vials</v>
-      </c>
-      <c r="C108" s="4" t="str">
+      <c r="B129" s="5" t="str">
+        <v>[CONFIG] COVAC - Opening balance vials</v>
+      </c>
+      <c r="C129" s="5" t="str">
         <v>Opening balance vials</v>
       </c>
-      <c r="D108" s="4" t="str">
-        <v>CVX_OPENING_BALANCE_VIALS</v>
-      </c>
-      <c r="E108" s="4" t="str">
+      <c r="D129" s="5" t="str">
+        <v>CVC_OPENING_BALANCE_VIALS</v>
+      </c>
+      <c r="E129" s="5" t="str">
         <v>Opening balance equals the physical 'stock at hand count' of the previous period</v>
       </c>
-      <c r="F108" s="4" t="str">
+      <c r="F129" s="5" t="str">
         <v>Opening balance vials</v>
       </c>
-      <c r="G108" s="4" t="str">
-        <v>1</v>
-      </c>
-      <c r="H108" s="4" t="str">
-        <v>Numerator only (number)</v>
-      </c>
-      <c r="I108" s="4" t="str">
-        <v>2021-02-01</v>
-      </c>
-      <c r="J108" s="4" t="str">
+      <c r="G129" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H129" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I129" s="5" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="J129" s="5" t="str">
         <v>SKgp2iI0dJp</v>
       </c>
     </row>
@@ -5591,7 +6604,7 @@
         <v>100</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>hmSnCXmLYwt</v>
@@ -5605,7 +6618,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="D3" s="5" t="str">
         <v>kHy61PbChXr</v>
@@ -5622,7 +6635,7 @@
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
   </cols>
@@ -5640,10 +6653,10 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVAX - Vaccination</v>
+        <v>COVID-19 VACCINE DELIVERY (COVAC)</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-01-29</v>
+        <v>2021-02-24</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>fya0FUpbxX9</v>
